--- a/MySQL测试环境资源池.xlsx
+++ b/MySQL测试环境资源池.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="8.176~186 (Non-pi)" sheetId="1" r:id="rId1"/>
@@ -3340,7 +3340,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="446">
+  <cellXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4439,6 +4439,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4448,30 +4466,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4499,17 +4493,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4677,6 +4665,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4979,9 +4985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G36" sqref="G36:G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5000,34 +5006,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="383" t="s">
+      <c r="A1" s="381" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
-      <c r="H1" s="382" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="381"/>
+      <c r="E1" s="381"/>
+      <c r="F1" s="381"/>
+      <c r="G1" s="381"/>
+      <c r="H1" s="380" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="382"/>
-      <c r="J1" s="382"/>
-      <c r="K1" s="382"/>
-      <c r="L1" s="382"/>
-      <c r="M1" s="382"/>
-      <c r="N1" s="382"/>
-      <c r="O1" s="382"/>
-      <c r="P1" s="382"/>
-      <c r="Q1" s="382"/>
-      <c r="R1" s="382"/>
-      <c r="S1" s="382"/>
-      <c r="T1" s="382"/>
-      <c r="U1" s="382"/>
-      <c r="V1" s="382"/>
-      <c r="W1" s="382"/>
-      <c r="X1" s="382"/>
+      <c r="I1" s="380"/>
+      <c r="J1" s="380"/>
+      <c r="K1" s="380"/>
+      <c r="L1" s="380"/>
+      <c r="M1" s="380"/>
+      <c r="N1" s="380"/>
+      <c r="O1" s="380"/>
+      <c r="P1" s="380"/>
+      <c r="Q1" s="380"/>
+      <c r="R1" s="380"/>
+      <c r="S1" s="380"/>
+      <c r="T1" s="380"/>
+      <c r="U1" s="380"/>
+      <c r="V1" s="380"/>
+      <c r="W1" s="380"/>
+      <c r="X1" s="380"/>
     </row>
     <row r="2" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5105,29 +5111,29 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="372" t="s">
+      <c r="A3" s="366" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="377">
+      <c r="B3" s="375">
         <v>32</v>
       </c>
-      <c r="C3" s="377">
+      <c r="C3" s="375">
         <v>128</v>
       </c>
-      <c r="D3" s="377">
+      <c r="D3" s="375">
         <v>18</v>
       </c>
       <c r="E3" s="369" t="str">
-        <f>TEXT(ROUND(SUM(I3:I19)/B3*100,4),"0.00")</f>
-        <v>112.50</v>
+        <f>TEXT(ROUND(SUM(I3:I35)/B3*100,4),"0.00")</f>
+        <v>225.00</v>
       </c>
       <c r="F3" s="369" t="str">
-        <f>TEXT(ROUND(SUM(J3:J19)/C3*100,4),"0.00")</f>
-        <v>118.75</v>
-      </c>
-      <c r="G3" s="366" t="str">
-        <f>TEXT(ROUND(SUM(M3:M19)/(D3*1024)*100,4),"0.00")</f>
-        <v>40.74</v>
+        <f>TEXT(ROUND(SUM(J3:J35)/C3*100,4),"0.00")</f>
+        <v>225.00</v>
+      </c>
+      <c r="G3" s="372" t="str">
+        <f>TEXT(ROUND(SUM(M3:M35)/(D3*1024)*100,4),"0.00")</f>
+        <v>77.69</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>5</v>
@@ -5171,13 +5177,13 @@
       </c>
     </row>
     <row r="4" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="373"/>
-      <c r="B4" s="378"/>
-      <c r="C4" s="378"/>
-      <c r="D4" s="378"/>
+      <c r="A4" s="367"/>
+      <c r="B4" s="376"/>
+      <c r="C4" s="376"/>
+      <c r="D4" s="376"/>
       <c r="E4" s="370"/>
       <c r="F4" s="370"/>
-      <c r="G4" s="367"/>
+      <c r="G4" s="373"/>
       <c r="H4" s="17" t="s">
         <v>52</v>
       </c>
@@ -5218,13 +5224,13 @@
       </c>
     </row>
     <row r="5" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="373"/>
-      <c r="B5" s="378"/>
-      <c r="C5" s="378"/>
-      <c r="D5" s="378"/>
+      <c r="A5" s="367"/>
+      <c r="B5" s="376"/>
+      <c r="C5" s="376"/>
+      <c r="D5" s="376"/>
       <c r="E5" s="370"/>
       <c r="F5" s="370"/>
-      <c r="G5" s="367"/>
+      <c r="G5" s="373"/>
       <c r="H5" s="17" t="s">
         <v>52</v>
       </c>
@@ -5265,13 +5271,13 @@
       </c>
     </row>
     <row r="6" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="373"/>
-      <c r="B6" s="378"/>
-      <c r="C6" s="378"/>
-      <c r="D6" s="378"/>
+      <c r="A6" s="367"/>
+      <c r="B6" s="376"/>
+      <c r="C6" s="376"/>
+      <c r="D6" s="376"/>
       <c r="E6" s="370"/>
       <c r="F6" s="370"/>
-      <c r="G6" s="367"/>
+      <c r="G6" s="373"/>
       <c r="H6" s="16" t="s">
         <v>92</v>
       </c>
@@ -5312,13 +5318,13 @@
       </c>
     </row>
     <row r="7" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="373"/>
-      <c r="B7" s="378"/>
-      <c r="C7" s="378"/>
-      <c r="D7" s="378"/>
+      <c r="A7" s="367"/>
+      <c r="B7" s="376"/>
+      <c r="C7" s="376"/>
+      <c r="D7" s="376"/>
       <c r="E7" s="370"/>
       <c r="F7" s="370"/>
-      <c r="G7" s="367"/>
+      <c r="G7" s="373"/>
       <c r="H7" s="16" t="s">
         <v>52</v>
       </c>
@@ -5359,13 +5365,13 @@
       </c>
     </row>
     <row r="8" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="373"/>
-      <c r="B8" s="378"/>
-      <c r="C8" s="378"/>
-      <c r="D8" s="378"/>
+      <c r="A8" s="367"/>
+      <c r="B8" s="376"/>
+      <c r="C8" s="376"/>
+      <c r="D8" s="376"/>
       <c r="E8" s="370"/>
       <c r="F8" s="370"/>
-      <c r="G8" s="367"/>
+      <c r="G8" s="373"/>
       <c r="H8" s="26" t="s">
         <v>45</v>
       </c>
@@ -5406,13 +5412,13 @@
       </c>
     </row>
     <row r="9" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="373"/>
-      <c r="B9" s="378"/>
-      <c r="C9" s="378"/>
-      <c r="D9" s="378"/>
+      <c r="A9" s="367"/>
+      <c r="B9" s="376"/>
+      <c r="C9" s="376"/>
+      <c r="D9" s="376"/>
       <c r="E9" s="370"/>
       <c r="F9" s="370"/>
-      <c r="G9" s="367"/>
+      <c r="G9" s="373"/>
       <c r="H9" s="35" t="s">
         <v>40</v>
       </c>
@@ -5453,13 +5459,13 @@
       </c>
     </row>
     <row r="10" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="373"/>
-      <c r="B10" s="378"/>
-      <c r="C10" s="378"/>
-      <c r="D10" s="378"/>
+      <c r="A10" s="367"/>
+      <c r="B10" s="376"/>
+      <c r="C10" s="376"/>
+      <c r="D10" s="376"/>
       <c r="E10" s="370"/>
       <c r="F10" s="370"/>
-      <c r="G10" s="367"/>
+      <c r="G10" s="373"/>
       <c r="H10" s="47" t="s">
         <v>40</v>
       </c>
@@ -5500,13 +5506,13 @@
       </c>
     </row>
     <row r="11" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="373"/>
-      <c r="B11" s="378"/>
-      <c r="C11" s="378"/>
-      <c r="D11" s="378"/>
+      <c r="A11" s="367"/>
+      <c r="B11" s="376"/>
+      <c r="C11" s="376"/>
+      <c r="D11" s="376"/>
       <c r="E11" s="370"/>
       <c r="F11" s="370"/>
-      <c r="G11" s="367"/>
+      <c r="G11" s="373"/>
       <c r="H11" s="73" t="s">
         <v>177</v>
       </c>
@@ -5547,13 +5553,13 @@
       </c>
     </row>
     <row r="12" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="373"/>
-      <c r="B12" s="378"/>
-      <c r="C12" s="378"/>
-      <c r="D12" s="378"/>
+      <c r="A12" s="367"/>
+      <c r="B12" s="376"/>
+      <c r="C12" s="376"/>
+      <c r="D12" s="376"/>
       <c r="E12" s="370"/>
       <c r="F12" s="370"/>
-      <c r="G12" s="367"/>
+      <c r="G12" s="373"/>
       <c r="H12" s="84" t="s">
         <v>114</v>
       </c>
@@ -5594,13 +5600,13 @@
       </c>
     </row>
     <row r="13" spans="1:24" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="373"/>
-      <c r="B13" s="378"/>
-      <c r="C13" s="378"/>
-      <c r="D13" s="378"/>
+      <c r="A13" s="367"/>
+      <c r="B13" s="376"/>
+      <c r="C13" s="376"/>
+      <c r="D13" s="376"/>
       <c r="E13" s="370"/>
       <c r="F13" s="370"/>
-      <c r="G13" s="367"/>
+      <c r="G13" s="373"/>
       <c r="H13" s="97" t="s">
         <v>114</v>
       </c>
@@ -5641,13 +5647,13 @@
       </c>
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="373"/>
-      <c r="B14" s="378"/>
-      <c r="C14" s="378"/>
-      <c r="D14" s="378"/>
+      <c r="A14" s="367"/>
+      <c r="B14" s="376"/>
+      <c r="C14" s="376"/>
+      <c r="D14" s="376"/>
       <c r="E14" s="370"/>
       <c r="F14" s="370"/>
-      <c r="G14" s="367"/>
+      <c r="G14" s="373"/>
       <c r="H14" s="106" t="s">
         <v>223</v>
       </c>
@@ -5688,13 +5694,13 @@
       </c>
     </row>
     <row r="15" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="373"/>
-      <c r="B15" s="378"/>
-      <c r="C15" s="378"/>
-      <c r="D15" s="378"/>
+      <c r="A15" s="367"/>
+      <c r="B15" s="376"/>
+      <c r="C15" s="376"/>
+      <c r="D15" s="376"/>
       <c r="E15" s="370"/>
       <c r="F15" s="370"/>
-      <c r="G15" s="367"/>
+      <c r="G15" s="373"/>
       <c r="H15" s="114" t="s">
         <v>5</v>
       </c>
@@ -5735,13 +5741,13 @@
       </c>
     </row>
     <row r="16" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="373"/>
-      <c r="B16" s="378"/>
-      <c r="C16" s="378"/>
-      <c r="D16" s="378"/>
+      <c r="A16" s="367"/>
+      <c r="B16" s="376"/>
+      <c r="C16" s="376"/>
+      <c r="D16" s="376"/>
       <c r="E16" s="370"/>
       <c r="F16" s="370"/>
-      <c r="G16" s="367"/>
+      <c r="G16" s="373"/>
       <c r="H16" s="127" t="s">
         <v>250</v>
       </c>
@@ -5782,13 +5788,13 @@
       </c>
     </row>
     <row r="17" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="373"/>
-      <c r="B17" s="378"/>
-      <c r="C17" s="378"/>
-      <c r="D17" s="378"/>
+      <c r="A17" s="367"/>
+      <c r="B17" s="376"/>
+      <c r="C17" s="376"/>
+      <c r="D17" s="376"/>
       <c r="E17" s="370"/>
       <c r="F17" s="370"/>
-      <c r="G17" s="367"/>
+      <c r="G17" s="373"/>
       <c r="H17" s="138" t="s">
         <v>40</v>
       </c>
@@ -5829,13 +5835,13 @@
       </c>
     </row>
     <row r="18" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="373"/>
-      <c r="B18" s="378"/>
-      <c r="C18" s="378"/>
-      <c r="D18" s="378"/>
+      <c r="A18" s="367"/>
+      <c r="B18" s="376"/>
+      <c r="C18" s="376"/>
+      <c r="D18" s="376"/>
       <c r="E18" s="370"/>
       <c r="F18" s="370"/>
-      <c r="G18" s="367"/>
+      <c r="G18" s="373"/>
       <c r="H18" s="352" t="s">
         <v>5</v>
       </c>
@@ -5876,13 +5882,13 @@
       </c>
     </row>
     <row r="19" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="374"/>
-      <c r="B19" s="378"/>
-      <c r="C19" s="378"/>
-      <c r="D19" s="378"/>
-      <c r="E19" s="371"/>
-      <c r="F19" s="371"/>
-      <c r="G19" s="368"/>
+      <c r="A19" s="368"/>
+      <c r="B19" s="376"/>
+      <c r="C19" s="376"/>
+      <c r="D19" s="376"/>
+      <c r="E19" s="370"/>
+      <c r="F19" s="370"/>
+      <c r="G19" s="373"/>
       <c r="H19" s="16" t="s">
         <v>392</v>
       </c>
@@ -5927,24 +5933,15 @@
       </c>
     </row>
     <row r="20" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="384" t="s">
+      <c r="A20" s="382" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="378"/>
-      <c r="C20" s="378"/>
-      <c r="D20" s="378"/>
-      <c r="E20" s="386" t="str">
-        <f>TEXT(ROUND(SUM(I20:I35)/B3*100,4),"0.00")</f>
-        <v>112.50</v>
-      </c>
-      <c r="F20" s="386" t="str">
-        <f>TEXT(ROUND(SUM(J20:J35)/C3*100,4),"0.00")</f>
-        <v>106.25</v>
-      </c>
-      <c r="G20" s="389" t="str">
-        <f>TEXT(ROUND(SUM(M20:M35)/(D3*1024)*100,4),"0.00")</f>
-        <v>36.95</v>
-      </c>
+      <c r="B20" s="376"/>
+      <c r="C20" s="376"/>
+      <c r="D20" s="376"/>
+      <c r="E20" s="370"/>
+      <c r="F20" s="370"/>
+      <c r="G20" s="373"/>
       <c r="H20" s="17" t="s">
         <v>5</v>
       </c>
@@ -5987,13 +5984,13 @@
       </c>
     </row>
     <row r="21" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="385"/>
-      <c r="B21" s="378"/>
-      <c r="C21" s="378"/>
-      <c r="D21" s="378"/>
-      <c r="E21" s="386"/>
-      <c r="F21" s="386"/>
-      <c r="G21" s="389"/>
+      <c r="A21" s="383"/>
+      <c r="B21" s="376"/>
+      <c r="C21" s="376"/>
+      <c r="D21" s="376"/>
+      <c r="E21" s="370"/>
+      <c r="F21" s="370"/>
+      <c r="G21" s="373"/>
       <c r="H21" s="17" t="s">
         <v>61</v>
       </c>
@@ -6034,13 +6031,13 @@
       </c>
     </row>
     <row r="22" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="385"/>
-      <c r="B22" s="378"/>
-      <c r="C22" s="378"/>
-      <c r="D22" s="378"/>
-      <c r="E22" s="386"/>
-      <c r="F22" s="386"/>
-      <c r="G22" s="389"/>
+      <c r="A22" s="383"/>
+      <c r="B22" s="376"/>
+      <c r="C22" s="376"/>
+      <c r="D22" s="376"/>
+      <c r="E22" s="370"/>
+      <c r="F22" s="370"/>
+      <c r="G22" s="373"/>
       <c r="H22" s="17" t="s">
         <v>5</v>
       </c>
@@ -6081,13 +6078,13 @@
       </c>
     </row>
     <row r="23" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="385"/>
-      <c r="B23" s="378"/>
-      <c r="C23" s="378"/>
-      <c r="D23" s="378"/>
-      <c r="E23" s="386"/>
-      <c r="F23" s="386"/>
-      <c r="G23" s="389"/>
+      <c r="A23" s="383"/>
+      <c r="B23" s="376"/>
+      <c r="C23" s="376"/>
+      <c r="D23" s="376"/>
+      <c r="E23" s="370"/>
+      <c r="F23" s="370"/>
+      <c r="G23" s="373"/>
       <c r="H23" s="16" t="s">
         <v>103</v>
       </c>
@@ -6128,13 +6125,13 @@
       </c>
     </row>
     <row r="24" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="385"/>
-      <c r="B24" s="378"/>
-      <c r="C24" s="378"/>
-      <c r="D24" s="378"/>
-      <c r="E24" s="386"/>
-      <c r="F24" s="386"/>
-      <c r="G24" s="389"/>
+      <c r="A24" s="383"/>
+      <c r="B24" s="376"/>
+      <c r="C24" s="376"/>
+      <c r="D24" s="376"/>
+      <c r="E24" s="370"/>
+      <c r="F24" s="370"/>
+      <c r="G24" s="373"/>
       <c r="H24" s="17" t="s">
         <v>5</v>
       </c>
@@ -6175,13 +6172,13 @@
       </c>
     </row>
     <row r="25" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="385"/>
-      <c r="B25" s="378"/>
-      <c r="C25" s="378"/>
-      <c r="D25" s="378"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="386"/>
-      <c r="G25" s="389"/>
+      <c r="A25" s="383"/>
+      <c r="B25" s="376"/>
+      <c r="C25" s="376"/>
+      <c r="D25" s="376"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="373"/>
       <c r="H25" s="23" t="s">
         <v>5</v>
       </c>
@@ -6222,13 +6219,13 @@
       </c>
     </row>
     <row r="26" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="385"/>
-      <c r="B26" s="378"/>
-      <c r="C26" s="378"/>
-      <c r="D26" s="378"/>
-      <c r="E26" s="386"/>
-      <c r="F26" s="386"/>
-      <c r="G26" s="389"/>
+      <c r="A26" s="383"/>
+      <c r="B26" s="376"/>
+      <c r="C26" s="376"/>
+      <c r="D26" s="376"/>
+      <c r="E26" s="370"/>
+      <c r="F26" s="370"/>
+      <c r="G26" s="373"/>
       <c r="H26" s="38" t="s">
         <v>147</v>
       </c>
@@ -6269,13 +6266,13 @@
       </c>
     </row>
     <row r="27" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="385"/>
-      <c r="B27" s="378"/>
-      <c r="C27" s="378"/>
-      <c r="D27" s="378"/>
-      <c r="E27" s="386"/>
-      <c r="F27" s="386"/>
-      <c r="G27" s="389"/>
+      <c r="A27" s="383"/>
+      <c r="B27" s="376"/>
+      <c r="C27" s="376"/>
+      <c r="D27" s="376"/>
+      <c r="E27" s="370"/>
+      <c r="F27" s="370"/>
+      <c r="G27" s="373"/>
       <c r="H27" s="56" t="s">
         <v>103</v>
       </c>
@@ -6316,13 +6313,13 @@
       </c>
     </row>
     <row r="28" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="385"/>
-      <c r="B28" s="378"/>
-      <c r="C28" s="378"/>
-      <c r="D28" s="378"/>
-      <c r="E28" s="386"/>
-      <c r="F28" s="386"/>
-      <c r="G28" s="389"/>
+      <c r="A28" s="383"/>
+      <c r="B28" s="376"/>
+      <c r="C28" s="376"/>
+      <c r="D28" s="376"/>
+      <c r="E28" s="370"/>
+      <c r="F28" s="370"/>
+      <c r="G28" s="373"/>
       <c r="H28" s="73" t="s">
         <v>147</v>
       </c>
@@ -6363,13 +6360,13 @@
       </c>
     </row>
     <row r="29" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="385"/>
-      <c r="B29" s="378"/>
-      <c r="C29" s="378"/>
-      <c r="D29" s="378"/>
-      <c r="E29" s="386"/>
-      <c r="F29" s="386"/>
-      <c r="G29" s="389"/>
+      <c r="A29" s="383"/>
+      <c r="B29" s="376"/>
+      <c r="C29" s="376"/>
+      <c r="D29" s="376"/>
+      <c r="E29" s="370"/>
+      <c r="F29" s="370"/>
+      <c r="G29" s="373"/>
       <c r="H29" s="87" t="s">
         <v>211</v>
       </c>
@@ -6410,13 +6407,13 @@
       </c>
     </row>
     <row r="30" spans="1:24" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="385"/>
-      <c r="B30" s="378"/>
-      <c r="C30" s="378"/>
-      <c r="D30" s="378"/>
-      <c r="E30" s="386"/>
-      <c r="F30" s="386"/>
-      <c r="G30" s="389"/>
+      <c r="A30" s="383"/>
+      <c r="B30" s="376"/>
+      <c r="C30" s="376"/>
+      <c r="D30" s="376"/>
+      <c r="E30" s="370"/>
+      <c r="F30" s="370"/>
+      <c r="G30" s="373"/>
       <c r="H30" s="97" t="s">
         <v>114</v>
       </c>
@@ -6457,13 +6454,13 @@
       </c>
     </row>
     <row r="31" spans="1:24" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="385"/>
-      <c r="B31" s="378"/>
-      <c r="C31" s="378"/>
-      <c r="D31" s="378"/>
-      <c r="E31" s="386"/>
-      <c r="F31" s="386"/>
-      <c r="G31" s="389"/>
+      <c r="A31" s="383"/>
+      <c r="B31" s="376"/>
+      <c r="C31" s="376"/>
+      <c r="D31" s="376"/>
+      <c r="E31" s="370"/>
+      <c r="F31" s="370"/>
+      <c r="G31" s="373"/>
       <c r="H31" s="106" t="s">
         <v>224</v>
       </c>
@@ -6504,13 +6501,13 @@
       </c>
     </row>
     <row r="32" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="385"/>
-      <c r="B32" s="378"/>
-      <c r="C32" s="378"/>
-      <c r="D32" s="378"/>
-      <c r="E32" s="386"/>
-      <c r="F32" s="386"/>
-      <c r="G32" s="389"/>
+      <c r="A32" s="383"/>
+      <c r="B32" s="376"/>
+      <c r="C32" s="376"/>
+      <c r="D32" s="376"/>
+      <c r="E32" s="370"/>
+      <c r="F32" s="370"/>
+      <c r="G32" s="373"/>
       <c r="H32" s="114" t="s">
         <v>40</v>
       </c>
@@ -6551,13 +6548,13 @@
       </c>
     </row>
     <row r="33" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="385"/>
-      <c r="B33" s="378"/>
-      <c r="C33" s="378"/>
-      <c r="D33" s="378"/>
-      <c r="E33" s="386"/>
-      <c r="F33" s="386"/>
-      <c r="G33" s="389"/>
+      <c r="A33" s="383"/>
+      <c r="B33" s="376"/>
+      <c r="C33" s="376"/>
+      <c r="D33" s="376"/>
+      <c r="E33" s="370"/>
+      <c r="F33" s="370"/>
+      <c r="G33" s="373"/>
       <c r="H33" s="132" t="s">
         <v>47</v>
       </c>
@@ -6598,13 +6595,13 @@
       </c>
     </row>
     <row r="34" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="385"/>
-      <c r="B34" s="378"/>
-      <c r="C34" s="378"/>
-      <c r="D34" s="378"/>
-      <c r="E34" s="386"/>
-      <c r="F34" s="386"/>
-      <c r="G34" s="389"/>
+      <c r="A34" s="383"/>
+      <c r="B34" s="376"/>
+      <c r="C34" s="376"/>
+      <c r="D34" s="376"/>
+      <c r="E34" s="370"/>
+      <c r="F34" s="370"/>
+      <c r="G34" s="373"/>
       <c r="H34" s="145" t="s">
         <v>252</v>
       </c>
@@ -6645,13 +6642,13 @@
       </c>
     </row>
     <row r="35" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="385"/>
-      <c r="B35" s="378"/>
-      <c r="C35" s="378"/>
-      <c r="D35" s="378"/>
-      <c r="E35" s="386"/>
-      <c r="F35" s="386"/>
-      <c r="G35" s="389"/>
+      <c r="A35" s="383"/>
+      <c r="B35" s="376"/>
+      <c r="C35" s="376"/>
+      <c r="D35" s="376"/>
+      <c r="E35" s="371"/>
+      <c r="F35" s="371"/>
+      <c r="G35" s="374"/>
       <c r="H35" s="26" t="s">
         <v>275</v>
       </c>
@@ -6692,23 +6689,23 @@
       </c>
     </row>
     <row r="36" spans="1:24" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="380" t="s">
+      <c r="A36" s="378" t="s">
         <v>172</v>
       </c>
-      <c r="B36" s="378"/>
-      <c r="C36" s="378"/>
-      <c r="D36" s="378"/>
-      <c r="E36" s="375" t="str">
-        <f>TEXT(ROUND(SUM(I36:I51)/B3*100,4),"0.00")</f>
-        <v>118.75</v>
-      </c>
-      <c r="F36" s="375" t="str">
-        <f>TEXT(ROUND(SUM(J36:J51)/C3*100,4),"0.00")</f>
-        <v>114.06</v>
-      </c>
-      <c r="G36" s="376" t="str">
-        <f>TEXT(ROUND(SUM(M36:M51)/(D3*1024)*100,4),"0.00")</f>
-        <v>36.46</v>
+      <c r="B36" s="376"/>
+      <c r="C36" s="376"/>
+      <c r="D36" s="376"/>
+      <c r="E36" s="442" t="str">
+        <f>TEXT(ROUND(SUM(I36:I67)/B3*100,4),"0.00")</f>
+        <v>243.75</v>
+      </c>
+      <c r="F36" s="442" t="str">
+        <f>TEXT(ROUND(SUM(J36:J67)/C3*100,4),"0.00")</f>
+        <v>226.56</v>
+      </c>
+      <c r="G36" s="445" t="str">
+        <f>TEXT(ROUND(SUM(M36:M67)/(D3*1024)*100,4),"0.00")</f>
+        <v>72.92</v>
       </c>
       <c r="H36" s="162" t="s">
         <v>55</v>
@@ -6736,7 +6733,7 @@
       <c r="P36" s="162">
         <v>3308</v>
       </c>
-      <c r="Q36" s="387" t="s">
+      <c r="Q36" s="384" t="s">
         <v>132</v>
       </c>
       <c r="R36" s="162" t="s">
@@ -6752,13 +6749,13 @@
       </c>
     </row>
     <row r="37" spans="1:24" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="381"/>
-      <c r="B37" s="378"/>
-      <c r="C37" s="378"/>
-      <c r="D37" s="378"/>
-      <c r="E37" s="375"/>
-      <c r="F37" s="375"/>
-      <c r="G37" s="376"/>
+      <c r="A37" s="379"/>
+      <c r="B37" s="376"/>
+      <c r="C37" s="376"/>
+      <c r="D37" s="376"/>
+      <c r="E37" s="443"/>
+      <c r="F37" s="443"/>
+      <c r="G37" s="446"/>
       <c r="H37" s="15" t="s">
         <v>72</v>
       </c>
@@ -6785,7 +6782,7 @@
       <c r="P37" s="15">
         <v>3312</v>
       </c>
-      <c r="Q37" s="388"/>
+      <c r="Q37" s="385"/>
       <c r="R37" s="15" t="s">
         <v>73</v>
       </c>
@@ -6799,13 +6796,13 @@
       </c>
     </row>
     <row r="38" spans="1:24" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="381"/>
-      <c r="B38" s="378"/>
-      <c r="C38" s="378"/>
-      <c r="D38" s="378"/>
-      <c r="E38" s="375"/>
-      <c r="F38" s="375"/>
-      <c r="G38" s="376"/>
+      <c r="A38" s="379"/>
+      <c r="B38" s="376"/>
+      <c r="C38" s="376"/>
+      <c r="D38" s="376"/>
+      <c r="E38" s="443"/>
+      <c r="F38" s="443"/>
+      <c r="G38" s="446"/>
       <c r="H38" s="13" t="s">
         <v>106</v>
       </c>
@@ -6832,7 +6829,7 @@
       <c r="P38" s="15">
         <v>3314</v>
       </c>
-      <c r="Q38" s="388"/>
+      <c r="Q38" s="385"/>
       <c r="R38" s="13" t="s">
         <v>109</v>
       </c>
@@ -6846,13 +6843,13 @@
       </c>
     </row>
     <row r="39" spans="1:24" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="381"/>
-      <c r="B39" s="378"/>
-      <c r="C39" s="378"/>
-      <c r="D39" s="378"/>
-      <c r="E39" s="375"/>
-      <c r="F39" s="375"/>
-      <c r="G39" s="376"/>
+      <c r="A39" s="379"/>
+      <c r="B39" s="376"/>
+      <c r="C39" s="376"/>
+      <c r="D39" s="376"/>
+      <c r="E39" s="443"/>
+      <c r="F39" s="443"/>
+      <c r="G39" s="446"/>
       <c r="H39" s="13" t="s">
         <v>112</v>
       </c>
@@ -6879,7 +6876,7 @@
       <c r="P39" s="15">
         <v>3316</v>
       </c>
-      <c r="Q39" s="388"/>
+      <c r="Q39" s="385"/>
       <c r="R39" s="13" t="s">
         <v>109</v>
       </c>
@@ -6893,13 +6890,13 @@
       </c>
     </row>
     <row r="40" spans="1:24" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="381"/>
-      <c r="B40" s="378"/>
-      <c r="C40" s="378"/>
-      <c r="D40" s="378"/>
-      <c r="E40" s="375"/>
-      <c r="F40" s="375"/>
-      <c r="G40" s="376"/>
+      <c r="A40" s="379"/>
+      <c r="B40" s="376"/>
+      <c r="C40" s="376"/>
+      <c r="D40" s="376"/>
+      <c r="E40" s="443"/>
+      <c r="F40" s="443"/>
+      <c r="G40" s="446"/>
       <c r="H40" s="22" t="s">
         <v>45</v>
       </c>
@@ -6926,7 +6923,7 @@
       <c r="P40" s="20">
         <v>3320</v>
       </c>
-      <c r="Q40" s="388"/>
+      <c r="Q40" s="385"/>
       <c r="R40" s="22" t="s">
         <v>128</v>
       </c>
@@ -6940,13 +6937,13 @@
       </c>
     </row>
     <row r="41" spans="1:24" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="381"/>
-      <c r="B41" s="378"/>
-      <c r="C41" s="378"/>
-      <c r="D41" s="378"/>
-      <c r="E41" s="375"/>
-      <c r="F41" s="375"/>
-      <c r="G41" s="376"/>
+      <c r="A41" s="379"/>
+      <c r="B41" s="376"/>
+      <c r="C41" s="376"/>
+      <c r="D41" s="376"/>
+      <c r="E41" s="443"/>
+      <c r="F41" s="443"/>
+      <c r="G41" s="446"/>
       <c r="H41" s="32" t="s">
         <v>126</v>
       </c>
@@ -6975,7 +6972,7 @@
       <c r="P41" s="31">
         <v>3322</v>
       </c>
-      <c r="Q41" s="388"/>
+      <c r="Q41" s="385"/>
       <c r="R41" s="32" t="s">
         <v>138</v>
       </c>
@@ -6989,13 +6986,13 @@
       </c>
     </row>
     <row r="42" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="381"/>
-      <c r="B42" s="378"/>
-      <c r="C42" s="378"/>
-      <c r="D42" s="378"/>
-      <c r="E42" s="375"/>
-      <c r="F42" s="375"/>
-      <c r="G42" s="376"/>
+      <c r="A42" s="379"/>
+      <c r="B42" s="376"/>
+      <c r="C42" s="376"/>
+      <c r="D42" s="376"/>
+      <c r="E42" s="443"/>
+      <c r="F42" s="443"/>
+      <c r="G42" s="446"/>
       <c r="H42" s="43" t="s">
         <v>45</v>
       </c>
@@ -7022,7 +7019,7 @@
       <c r="P42" s="42">
         <v>3328</v>
       </c>
-      <c r="Q42" s="388"/>
+      <c r="Q42" s="385"/>
       <c r="R42" s="41" t="s">
         <v>153</v>
       </c>
@@ -7036,13 +7033,13 @@
       </c>
     </row>
     <row r="43" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="381"/>
-      <c r="B43" s="378"/>
-      <c r="C43" s="378"/>
-      <c r="D43" s="378"/>
-      <c r="E43" s="375"/>
-      <c r="F43" s="375"/>
-      <c r="G43" s="376"/>
+      <c r="A43" s="379"/>
+      <c r="B43" s="376"/>
+      <c r="C43" s="376"/>
+      <c r="D43" s="376"/>
+      <c r="E43" s="443"/>
+      <c r="F43" s="443"/>
+      <c r="G43" s="446"/>
       <c r="H43" s="65" t="s">
         <v>162</v>
       </c>
@@ -7069,7 +7066,7 @@
       <c r="P43" s="66">
         <v>3334</v>
       </c>
-      <c r="Q43" s="388"/>
+      <c r="Q43" s="385"/>
       <c r="R43" s="41" t="s">
         <v>161</v>
       </c>
@@ -7083,13 +7080,13 @@
       </c>
     </row>
     <row r="44" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="381"/>
-      <c r="B44" s="378"/>
-      <c r="C44" s="378"/>
-      <c r="D44" s="378"/>
-      <c r="E44" s="375"/>
-      <c r="F44" s="375"/>
-      <c r="G44" s="376"/>
+      <c r="A44" s="379"/>
+      <c r="B44" s="376"/>
+      <c r="C44" s="376"/>
+      <c r="D44" s="376"/>
+      <c r="E44" s="443"/>
+      <c r="F44" s="443"/>
+      <c r="G44" s="446"/>
       <c r="H44" s="75" t="s">
         <v>45</v>
       </c>
@@ -7116,7 +7113,7 @@
       <c r="P44" s="76">
         <v>3340</v>
       </c>
-      <c r="Q44" s="388"/>
+      <c r="Q44" s="385"/>
       <c r="R44" s="41" t="s">
         <v>189</v>
       </c>
@@ -7130,13 +7127,13 @@
       </c>
     </row>
     <row r="45" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="381"/>
-      <c r="B45" s="378"/>
-      <c r="C45" s="378"/>
-      <c r="D45" s="378"/>
-      <c r="E45" s="375"/>
-      <c r="F45" s="375"/>
-      <c r="G45" s="376"/>
+      <c r="A45" s="379"/>
+      <c r="B45" s="376"/>
+      <c r="C45" s="376"/>
+      <c r="D45" s="376"/>
+      <c r="E45" s="443"/>
+      <c r="F45" s="443"/>
+      <c r="G45" s="446"/>
       <c r="H45" s="89" t="s">
         <v>211</v>
       </c>
@@ -7163,7 +7160,7 @@
       <c r="P45" s="90">
         <v>3346</v>
       </c>
-      <c r="Q45" s="388"/>
+      <c r="Q45" s="385"/>
       <c r="R45" s="41" t="s">
         <v>200</v>
       </c>
@@ -7177,13 +7174,13 @@
       </c>
     </row>
     <row r="46" spans="1:24" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="381"/>
-      <c r="B46" s="378"/>
-      <c r="C46" s="378"/>
-      <c r="D46" s="378"/>
-      <c r="E46" s="375"/>
-      <c r="F46" s="375"/>
-      <c r="G46" s="376"/>
+      <c r="A46" s="379"/>
+      <c r="B46" s="376"/>
+      <c r="C46" s="376"/>
+      <c r="D46" s="376"/>
+      <c r="E46" s="443"/>
+      <c r="F46" s="443"/>
+      <c r="G46" s="446"/>
       <c r="H46" s="103" t="s">
         <v>211</v>
       </c>
@@ -7210,7 +7207,7 @@
       <c r="P46" s="104">
         <v>3352</v>
       </c>
-      <c r="Q46" s="388"/>
+      <c r="Q46" s="385"/>
       <c r="R46" s="41" t="s">
         <v>214</v>
       </c>
@@ -7224,13 +7221,13 @@
       </c>
     </row>
     <row r="47" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="381"/>
-      <c r="B47" s="378"/>
-      <c r="C47" s="378"/>
-      <c r="D47" s="378"/>
-      <c r="E47" s="375"/>
-      <c r="F47" s="375"/>
-      <c r="G47" s="376"/>
+      <c r="A47" s="379"/>
+      <c r="B47" s="376"/>
+      <c r="C47" s="376"/>
+      <c r="D47" s="376"/>
+      <c r="E47" s="443"/>
+      <c r="F47" s="443"/>
+      <c r="G47" s="446"/>
       <c r="H47" s="108" t="s">
         <v>227</v>
       </c>
@@ -7259,7 +7256,7 @@
       <c r="P47" s="109">
         <v>3358</v>
       </c>
-      <c r="Q47" s="388"/>
+      <c r="Q47" s="385"/>
       <c r="R47" s="41" t="s">
         <v>228</v>
       </c>
@@ -7273,13 +7270,13 @@
       </c>
     </row>
     <row r="48" spans="1:24" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="381"/>
-      <c r="B48" s="378"/>
-      <c r="C48" s="378"/>
-      <c r="D48" s="378"/>
-      <c r="E48" s="375"/>
-      <c r="F48" s="375"/>
-      <c r="G48" s="376"/>
+      <c r="A48" s="379"/>
+      <c r="B48" s="376"/>
+      <c r="C48" s="376"/>
+      <c r="D48" s="376"/>
+      <c r="E48" s="443"/>
+      <c r="F48" s="443"/>
+      <c r="G48" s="446"/>
       <c r="H48" s="121" t="s">
         <v>227</v>
       </c>
@@ -7306,7 +7303,7 @@
       <c r="P48" s="122">
         <v>3364</v>
       </c>
-      <c r="Q48" s="388"/>
+      <c r="Q48" s="385"/>
       <c r="R48" s="41" t="s">
         <v>240</v>
       </c>
@@ -7320,13 +7317,13 @@
       </c>
     </row>
     <row r="49" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="381"/>
-      <c r="B49" s="378"/>
-      <c r="C49" s="378"/>
-      <c r="D49" s="378"/>
-      <c r="E49" s="375"/>
-      <c r="F49" s="375"/>
-      <c r="G49" s="376"/>
+      <c r="A49" s="379"/>
+      <c r="B49" s="376"/>
+      <c r="C49" s="376"/>
+      <c r="D49" s="376"/>
+      <c r="E49" s="443"/>
+      <c r="F49" s="443"/>
+      <c r="G49" s="446"/>
       <c r="H49" s="134" t="s">
         <v>52</v>
       </c>
@@ -7355,7 +7352,7 @@
       <c r="P49" s="135">
         <v>3370</v>
       </c>
-      <c r="Q49" s="388"/>
+      <c r="Q49" s="385"/>
       <c r="R49" s="41" t="s">
         <v>255</v>
       </c>
@@ -7369,13 +7366,13 @@
       </c>
     </row>
     <row r="50" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="381"/>
-      <c r="B50" s="378"/>
-      <c r="C50" s="378"/>
-      <c r="D50" s="378"/>
-      <c r="E50" s="375"/>
-      <c r="F50" s="375"/>
-      <c r="G50" s="376"/>
+      <c r="A50" s="379"/>
+      <c r="B50" s="376"/>
+      <c r="C50" s="376"/>
+      <c r="D50" s="376"/>
+      <c r="E50" s="443"/>
+      <c r="F50" s="443"/>
+      <c r="G50" s="446"/>
       <c r="H50" s="147" t="s">
         <v>263</v>
       </c>
@@ -7402,7 +7399,7 @@
       <c r="P50" s="148">
         <v>3376</v>
       </c>
-      <c r="Q50" s="388"/>
+      <c r="Q50" s="385"/>
       <c r="R50" s="41" t="s">
         <v>265</v>
       </c>
@@ -7416,13 +7413,13 @@
       </c>
     </row>
     <row r="51" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="381"/>
-      <c r="B51" s="378"/>
-      <c r="C51" s="378"/>
-      <c r="D51" s="378"/>
-      <c r="E51" s="375"/>
-      <c r="F51" s="375"/>
-      <c r="G51" s="376"/>
+      <c r="A51" s="379"/>
+      <c r="B51" s="376"/>
+      <c r="C51" s="376"/>
+      <c r="D51" s="376"/>
+      <c r="E51" s="443"/>
+      <c r="F51" s="443"/>
+      <c r="G51" s="446"/>
       <c r="H51" s="13" t="s">
         <v>278</v>
       </c>
@@ -7449,7 +7446,7 @@
       <c r="P51" s="15">
         <v>3382</v>
       </c>
-      <c r="Q51" s="388"/>
+      <c r="Q51" s="385"/>
       <c r="R51" s="41" t="s">
         <v>277</v>
       </c>
@@ -7463,24 +7460,15 @@
       </c>
     </row>
     <row r="52" spans="1:24" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="380" t="s">
+      <c r="A52" s="378" t="s">
         <v>173</v>
       </c>
-      <c r="B52" s="378"/>
-      <c r="C52" s="378"/>
-      <c r="D52" s="378"/>
-      <c r="E52" s="375" t="str">
-        <f>TEXT(ROUND(SUM(I52:I67)/B3*100,4),"0.00")</f>
-        <v>125.00</v>
-      </c>
-      <c r="F52" s="375" t="str">
-        <f>TEXT(ROUND(SUM(J52:J67)/C3*100,4),"0.00")</f>
-        <v>112.50</v>
-      </c>
-      <c r="G52" s="376" t="str">
-        <f>TEXT(ROUND(SUM(M52:M67)/(D3*1024)*100,4),"0.00")</f>
-        <v>36.46</v>
-      </c>
+      <c r="B52" s="376"/>
+      <c r="C52" s="376"/>
+      <c r="D52" s="376"/>
+      <c r="E52" s="443"/>
+      <c r="F52" s="443"/>
+      <c r="G52" s="446"/>
       <c r="H52" s="15" t="s">
         <v>40</v>
       </c>
@@ -7507,7 +7495,7 @@
       <c r="P52" s="15">
         <v>3307</v>
       </c>
-      <c r="Q52" s="387" t="s">
+      <c r="Q52" s="384" t="s">
         <v>133</v>
       </c>
       <c r="R52" s="15" t="s">
@@ -7523,13 +7511,13 @@
       </c>
     </row>
     <row r="53" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="381"/>
-      <c r="B53" s="378"/>
-      <c r="C53" s="378"/>
-      <c r="D53" s="378"/>
-      <c r="E53" s="375"/>
-      <c r="F53" s="375"/>
-      <c r="G53" s="376"/>
+      <c r="A53" s="379"/>
+      <c r="B53" s="376"/>
+      <c r="C53" s="376"/>
+      <c r="D53" s="376"/>
+      <c r="E53" s="443"/>
+      <c r="F53" s="443"/>
+      <c r="G53" s="446"/>
       <c r="H53" s="15" t="s">
         <v>63</v>
       </c>
@@ -7556,7 +7544,7 @@
       <c r="P53" s="15">
         <v>3309</v>
       </c>
-      <c r="Q53" s="388"/>
+      <c r="Q53" s="385"/>
       <c r="R53" s="24" t="s">
         <v>151</v>
       </c>
@@ -7570,13 +7558,13 @@
       </c>
     </row>
     <row r="54" spans="1:24" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="381"/>
-      <c r="B54" s="378"/>
-      <c r="C54" s="378"/>
-      <c r="D54" s="378"/>
-      <c r="E54" s="375"/>
-      <c r="F54" s="375"/>
-      <c r="G54" s="376"/>
+      <c r="A54" s="379"/>
+      <c r="B54" s="376"/>
+      <c r="C54" s="376"/>
+      <c r="D54" s="376"/>
+      <c r="E54" s="443"/>
+      <c r="F54" s="443"/>
+      <c r="G54" s="446"/>
       <c r="H54" s="15" t="s">
         <v>47</v>
       </c>
@@ -7603,7 +7591,7 @@
       <c r="P54" s="15">
         <v>3313</v>
       </c>
-      <c r="Q54" s="388"/>
+      <c r="Q54" s="385"/>
       <c r="R54" s="15" t="s">
         <v>73</v>
       </c>
@@ -7617,13 +7605,13 @@
       </c>
     </row>
     <row r="55" spans="1:24" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="381"/>
-      <c r="B55" s="378"/>
-      <c r="C55" s="378"/>
-      <c r="D55" s="378"/>
-      <c r="E55" s="375"/>
-      <c r="F55" s="375"/>
-      <c r="G55" s="376"/>
+      <c r="A55" s="379"/>
+      <c r="B55" s="376"/>
+      <c r="C55" s="376"/>
+      <c r="D55" s="376"/>
+      <c r="E55" s="443"/>
+      <c r="F55" s="443"/>
+      <c r="G55" s="446"/>
       <c r="H55" s="13" t="s">
         <v>211</v>
       </c>
@@ -7650,7 +7638,7 @@
       <c r="P55" s="15">
         <v>3315</v>
       </c>
-      <c r="Q55" s="388"/>
+      <c r="Q55" s="385"/>
       <c r="R55" s="13" t="s">
         <v>109</v>
       </c>
@@ -7664,13 +7652,13 @@
       </c>
     </row>
     <row r="56" spans="1:24" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="381"/>
-      <c r="B56" s="378"/>
-      <c r="C56" s="378"/>
-      <c r="D56" s="378"/>
-      <c r="E56" s="375"/>
-      <c r="F56" s="375"/>
-      <c r="G56" s="376"/>
+      <c r="A56" s="379"/>
+      <c r="B56" s="376"/>
+      <c r="C56" s="376"/>
+      <c r="D56" s="376"/>
+      <c r="E56" s="443"/>
+      <c r="F56" s="443"/>
+      <c r="G56" s="446"/>
       <c r="H56" s="22" t="s">
         <v>5</v>
       </c>
@@ -7697,7 +7685,7 @@
       <c r="P56" s="20">
         <v>3321</v>
       </c>
-      <c r="Q56" s="388"/>
+      <c r="Q56" s="385"/>
       <c r="R56" s="22" t="s">
         <v>128</v>
       </c>
@@ -7711,13 +7699,13 @@
       </c>
     </row>
     <row r="57" spans="1:24" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="381"/>
-      <c r="B57" s="378"/>
-      <c r="C57" s="378"/>
-      <c r="D57" s="378"/>
-      <c r="E57" s="375"/>
-      <c r="F57" s="375"/>
-      <c r="G57" s="376"/>
+      <c r="A57" s="379"/>
+      <c r="B57" s="376"/>
+      <c r="C57" s="376"/>
+      <c r="D57" s="376"/>
+      <c r="E57" s="443"/>
+      <c r="F57" s="443"/>
+      <c r="G57" s="446"/>
       <c r="H57" s="32" t="s">
         <v>5</v>
       </c>
@@ -7746,7 +7734,7 @@
       <c r="P57" s="31">
         <v>3323</v>
       </c>
-      <c r="Q57" s="388"/>
+      <c r="Q57" s="385"/>
       <c r="R57" s="32" t="s">
         <v>138</v>
       </c>
@@ -7760,13 +7748,13 @@
       </c>
     </row>
     <row r="58" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="381"/>
-      <c r="B58" s="378"/>
-      <c r="C58" s="378"/>
-      <c r="D58" s="378"/>
-      <c r="E58" s="375"/>
-      <c r="F58" s="375"/>
-      <c r="G58" s="376"/>
+      <c r="A58" s="379"/>
+      <c r="B58" s="376"/>
+      <c r="C58" s="376"/>
+      <c r="D58" s="376"/>
+      <c r="E58" s="443"/>
+      <c r="F58" s="443"/>
+      <c r="G58" s="446"/>
       <c r="H58" s="43" t="s">
         <v>5</v>
       </c>
@@ -7793,7 +7781,7 @@
       <c r="P58" s="42">
         <v>3329</v>
       </c>
-      <c r="Q58" s="388"/>
+      <c r="Q58" s="385"/>
       <c r="R58" s="41" t="s">
         <v>153</v>
       </c>
@@ -7807,13 +7795,13 @@
       </c>
     </row>
     <row r="59" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="381"/>
-      <c r="B59" s="378"/>
-      <c r="C59" s="378"/>
-      <c r="D59" s="378"/>
-      <c r="E59" s="375"/>
-      <c r="F59" s="375"/>
-      <c r="G59" s="376"/>
+      <c r="A59" s="379"/>
+      <c r="B59" s="376"/>
+      <c r="C59" s="376"/>
+      <c r="D59" s="376"/>
+      <c r="E59" s="443"/>
+      <c r="F59" s="443"/>
+      <c r="G59" s="446"/>
       <c r="H59" s="140" t="s">
         <v>57</v>
       </c>
@@ -7840,7 +7828,7 @@
       <c r="P59" s="141">
         <v>3335</v>
       </c>
-      <c r="Q59" s="388"/>
+      <c r="Q59" s="385"/>
       <c r="R59" s="41" t="s">
         <v>161</v>
       </c>
@@ -7854,13 +7842,13 @@
       </c>
     </row>
     <row r="60" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="381"/>
-      <c r="B60" s="378"/>
-      <c r="C60" s="378"/>
-      <c r="D60" s="378"/>
-      <c r="E60" s="375"/>
-      <c r="F60" s="375"/>
-      <c r="G60" s="376"/>
+      <c r="A60" s="379"/>
+      <c r="B60" s="376"/>
+      <c r="C60" s="376"/>
+      <c r="D60" s="376"/>
+      <c r="E60" s="443"/>
+      <c r="F60" s="443"/>
+      <c r="G60" s="446"/>
       <c r="H60" s="81" t="s">
         <v>5</v>
       </c>
@@ -7887,7 +7875,7 @@
       <c r="P60" s="82">
         <v>3341</v>
       </c>
-      <c r="Q60" s="388"/>
+      <c r="Q60" s="385"/>
       <c r="R60" s="41" t="s">
         <v>189</v>
       </c>
@@ -7901,13 +7889,13 @@
       </c>
     </row>
     <row r="61" spans="1:24" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="381"/>
-      <c r="B61" s="378"/>
-      <c r="C61" s="378"/>
-      <c r="D61" s="378"/>
-      <c r="E61" s="375"/>
-      <c r="F61" s="375"/>
-      <c r="G61" s="376"/>
+      <c r="A61" s="379"/>
+      <c r="B61" s="376"/>
+      <c r="C61" s="376"/>
+      <c r="D61" s="376"/>
+      <c r="E61" s="443"/>
+      <c r="F61" s="443"/>
+      <c r="G61" s="446"/>
       <c r="H61" s="89" t="s">
         <v>5</v>
       </c>
@@ -7934,7 +7922,7 @@
       <c r="P61" s="90">
         <v>3347</v>
       </c>
-      <c r="Q61" s="388"/>
+      <c r="Q61" s="385"/>
       <c r="R61" s="41" t="s">
         <v>206</v>
       </c>
@@ -7948,13 +7936,13 @@
       </c>
     </row>
     <row r="62" spans="1:24" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="381"/>
-      <c r="B62" s="378"/>
-      <c r="C62" s="378"/>
-      <c r="D62" s="378"/>
-      <c r="E62" s="375"/>
-      <c r="F62" s="375"/>
-      <c r="G62" s="376"/>
+      <c r="A62" s="379"/>
+      <c r="B62" s="376"/>
+      <c r="C62" s="376"/>
+      <c r="D62" s="376"/>
+      <c r="E62" s="443"/>
+      <c r="F62" s="443"/>
+      <c r="G62" s="446"/>
       <c r="H62" s="103" t="s">
         <v>40</v>
       </c>
@@ -7981,7 +7969,7 @@
       <c r="P62" s="104">
         <v>3353</v>
       </c>
-      <c r="Q62" s="388"/>
+      <c r="Q62" s="385"/>
       <c r="R62" s="41" t="s">
         <v>217</v>
       </c>
@@ -7995,13 +7983,13 @@
       </c>
     </row>
     <row r="63" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="381"/>
-      <c r="B63" s="378"/>
-      <c r="C63" s="378"/>
-      <c r="D63" s="378"/>
-      <c r="E63" s="375"/>
-      <c r="F63" s="375"/>
-      <c r="G63" s="376"/>
+      <c r="A63" s="379"/>
+      <c r="B63" s="376"/>
+      <c r="C63" s="376"/>
+      <c r="D63" s="376"/>
+      <c r="E63" s="443"/>
+      <c r="F63" s="443"/>
+      <c r="G63" s="446"/>
       <c r="H63" s="108" t="s">
         <v>230</v>
       </c>
@@ -8030,7 +8018,7 @@
       <c r="P63" s="109">
         <v>3359</v>
       </c>
-      <c r="Q63" s="388"/>
+      <c r="Q63" s="385"/>
       <c r="R63" s="41" t="s">
         <v>228</v>
       </c>
@@ -8044,13 +8032,13 @@
       </c>
     </row>
     <row r="64" spans="1:24" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="381"/>
-      <c r="B64" s="378"/>
-      <c r="C64" s="378"/>
-      <c r="D64" s="378"/>
-      <c r="E64" s="375"/>
-      <c r="F64" s="375"/>
-      <c r="G64" s="376"/>
+      <c r="A64" s="379"/>
+      <c r="B64" s="376"/>
+      <c r="C64" s="376"/>
+      <c r="D64" s="376"/>
+      <c r="E64" s="443"/>
+      <c r="F64" s="443"/>
+      <c r="G64" s="446"/>
       <c r="H64" s="121" t="s">
         <v>230</v>
       </c>
@@ -8077,7 +8065,7 @@
       <c r="P64" s="122">
         <v>3365</v>
       </c>
-      <c r="Q64" s="388"/>
+      <c r="Q64" s="385"/>
       <c r="R64" s="41" t="s">
         <v>242</v>
       </c>
@@ -8091,13 +8079,13 @@
       </c>
     </row>
     <row r="65" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="381"/>
-      <c r="B65" s="378"/>
-      <c r="C65" s="378"/>
-      <c r="D65" s="378"/>
-      <c r="E65" s="375"/>
-      <c r="F65" s="375"/>
-      <c r="G65" s="376"/>
+      <c r="A65" s="379"/>
+      <c r="B65" s="376"/>
+      <c r="C65" s="376"/>
+      <c r="D65" s="376"/>
+      <c r="E65" s="443"/>
+      <c r="F65" s="443"/>
+      <c r="G65" s="446"/>
       <c r="H65" s="140" t="s">
         <v>5</v>
       </c>
@@ -8126,7 +8114,7 @@
       <c r="P65" s="141">
         <v>3371</v>
       </c>
-      <c r="Q65" s="388"/>
+      <c r="Q65" s="385"/>
       <c r="R65" s="41" t="s">
         <v>255</v>
       </c>
@@ -8140,13 +8128,13 @@
       </c>
     </row>
     <row r="66" spans="1:24" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="381"/>
-      <c r="B66" s="378"/>
-      <c r="C66" s="378"/>
-      <c r="D66" s="378"/>
-      <c r="E66" s="375"/>
-      <c r="F66" s="375"/>
-      <c r="G66" s="376"/>
+      <c r="A66" s="379"/>
+      <c r="B66" s="376"/>
+      <c r="C66" s="376"/>
+      <c r="D66" s="376"/>
+      <c r="E66" s="443"/>
+      <c r="F66" s="443"/>
+      <c r="G66" s="446"/>
       <c r="H66" s="155" t="s">
         <v>45</v>
       </c>
@@ -8173,7 +8161,7 @@
       <c r="P66" s="156">
         <v>3377</v>
       </c>
-      <c r="Q66" s="388"/>
+      <c r="Q66" s="385"/>
       <c r="R66" s="41" t="s">
         <v>269</v>
       </c>
@@ -8187,13 +8175,13 @@
       </c>
     </row>
     <row r="67" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="381"/>
-      <c r="B67" s="378"/>
-      <c r="C67" s="378"/>
-      <c r="D67" s="378"/>
-      <c r="E67" s="375"/>
-      <c r="F67" s="375"/>
-      <c r="G67" s="376"/>
+      <c r="A67" s="379"/>
+      <c r="B67" s="376"/>
+      <c r="C67" s="376"/>
+      <c r="D67" s="376"/>
+      <c r="E67" s="444"/>
+      <c r="F67" s="444"/>
+      <c r="G67" s="447"/>
       <c r="H67" s="140" t="s">
         <v>267</v>
       </c>
@@ -8222,7 +8210,7 @@
       <c r="P67" s="141">
         <v>3383</v>
       </c>
-      <c r="Q67" s="388"/>
+      <c r="Q67" s="385"/>
       <c r="R67" s="41" t="s">
         <v>286</v>
       </c>
@@ -8236,23 +8224,23 @@
       </c>
     </row>
     <row r="68" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="372" t="s">
+      <c r="A68" s="366" t="s">
         <v>234</v>
       </c>
-      <c r="B68" s="378"/>
-      <c r="C68" s="378"/>
-      <c r="D68" s="378"/>
+      <c r="B68" s="376"/>
+      <c r="C68" s="376"/>
+      <c r="D68" s="376"/>
       <c r="E68" s="369" t="str">
-        <f>TEXT(ROUND(SUM(I68:I84)/B3*100,4),"0.00")</f>
-        <v>112.50</v>
+        <f>TEXT(ROUND(SUM(I68:I100)/B3*100,4),"0.00")</f>
+        <v>218.75</v>
       </c>
       <c r="F68" s="369" t="str">
-        <f>TEXT(ROUND(SUM(J68:J84)/C3*100,4),"0.00")</f>
-        <v>110.94</v>
-      </c>
-      <c r="G68" s="366" t="str">
-        <f>TEXT(ROUND(SUM(M68:M84)/(D3*1024)*100,4),"0.00")</f>
-        <v>38.74</v>
+        <f>TEXT(ROUND(SUM(J68:J100)/C3*100,4),"0.00")</f>
+        <v>212.50</v>
+      </c>
+      <c r="G68" s="372" t="str">
+        <f>TEXT(ROUND(SUM(M68:M100)/(D3*1024)*100,4),"0.00")</f>
+        <v>75.20</v>
       </c>
       <c r="H68" s="17" t="s">
         <v>45</v>
@@ -8296,13 +8284,13 @@
       </c>
     </row>
     <row r="69" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="373"/>
-      <c r="B69" s="378"/>
-      <c r="C69" s="378"/>
-      <c r="D69" s="378"/>
+      <c r="A69" s="367"/>
+      <c r="B69" s="376"/>
+      <c r="C69" s="376"/>
+      <c r="D69" s="376"/>
       <c r="E69" s="370"/>
       <c r="F69" s="370"/>
-      <c r="G69" s="367"/>
+      <c r="G69" s="373"/>
       <c r="H69" s="17" t="s">
         <v>57</v>
       </c>
@@ -8343,13 +8331,13 @@
       </c>
     </row>
     <row r="70" spans="1:24" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="373"/>
-      <c r="B70" s="378"/>
-      <c r="C70" s="378"/>
-      <c r="D70" s="378"/>
+      <c r="A70" s="367"/>
+      <c r="B70" s="376"/>
+      <c r="C70" s="376"/>
+      <c r="D70" s="376"/>
       <c r="E70" s="370"/>
       <c r="F70" s="370"/>
-      <c r="G70" s="367"/>
+      <c r="G70" s="373"/>
       <c r="H70" s="16" t="s">
         <v>90</v>
       </c>
@@ -8390,13 +8378,13 @@
       </c>
     </row>
     <row r="71" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="373"/>
-      <c r="B71" s="378"/>
-      <c r="C71" s="378"/>
-      <c r="D71" s="378"/>
+      <c r="A71" s="367"/>
+      <c r="B71" s="376"/>
+      <c r="C71" s="376"/>
+      <c r="D71" s="376"/>
       <c r="E71" s="370"/>
       <c r="F71" s="370"/>
-      <c r="G71" s="367"/>
+      <c r="G71" s="373"/>
       <c r="H71" s="16" t="s">
         <v>97</v>
       </c>
@@ -8437,13 +8425,13 @@
       </c>
     </row>
     <row r="72" spans="1:24" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="373"/>
-      <c r="B72" s="378"/>
-      <c r="C72" s="378"/>
-      <c r="D72" s="378"/>
+      <c r="A72" s="367"/>
+      <c r="B72" s="376"/>
+      <c r="C72" s="376"/>
+      <c r="D72" s="376"/>
       <c r="E72" s="370"/>
       <c r="F72" s="370"/>
-      <c r="G72" s="367"/>
+      <c r="G72" s="373"/>
       <c r="H72" s="16" t="s">
         <v>114</v>
       </c>
@@ -8484,13 +8472,13 @@
       </c>
     </row>
     <row r="73" spans="1:24" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="373"/>
-      <c r="B73" s="378"/>
-      <c r="C73" s="378"/>
-      <c r="D73" s="378"/>
+      <c r="A73" s="367"/>
+      <c r="B73" s="376"/>
+      <c r="C73" s="376"/>
+      <c r="D73" s="376"/>
       <c r="E73" s="370"/>
       <c r="F73" s="370"/>
-      <c r="G73" s="367"/>
+      <c r="G73" s="373"/>
       <c r="H73" s="26" t="s">
         <v>5</v>
       </c>
@@ -8531,13 +8519,13 @@
       </c>
     </row>
     <row r="74" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="373"/>
-      <c r="B74" s="378"/>
-      <c r="C74" s="378"/>
-      <c r="D74" s="378"/>
+      <c r="A74" s="367"/>
+      <c r="B74" s="376"/>
+      <c r="C74" s="376"/>
+      <c r="D74" s="376"/>
       <c r="E74" s="370"/>
       <c r="F74" s="370"/>
-      <c r="G74" s="367"/>
+      <c r="G74" s="373"/>
       <c r="H74" s="35" t="s">
         <v>140</v>
       </c>
@@ -8578,13 +8566,13 @@
       </c>
     </row>
     <row r="75" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="373"/>
-      <c r="B75" s="378"/>
-      <c r="C75" s="378"/>
-      <c r="D75" s="378"/>
+      <c r="A75" s="367"/>
+      <c r="B75" s="376"/>
+      <c r="C75" s="376"/>
+      <c r="D75" s="376"/>
       <c r="E75" s="370"/>
       <c r="F75" s="370"/>
-      <c r="G75" s="367"/>
+      <c r="G75" s="373"/>
       <c r="H75" s="47" t="s">
         <v>45</v>
       </c>
@@ -8625,13 +8613,13 @@
       </c>
     </row>
     <row r="76" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A76" s="373"/>
-      <c r="B76" s="378"/>
-      <c r="C76" s="378"/>
-      <c r="D76" s="378"/>
+      <c r="A76" s="367"/>
+      <c r="B76" s="376"/>
+      <c r="C76" s="376"/>
+      <c r="D76" s="376"/>
       <c r="E76" s="370"/>
       <c r="F76" s="370"/>
-      <c r="G76" s="367"/>
+      <c r="G76" s="373"/>
       <c r="H76" s="138" t="s">
         <v>177</v>
       </c>
@@ -8672,13 +8660,13 @@
       </c>
     </row>
     <row r="77" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A77" s="373"/>
-      <c r="B77" s="378"/>
-      <c r="C77" s="378"/>
-      <c r="D77" s="378"/>
+      <c r="A77" s="367"/>
+      <c r="B77" s="376"/>
+      <c r="C77" s="376"/>
+      <c r="D77" s="376"/>
       <c r="E77" s="370"/>
       <c r="F77" s="370"/>
-      <c r="G77" s="367"/>
+      <c r="G77" s="373"/>
       <c r="H77" s="79" t="s">
         <v>45</v>
       </c>
@@ -8719,13 +8707,13 @@
       </c>
     </row>
     <row r="78" spans="1:24" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="373"/>
-      <c r="B78" s="378"/>
-      <c r="C78" s="378"/>
-      <c r="D78" s="378"/>
+      <c r="A78" s="367"/>
+      <c r="B78" s="376"/>
+      <c r="C78" s="376"/>
+      <c r="D78" s="376"/>
       <c r="E78" s="370"/>
       <c r="F78" s="370"/>
-      <c r="G78" s="367"/>
+      <c r="G78" s="373"/>
       <c r="H78" s="93" t="s">
         <v>5</v>
       </c>
@@ -8766,13 +8754,13 @@
       </c>
     </row>
     <row r="79" spans="1:24" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="373"/>
-      <c r="B79" s="378"/>
-      <c r="C79" s="378"/>
-      <c r="D79" s="378"/>
+      <c r="A79" s="367"/>
+      <c r="B79" s="376"/>
+      <c r="C79" s="376"/>
+      <c r="D79" s="376"/>
       <c r="E79" s="370"/>
       <c r="F79" s="370"/>
-      <c r="G79" s="367"/>
+      <c r="G79" s="373"/>
       <c r="H79" s="101" t="s">
         <v>47</v>
       </c>
@@ -8813,13 +8801,13 @@
       </c>
     </row>
     <row r="80" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="373"/>
-      <c r="B80" s="378"/>
-      <c r="C80" s="378"/>
-      <c r="D80" s="378"/>
+      <c r="A80" s="367"/>
+      <c r="B80" s="376"/>
+      <c r="C80" s="376"/>
+      <c r="D80" s="376"/>
       <c r="E80" s="370"/>
       <c r="F80" s="370"/>
-      <c r="G80" s="367"/>
+      <c r="G80" s="373"/>
       <c r="H80" s="106" t="s">
         <v>233</v>
       </c>
@@ -8862,13 +8850,13 @@
       </c>
     </row>
     <row r="81" spans="1:24" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="373"/>
-      <c r="B81" s="378"/>
-      <c r="C81" s="378"/>
-      <c r="D81" s="378"/>
+      <c r="A81" s="367"/>
+      <c r="B81" s="376"/>
+      <c r="C81" s="376"/>
+      <c r="D81" s="376"/>
       <c r="E81" s="370"/>
       <c r="F81" s="370"/>
-      <c r="G81" s="367"/>
+      <c r="G81" s="373"/>
       <c r="H81" s="124" t="s">
         <v>165</v>
       </c>
@@ -8909,13 +8897,13 @@
       </c>
     </row>
     <row r="82" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="373"/>
-      <c r="B82" s="378"/>
-      <c r="C82" s="378"/>
-      <c r="D82" s="378"/>
+      <c r="A82" s="367"/>
+      <c r="B82" s="376"/>
+      <c r="C82" s="376"/>
+      <c r="D82" s="376"/>
       <c r="E82" s="370"/>
       <c r="F82" s="370"/>
-      <c r="G82" s="367"/>
+      <c r="G82" s="373"/>
       <c r="H82" s="138" t="s">
         <v>45</v>
       </c>
@@ -8956,13 +8944,13 @@
       </c>
     </row>
     <row r="83" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A83" s="373"/>
-      <c r="B83" s="378"/>
-      <c r="C83" s="378"/>
-      <c r="D83" s="378"/>
+      <c r="A83" s="367"/>
+      <c r="B83" s="376"/>
+      <c r="C83" s="376"/>
+      <c r="D83" s="376"/>
       <c r="E83" s="370"/>
       <c r="F83" s="370"/>
-      <c r="G83" s="367"/>
+      <c r="G83" s="373"/>
       <c r="H83" s="153" t="s">
         <v>45</v>
       </c>
@@ -9003,13 +8991,13 @@
       </c>
     </row>
     <row r="84" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="374"/>
-      <c r="B84" s="378"/>
-      <c r="C84" s="378"/>
-      <c r="D84" s="378"/>
-      <c r="E84" s="371"/>
-      <c r="F84" s="371"/>
-      <c r="G84" s="368"/>
+      <c r="A84" s="368"/>
+      <c r="B84" s="376"/>
+      <c r="C84" s="376"/>
+      <c r="D84" s="376"/>
+      <c r="E84" s="370"/>
+      <c r="F84" s="370"/>
+      <c r="G84" s="373"/>
       <c r="H84" s="138" t="s">
         <v>287</v>
       </c>
@@ -9050,24 +9038,15 @@
       <c r="X84" s="21"/>
     </row>
     <row r="85" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="372" t="s">
+      <c r="A85" s="366" t="s">
         <v>174</v>
       </c>
-      <c r="B85" s="378"/>
-      <c r="C85" s="378"/>
-      <c r="D85" s="378"/>
-      <c r="E85" s="369" t="str">
-        <f>TEXT(ROUND(SUM(I85:I100)/B3*100,4),"0.00")</f>
-        <v>106.25</v>
-      </c>
-      <c r="F85" s="369" t="str">
-        <f>TEXT(ROUND(SUM(J85:J100)/C3*100,4),"0.00")</f>
-        <v>101.56</v>
-      </c>
-      <c r="G85" s="366" t="str">
-        <f>TEXT(ROUND(SUM(M85:M100)/(D3*1024)*100,4),"0.00")</f>
-        <v>36.46</v>
-      </c>
+      <c r="B85" s="376"/>
+      <c r="C85" s="376"/>
+      <c r="D85" s="376"/>
+      <c r="E85" s="370"/>
+      <c r="F85" s="370"/>
+      <c r="G85" s="373"/>
       <c r="H85" s="17" t="s">
         <v>47</v>
       </c>
@@ -9110,13 +9089,13 @@
       </c>
     </row>
     <row r="86" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="373"/>
-      <c r="B86" s="378"/>
-      <c r="C86" s="378"/>
-      <c r="D86" s="378"/>
+      <c r="A86" s="367"/>
+      <c r="B86" s="376"/>
+      <c r="C86" s="376"/>
+      <c r="D86" s="376"/>
       <c r="E86" s="370"/>
       <c r="F86" s="370"/>
-      <c r="G86" s="367"/>
+      <c r="G86" s="373"/>
       <c r="H86" s="17" t="s">
         <v>65</v>
       </c>
@@ -9157,13 +9136,13 @@
       </c>
     </row>
     <row r="87" spans="1:24" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="373"/>
-      <c r="B87" s="378"/>
-      <c r="C87" s="378"/>
-      <c r="D87" s="378"/>
+      <c r="A87" s="367"/>
+      <c r="B87" s="376"/>
+      <c r="C87" s="376"/>
+      <c r="D87" s="376"/>
       <c r="E87" s="370"/>
       <c r="F87" s="370"/>
-      <c r="G87" s="367"/>
+      <c r="G87" s="373"/>
       <c r="H87" s="17" t="s">
         <v>5</v>
       </c>
@@ -9204,13 +9183,13 @@
       </c>
     </row>
     <row r="88" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A88" s="373"/>
-      <c r="B88" s="378"/>
-      <c r="C88" s="378"/>
-      <c r="D88" s="378"/>
+      <c r="A88" s="367"/>
+      <c r="B88" s="376"/>
+      <c r="C88" s="376"/>
+      <c r="D88" s="376"/>
       <c r="E88" s="370"/>
       <c r="F88" s="370"/>
-      <c r="G88" s="367"/>
+      <c r="G88" s="373"/>
       <c r="H88" s="16" t="s">
         <v>99</v>
       </c>
@@ -9251,13 +9230,13 @@
       </c>
     </row>
     <row r="89" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="373"/>
-      <c r="B89" s="378"/>
-      <c r="C89" s="378"/>
-      <c r="D89" s="378"/>
+      <c r="A89" s="367"/>
+      <c r="B89" s="376"/>
+      <c r="C89" s="376"/>
+      <c r="D89" s="376"/>
       <c r="E89" s="370"/>
       <c r="F89" s="370"/>
-      <c r="G89" s="367"/>
+      <c r="G89" s="373"/>
       <c r="H89" s="26" t="s">
         <v>45</v>
       </c>
@@ -9298,13 +9277,13 @@
       </c>
     </row>
     <row r="90" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A90" s="373"/>
-      <c r="B90" s="378"/>
-      <c r="C90" s="378"/>
-      <c r="D90" s="378"/>
+      <c r="A90" s="367"/>
+      <c r="B90" s="376"/>
+      <c r="C90" s="376"/>
+      <c r="D90" s="376"/>
       <c r="E90" s="370"/>
       <c r="F90" s="370"/>
-      <c r="G90" s="367"/>
+      <c r="G90" s="373"/>
       <c r="H90" s="35" t="s">
         <v>142</v>
       </c>
@@ -9345,13 +9324,13 @@
       </c>
     </row>
     <row r="91" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="373"/>
-      <c r="B91" s="378"/>
-      <c r="C91" s="378"/>
-      <c r="D91" s="378"/>
+      <c r="A91" s="367"/>
+      <c r="B91" s="376"/>
+      <c r="C91" s="376"/>
+      <c r="D91" s="376"/>
       <c r="E91" s="370"/>
       <c r="F91" s="370"/>
-      <c r="G91" s="367"/>
+      <c r="G91" s="373"/>
       <c r="H91" s="47" t="s">
         <v>5</v>
       </c>
@@ -9392,13 +9371,13 @@
       </c>
     </row>
     <row r="92" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A92" s="373"/>
-      <c r="B92" s="378"/>
-      <c r="C92" s="378"/>
-      <c r="D92" s="378"/>
+      <c r="A92" s="367"/>
+      <c r="B92" s="376"/>
+      <c r="C92" s="376"/>
+      <c r="D92" s="376"/>
       <c r="E92" s="370"/>
       <c r="F92" s="370"/>
-      <c r="G92" s="367"/>
+      <c r="G92" s="373"/>
       <c r="H92" s="138" t="s">
         <v>177</v>
       </c>
@@ -9439,13 +9418,13 @@
       </c>
     </row>
     <row r="93" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A93" s="373"/>
-      <c r="B93" s="378"/>
-      <c r="C93" s="378"/>
-      <c r="D93" s="378"/>
+      <c r="A93" s="367"/>
+      <c r="B93" s="376"/>
+      <c r="C93" s="376"/>
+      <c r="D93" s="376"/>
       <c r="E93" s="370"/>
       <c r="F93" s="370"/>
-      <c r="G93" s="367"/>
+      <c r="G93" s="373"/>
       <c r="H93" s="84" t="s">
         <v>5</v>
       </c>
@@ -9486,13 +9465,13 @@
       </c>
     </row>
     <row r="94" spans="1:24" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="373"/>
-      <c r="B94" s="378"/>
-      <c r="C94" s="378"/>
-      <c r="D94" s="378"/>
+      <c r="A94" s="367"/>
+      <c r="B94" s="376"/>
+      <c r="C94" s="376"/>
+      <c r="D94" s="376"/>
       <c r="E94" s="370"/>
       <c r="F94" s="370"/>
-      <c r="G94" s="367"/>
+      <c r="G94" s="373"/>
       <c r="H94" s="97" t="s">
         <v>5</v>
       </c>
@@ -9533,13 +9512,13 @@
       </c>
     </row>
     <row r="95" spans="1:24" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="373"/>
-      <c r="B95" s="378"/>
-      <c r="C95" s="378"/>
-      <c r="D95" s="378"/>
+      <c r="A95" s="367"/>
+      <c r="B95" s="376"/>
+      <c r="C95" s="376"/>
+      <c r="D95" s="376"/>
       <c r="E95" s="370"/>
       <c r="F95" s="370"/>
-      <c r="G95" s="367"/>
+      <c r="G95" s="373"/>
       <c r="H95" s="106" t="s">
         <v>197</v>
       </c>
@@ -9580,13 +9559,13 @@
       </c>
     </row>
     <row r="96" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A96" s="373"/>
-      <c r="B96" s="378"/>
-      <c r="C96" s="378"/>
-      <c r="D96" s="378"/>
+      <c r="A96" s="367"/>
+      <c r="B96" s="376"/>
+      <c r="C96" s="376"/>
+      <c r="D96" s="376"/>
       <c r="E96" s="370"/>
       <c r="F96" s="370"/>
-      <c r="G96" s="367"/>
+      <c r="G96" s="373"/>
       <c r="H96" s="114" t="s">
         <v>45</v>
       </c>
@@ -9627,13 +9606,13 @@
       </c>
     </row>
     <row r="97" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="373"/>
-      <c r="B97" s="378"/>
-      <c r="C97" s="378"/>
-      <c r="D97" s="378"/>
+      <c r="A97" s="367"/>
+      <c r="B97" s="376"/>
+      <c r="C97" s="376"/>
+      <c r="D97" s="376"/>
       <c r="E97" s="370"/>
       <c r="F97" s="370"/>
-      <c r="G97" s="367"/>
+      <c r="G97" s="373"/>
       <c r="H97" s="124" t="s">
         <v>65</v>
       </c>
@@ -9674,13 +9653,13 @@
       </c>
     </row>
     <row r="98" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="373"/>
-      <c r="B98" s="378"/>
-      <c r="C98" s="378"/>
-      <c r="D98" s="378"/>
+      <c r="A98" s="367"/>
+      <c r="B98" s="376"/>
+      <c r="C98" s="376"/>
+      <c r="D98" s="376"/>
       <c r="E98" s="370"/>
       <c r="F98" s="370"/>
-      <c r="G98" s="367"/>
+      <c r="G98" s="373"/>
       <c r="H98" s="138" t="s">
         <v>5</v>
       </c>
@@ -9721,13 +9700,13 @@
       </c>
     </row>
     <row r="99" spans="1:24" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A99" s="373"/>
-      <c r="B99" s="378"/>
-      <c r="C99" s="378"/>
-      <c r="D99" s="378"/>
+      <c r="A99" s="367"/>
+      <c r="B99" s="376"/>
+      <c r="C99" s="376"/>
+      <c r="D99" s="376"/>
       <c r="E99" s="370"/>
       <c r="F99" s="370"/>
-      <c r="G99" s="367"/>
+      <c r="G99" s="373"/>
       <c r="H99" s="153" t="s">
         <v>5</v>
       </c>
@@ -9768,13 +9747,13 @@
       </c>
     </row>
     <row r="100" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="374"/>
-      <c r="B100" s="379"/>
-      <c r="C100" s="379"/>
-      <c r="D100" s="379"/>
+      <c r="A100" s="368"/>
+      <c r="B100" s="377"/>
+      <c r="C100" s="377"/>
+      <c r="D100" s="377"/>
       <c r="E100" s="371"/>
       <c r="F100" s="371"/>
-      <c r="G100" s="368"/>
+      <c r="G100" s="374"/>
       <c r="H100" s="16" t="s">
         <v>289</v>
       </c>
@@ -9816,42 +9795,33 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:X100"/>
-  <mergeCells count="35">
+  <mergeCells count="26">
+    <mergeCell ref="G68:G100"/>
     <mergeCell ref="Q85:Q100"/>
     <mergeCell ref="H1:X1"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A20:A35"/>
-    <mergeCell ref="E20:E35"/>
-    <mergeCell ref="E36:E51"/>
-    <mergeCell ref="F36:F51"/>
-    <mergeCell ref="G36:G51"/>
     <mergeCell ref="A36:A51"/>
     <mergeCell ref="Q52:Q67"/>
-    <mergeCell ref="E52:E67"/>
-    <mergeCell ref="F20:F35"/>
-    <mergeCell ref="G20:G35"/>
     <mergeCell ref="Q20:Q35"/>
     <mergeCell ref="Q36:Q51"/>
     <mergeCell ref="Q68:Q84"/>
-    <mergeCell ref="F52:F67"/>
-    <mergeCell ref="G52:G67"/>
+    <mergeCell ref="E36:E67"/>
+    <mergeCell ref="F36:F67"/>
+    <mergeCell ref="G36:G67"/>
     <mergeCell ref="A68:A84"/>
     <mergeCell ref="A85:A100"/>
     <mergeCell ref="B3:B100"/>
     <mergeCell ref="C3:C100"/>
     <mergeCell ref="D3:D100"/>
     <mergeCell ref="A52:A67"/>
-    <mergeCell ref="E68:E84"/>
-    <mergeCell ref="E85:E100"/>
-    <mergeCell ref="F68:F84"/>
-    <mergeCell ref="F85:F100"/>
-    <mergeCell ref="G68:G84"/>
-    <mergeCell ref="G85:G100"/>
+    <mergeCell ref="E68:E100"/>
+    <mergeCell ref="F68:F100"/>
     <mergeCell ref="Q3:Q19"/>
-    <mergeCell ref="G3:G19"/>
-    <mergeCell ref="F3:F19"/>
-    <mergeCell ref="E3:E19"/>
     <mergeCell ref="A3:A19"/>
+    <mergeCell ref="E3:E35"/>
+    <mergeCell ref="F3:F35"/>
+    <mergeCell ref="G3:G35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9863,9 +9833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z46" sqref="Z46"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3:F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9889,34 +9859,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="383" t="s">
+      <c r="A1" s="381" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
-      <c r="H1" s="382" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="381"/>
+      <c r="E1" s="381"/>
+      <c r="F1" s="381"/>
+      <c r="G1" s="381"/>
+      <c r="H1" s="380" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="382"/>
-      <c r="J1" s="382"/>
-      <c r="K1" s="382"/>
-      <c r="L1" s="382"/>
-      <c r="M1" s="382"/>
-      <c r="N1" s="382"/>
-      <c r="O1" s="382"/>
-      <c r="P1" s="382"/>
-      <c r="Q1" s="382"/>
-      <c r="R1" s="382"/>
-      <c r="S1" s="382"/>
-      <c r="T1" s="382"/>
-      <c r="U1" s="382"/>
-      <c r="V1" s="382"/>
-      <c r="W1" s="382"/>
-      <c r="X1" s="382"/>
+      <c r="I1" s="380"/>
+      <c r="J1" s="380"/>
+      <c r="K1" s="380"/>
+      <c r="L1" s="380"/>
+      <c r="M1" s="380"/>
+      <c r="N1" s="380"/>
+      <c r="O1" s="380"/>
+      <c r="P1" s="380"/>
+      <c r="Q1" s="380"/>
+      <c r="R1" s="380"/>
+      <c r="S1" s="380"/>
+      <c r="T1" s="380"/>
+      <c r="U1" s="380"/>
+      <c r="V1" s="380"/>
+      <c r="W1" s="380"/>
+      <c r="X1" s="380"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -9994,29 +9964,29 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="384" t="s">
+      <c r="A3" s="382" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="416">
+      <c r="B3" s="412">
         <v>56</v>
       </c>
-      <c r="C3" s="416">
+      <c r="C3" s="412">
         <v>503</v>
       </c>
-      <c r="D3" s="416">
+      <c r="D3" s="412">
         <v>44</v>
       </c>
-      <c r="E3" s="386" t="str">
-        <f>TEXT(ROUND(SUM(I3:I49)/B3*100,4),"0.00")</f>
-        <v>167.86</v>
-      </c>
-      <c r="F3" s="386" t="str">
-        <f>TEXT(ROUND(SUM(J3:J49)/C3*100,4),"0.00")</f>
-        <v>56.46</v>
-      </c>
-      <c r="G3" s="389" t="str">
-        <f>TEXT(ROUND(SUM(M3:M49)/(D3*1024)*100,4),"0.00")</f>
-        <v>43.81</v>
+      <c r="E3" s="369" t="str">
+        <f>TEXT(ROUND(SUM(I3:I94)/B3*100,4),"0.00")</f>
+        <v>328.57</v>
+      </c>
+      <c r="F3" s="369" t="str">
+        <f>TEXT(ROUND(SUM(J3:J94)/C3*100,4),"0.00")</f>
+        <v>110.54</v>
+      </c>
+      <c r="G3" s="372" t="str">
+        <f>TEXT(ROUND(SUM(M3:M94)/(D3*1024)*100,4),"0.00")</f>
+        <v>85.76</v>
       </c>
       <c r="H3" s="193" t="s">
         <v>296</v>
@@ -10050,33 +10020,33 @@
       <c r="R3" s="364" t="s">
         <v>618</v>
       </c>
-      <c r="S3" s="390" t="s">
+      <c r="S3" s="386" t="s">
         <v>619</v>
       </c>
-      <c r="T3" s="390" t="s">
+      <c r="T3" s="386" t="s">
         <v>620</v>
       </c>
-      <c r="U3" s="390" t="s">
+      <c r="U3" s="386" t="s">
         <v>621</v>
       </c>
-      <c r="V3" s="409" t="s">
+      <c r="V3" s="405" t="s">
         <v>622</v>
       </c>
-      <c r="W3" s="413" t="s">
+      <c r="W3" s="409" t="s">
         <v>623</v>
       </c>
-      <c r="X3" s="405">
+      <c r="X3" s="401">
         <v>43944</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="384"/>
-      <c r="B4" s="416"/>
-      <c r="C4" s="416"/>
-      <c r="D4" s="416"/>
-      <c r="E4" s="386"/>
-      <c r="F4" s="386"/>
-      <c r="G4" s="389"/>
+      <c r="A4" s="382"/>
+      <c r="B4" s="412"/>
+      <c r="C4" s="412"/>
+      <c r="D4" s="412"/>
+      <c r="E4" s="370"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="373"/>
       <c r="H4" s="193" t="s">
         <v>297</v>
       </c>
@@ -10105,21 +10075,21 @@
       </c>
       <c r="Q4" s="364"/>
       <c r="R4" s="364"/>
-      <c r="S4" s="392"/>
-      <c r="T4" s="392"/>
-      <c r="U4" s="392"/>
-      <c r="V4" s="410"/>
-      <c r="W4" s="412"/>
-      <c r="X4" s="405"/>
+      <c r="S4" s="388"/>
+      <c r="T4" s="388"/>
+      <c r="U4" s="388"/>
+      <c r="V4" s="406"/>
+      <c r="W4" s="408"/>
+      <c r="X4" s="401"/>
     </row>
     <row r="5" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="384"/>
-      <c r="B5" s="416"/>
-      <c r="C5" s="416"/>
-      <c r="D5" s="416"/>
-      <c r="E5" s="386"/>
-      <c r="F5" s="386"/>
-      <c r="G5" s="389"/>
+      <c r="A5" s="382"/>
+      <c r="B5" s="412"/>
+      <c r="C5" s="412"/>
+      <c r="D5" s="412"/>
+      <c r="E5" s="370"/>
+      <c r="F5" s="370"/>
+      <c r="G5" s="373"/>
       <c r="H5" s="193" t="s">
         <v>302</v>
       </c>
@@ -10168,13 +10138,13 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="384"/>
-      <c r="B6" s="416"/>
-      <c r="C6" s="416"/>
-      <c r="D6" s="416"/>
-      <c r="E6" s="386"/>
-      <c r="F6" s="386"/>
-      <c r="G6" s="389"/>
+      <c r="A6" s="382"/>
+      <c r="B6" s="412"/>
+      <c r="C6" s="412"/>
+      <c r="D6" s="412"/>
+      <c r="E6" s="370"/>
+      <c r="F6" s="370"/>
+      <c r="G6" s="373"/>
       <c r="H6" s="193" t="s">
         <v>65</v>
       </c>
@@ -10215,13 +10185,13 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="384"/>
-      <c r="B7" s="416"/>
-      <c r="C7" s="416"/>
-      <c r="D7" s="416"/>
-      <c r="E7" s="386"/>
-      <c r="F7" s="386"/>
-      <c r="G7" s="389"/>
+      <c r="A7" s="382"/>
+      <c r="B7" s="412"/>
+      <c r="C7" s="412"/>
+      <c r="D7" s="412"/>
+      <c r="E7" s="370"/>
+      <c r="F7" s="370"/>
+      <c r="G7" s="373"/>
       <c r="H7" s="193" t="s">
         <v>312</v>
       </c>
@@ -10262,13 +10232,13 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="384"/>
-      <c r="B8" s="416"/>
-      <c r="C8" s="416"/>
-      <c r="D8" s="416"/>
-      <c r="E8" s="386"/>
-      <c r="F8" s="386"/>
-      <c r="G8" s="389"/>
+      <c r="A8" s="382"/>
+      <c r="B8" s="412"/>
+      <c r="C8" s="412"/>
+      <c r="D8" s="412"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
+      <c r="G8" s="373"/>
       <c r="H8" s="193" t="s">
         <v>312</v>
       </c>
@@ -10309,13 +10279,13 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="384"/>
-      <c r="B9" s="416"/>
-      <c r="C9" s="416"/>
-      <c r="D9" s="416"/>
-      <c r="E9" s="386"/>
-      <c r="F9" s="386"/>
-      <c r="G9" s="389"/>
+      <c r="A9" s="382"/>
+      <c r="B9" s="412"/>
+      <c r="C9" s="412"/>
+      <c r="D9" s="412"/>
+      <c r="E9" s="370"/>
+      <c r="F9" s="370"/>
+      <c r="G9" s="373"/>
       <c r="H9" s="193" t="s">
         <v>312</v>
       </c>
@@ -10358,13 +10328,13 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="384"/>
-      <c r="B10" s="416"/>
-      <c r="C10" s="416"/>
-      <c r="D10" s="416"/>
-      <c r="E10" s="386"/>
-      <c r="F10" s="386"/>
-      <c r="G10" s="389"/>
+      <c r="A10" s="382"/>
+      <c r="B10" s="412"/>
+      <c r="C10" s="412"/>
+      <c r="D10" s="412"/>
+      <c r="E10" s="370"/>
+      <c r="F10" s="370"/>
+      <c r="G10" s="373"/>
       <c r="H10" s="364" t="s">
         <v>393</v>
       </c>
@@ -10392,32 +10362,32 @@
         <v>3321</v>
       </c>
       <c r="Q10" s="364"/>
-      <c r="R10" s="407" t="s">
+      <c r="R10" s="403" t="s">
         <v>327</v>
       </c>
       <c r="S10" s="278"/>
       <c r="T10" s="278"/>
-      <c r="U10" s="393" t="s">
+      <c r="U10" s="389" t="s">
         <v>381</v>
       </c>
-      <c r="V10" s="395" t="s">
+      <c r="V10" s="391" t="s">
         <v>382</v>
       </c>
-      <c r="W10" s="417" t="s">
+      <c r="W10" s="413" t="s">
         <v>383</v>
       </c>
-      <c r="X10" s="405">
+      <c r="X10" s="401">
         <v>43948</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="384"/>
-      <c r="B11" s="416"/>
-      <c r="C11" s="416"/>
-      <c r="D11" s="416"/>
-      <c r="E11" s="386"/>
-      <c r="F11" s="386"/>
-      <c r="G11" s="389"/>
+      <c r="A11" s="382"/>
+      <c r="B11" s="412"/>
+      <c r="C11" s="412"/>
+      <c r="D11" s="412"/>
+      <c r="E11" s="370"/>
+      <c r="F11" s="370"/>
+      <c r="G11" s="373"/>
       <c r="H11" s="364"/>
       <c r="I11" s="194">
         <v>2</v>
@@ -10443,22 +10413,22 @@
         <v>3322</v>
       </c>
       <c r="Q11" s="364"/>
-      <c r="R11" s="407"/>
+      <c r="R11" s="403"/>
       <c r="S11" s="279"/>
       <c r="T11" s="279"/>
-      <c r="U11" s="401"/>
-      <c r="V11" s="402"/>
-      <c r="W11" s="417"/>
-      <c r="X11" s="405"/>
+      <c r="U11" s="397"/>
+      <c r="V11" s="398"/>
+      <c r="W11" s="413"/>
+      <c r="X11" s="401"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="384"/>
-      <c r="B12" s="416"/>
-      <c r="C12" s="416"/>
-      <c r="D12" s="416"/>
-      <c r="E12" s="386"/>
-      <c r="F12" s="386"/>
-      <c r="G12" s="389"/>
+      <c r="A12" s="382"/>
+      <c r="B12" s="412"/>
+      <c r="C12" s="412"/>
+      <c r="D12" s="412"/>
+      <c r="E12" s="370"/>
+      <c r="F12" s="370"/>
+      <c r="G12" s="373"/>
       <c r="H12" s="364"/>
       <c r="I12" s="194">
         <v>2</v>
@@ -10484,22 +10454,22 @@
         <v>3323</v>
       </c>
       <c r="Q12" s="364"/>
-      <c r="R12" s="407"/>
+      <c r="R12" s="403"/>
       <c r="S12" s="279"/>
       <c r="T12" s="279"/>
-      <c r="U12" s="401"/>
-      <c r="V12" s="402"/>
-      <c r="W12" s="417"/>
-      <c r="X12" s="405"/>
+      <c r="U12" s="397"/>
+      <c r="V12" s="398"/>
+      <c r="W12" s="413"/>
+      <c r="X12" s="401"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="384"/>
-      <c r="B13" s="416"/>
-      <c r="C13" s="416"/>
-      <c r="D13" s="416"/>
-      <c r="E13" s="386"/>
-      <c r="F13" s="386"/>
-      <c r="G13" s="389"/>
+      <c r="A13" s="382"/>
+      <c r="B13" s="412"/>
+      <c r="C13" s="412"/>
+      <c r="D13" s="412"/>
+      <c r="E13" s="370"/>
+      <c r="F13" s="370"/>
+      <c r="G13" s="373"/>
       <c r="H13" s="364"/>
       <c r="I13" s="194">
         <v>2</v>
@@ -10525,22 +10495,22 @@
         <v>3324</v>
       </c>
       <c r="Q13" s="364"/>
-      <c r="R13" s="407"/>
+      <c r="R13" s="403"/>
       <c r="S13" s="279"/>
       <c r="T13" s="279"/>
-      <c r="U13" s="401"/>
-      <c r="V13" s="402"/>
-      <c r="W13" s="417"/>
-      <c r="X13" s="405"/>
+      <c r="U13" s="397"/>
+      <c r="V13" s="398"/>
+      <c r="W13" s="413"/>
+      <c r="X13" s="401"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="384"/>
-      <c r="B14" s="416"/>
-      <c r="C14" s="416"/>
-      <c r="D14" s="416"/>
-      <c r="E14" s="386"/>
-      <c r="F14" s="386"/>
-      <c r="G14" s="389"/>
+      <c r="A14" s="382"/>
+      <c r="B14" s="412"/>
+      <c r="C14" s="412"/>
+      <c r="D14" s="412"/>
+      <c r="E14" s="370"/>
+      <c r="F14" s="370"/>
+      <c r="G14" s="373"/>
       <c r="H14" s="364"/>
       <c r="I14" s="194">
         <v>2</v>
@@ -10566,22 +10536,22 @@
         <v>3325</v>
       </c>
       <c r="Q14" s="364"/>
-      <c r="R14" s="407"/>
+      <c r="R14" s="403"/>
       <c r="S14" s="279"/>
       <c r="T14" s="279"/>
-      <c r="U14" s="401"/>
-      <c r="V14" s="402"/>
-      <c r="W14" s="417"/>
-      <c r="X14" s="405"/>
+      <c r="U14" s="397"/>
+      <c r="V14" s="398"/>
+      <c r="W14" s="413"/>
+      <c r="X14" s="401"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="384"/>
-      <c r="B15" s="416"/>
-      <c r="C15" s="416"/>
-      <c r="D15" s="416"/>
-      <c r="E15" s="386"/>
-      <c r="F15" s="386"/>
-      <c r="G15" s="389"/>
+      <c r="A15" s="382"/>
+      <c r="B15" s="412"/>
+      <c r="C15" s="412"/>
+      <c r="D15" s="412"/>
+      <c r="E15" s="370"/>
+      <c r="F15" s="370"/>
+      <c r="G15" s="373"/>
       <c r="H15" s="364"/>
       <c r="I15" s="194">
         <v>2</v>
@@ -10607,22 +10577,22 @@
         <v>3326</v>
       </c>
       <c r="Q15" s="364"/>
-      <c r="R15" s="407"/>
+      <c r="R15" s="403"/>
       <c r="S15" s="279"/>
       <c r="T15" s="279"/>
-      <c r="U15" s="401"/>
-      <c r="V15" s="402"/>
-      <c r="W15" s="417"/>
-      <c r="X15" s="405"/>
+      <c r="U15" s="397"/>
+      <c r="V15" s="398"/>
+      <c r="W15" s="413"/>
+      <c r="X15" s="401"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="384"/>
-      <c r="B16" s="416"/>
-      <c r="C16" s="416"/>
-      <c r="D16" s="416"/>
-      <c r="E16" s="386"/>
-      <c r="F16" s="386"/>
-      <c r="G16" s="389"/>
+      <c r="A16" s="382"/>
+      <c r="B16" s="412"/>
+      <c r="C16" s="412"/>
+      <c r="D16" s="412"/>
+      <c r="E16" s="370"/>
+      <c r="F16" s="370"/>
+      <c r="G16" s="373"/>
       <c r="H16" s="364"/>
       <c r="I16" s="194">
         <v>2</v>
@@ -10648,22 +10618,22 @@
         <v>3327</v>
       </c>
       <c r="Q16" s="364"/>
-      <c r="R16" s="407"/>
+      <c r="R16" s="403"/>
       <c r="S16" s="279"/>
       <c r="T16" s="279"/>
-      <c r="U16" s="401"/>
-      <c r="V16" s="402"/>
-      <c r="W16" s="417"/>
-      <c r="X16" s="405"/>
+      <c r="U16" s="397"/>
+      <c r="V16" s="398"/>
+      <c r="W16" s="413"/>
+      <c r="X16" s="401"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="384"/>
-      <c r="B17" s="416"/>
-      <c r="C17" s="416"/>
-      <c r="D17" s="416"/>
-      <c r="E17" s="386"/>
-      <c r="F17" s="386"/>
-      <c r="G17" s="389"/>
+      <c r="A17" s="382"/>
+      <c r="B17" s="412"/>
+      <c r="C17" s="412"/>
+      <c r="D17" s="412"/>
+      <c r="E17" s="370"/>
+      <c r="F17" s="370"/>
+      <c r="G17" s="373"/>
       <c r="H17" s="364"/>
       <c r="I17" s="194">
         <v>2</v>
@@ -10689,22 +10659,22 @@
         <v>3328</v>
       </c>
       <c r="Q17" s="364"/>
-      <c r="R17" s="407"/>
+      <c r="R17" s="403"/>
       <c r="S17" s="279"/>
       <c r="T17" s="279"/>
-      <c r="U17" s="401"/>
-      <c r="V17" s="402"/>
-      <c r="W17" s="417"/>
-      <c r="X17" s="405"/>
+      <c r="U17" s="397"/>
+      <c r="V17" s="398"/>
+      <c r="W17" s="413"/>
+      <c r="X17" s="401"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="384"/>
-      <c r="B18" s="416"/>
-      <c r="C18" s="416"/>
-      <c r="D18" s="416"/>
-      <c r="E18" s="386"/>
-      <c r="F18" s="386"/>
-      <c r="G18" s="389"/>
+      <c r="A18" s="382"/>
+      <c r="B18" s="412"/>
+      <c r="C18" s="412"/>
+      <c r="D18" s="412"/>
+      <c r="E18" s="370"/>
+      <c r="F18" s="370"/>
+      <c r="G18" s="373"/>
       <c r="H18" s="364"/>
       <c r="I18" s="194">
         <v>2</v>
@@ -10730,22 +10700,22 @@
         <v>3329</v>
       </c>
       <c r="Q18" s="364"/>
-      <c r="R18" s="407"/>
+      <c r="R18" s="403"/>
       <c r="S18" s="279"/>
       <c r="T18" s="279"/>
-      <c r="U18" s="401"/>
-      <c r="V18" s="402"/>
-      <c r="W18" s="417"/>
-      <c r="X18" s="405"/>
+      <c r="U18" s="397"/>
+      <c r="V18" s="398"/>
+      <c r="W18" s="413"/>
+      <c r="X18" s="401"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="384"/>
-      <c r="B19" s="416"/>
-      <c r="C19" s="416"/>
-      <c r="D19" s="416"/>
-      <c r="E19" s="386"/>
-      <c r="F19" s="386"/>
-      <c r="G19" s="389"/>
+      <c r="A19" s="382"/>
+      <c r="B19" s="412"/>
+      <c r="C19" s="412"/>
+      <c r="D19" s="412"/>
+      <c r="E19" s="370"/>
+      <c r="F19" s="370"/>
+      <c r="G19" s="373"/>
       <c r="H19" s="364"/>
       <c r="I19" s="194">
         <v>2</v>
@@ -10771,22 +10741,22 @@
         <v>3330</v>
       </c>
       <c r="Q19" s="364"/>
-      <c r="R19" s="407"/>
+      <c r="R19" s="403"/>
       <c r="S19" s="280"/>
       <c r="T19" s="280"/>
-      <c r="U19" s="394"/>
-      <c r="V19" s="396"/>
-      <c r="W19" s="417"/>
-      <c r="X19" s="405"/>
+      <c r="U19" s="390"/>
+      <c r="V19" s="392"/>
+      <c r="W19" s="413"/>
+      <c r="X19" s="401"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="384"/>
-      <c r="B20" s="416"/>
-      <c r="C20" s="416"/>
-      <c r="D20" s="416"/>
-      <c r="E20" s="386"/>
-      <c r="F20" s="386"/>
-      <c r="G20" s="389"/>
+      <c r="A20" s="382"/>
+      <c r="B20" s="412"/>
+      <c r="C20" s="412"/>
+      <c r="D20" s="412"/>
+      <c r="E20" s="370"/>
+      <c r="F20" s="370"/>
+      <c r="G20" s="373"/>
       <c r="H20" s="193" t="s">
         <v>45</v>
       </c>
@@ -10833,13 +10803,13 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="384"/>
-      <c r="B21" s="416"/>
-      <c r="C21" s="416"/>
-      <c r="D21" s="416"/>
-      <c r="E21" s="386"/>
-      <c r="F21" s="386"/>
-      <c r="G21" s="389"/>
+      <c r="A21" s="382"/>
+      <c r="B21" s="412"/>
+      <c r="C21" s="412"/>
+      <c r="D21" s="412"/>
+      <c r="E21" s="370"/>
+      <c r="F21" s="370"/>
+      <c r="G21" s="373"/>
       <c r="H21" s="193" t="s">
         <v>45</v>
       </c>
@@ -10867,32 +10837,32 @@
         <v>3344</v>
       </c>
       <c r="Q21" s="364"/>
-      <c r="R21" s="393" t="s">
+      <c r="R21" s="389" t="s">
         <v>359</v>
       </c>
       <c r="S21" s="278"/>
       <c r="T21" s="278"/>
-      <c r="U21" s="393" t="s">
+      <c r="U21" s="389" t="s">
         <v>360</v>
       </c>
-      <c r="V21" s="395" t="s">
+      <c r="V21" s="391" t="s">
         <v>368</v>
       </c>
-      <c r="W21" s="414" t="s">
+      <c r="W21" s="410" t="s">
         <v>378</v>
       </c>
-      <c r="X21" s="399">
+      <c r="X21" s="395">
         <v>43962</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="384"/>
-      <c r="B22" s="416"/>
-      <c r="C22" s="416"/>
-      <c r="D22" s="416"/>
-      <c r="E22" s="386"/>
-      <c r="F22" s="386"/>
-      <c r="G22" s="389"/>
+      <c r="A22" s="382"/>
+      <c r="B22" s="412"/>
+      <c r="C22" s="412"/>
+      <c r="D22" s="412"/>
+      <c r="E22" s="370"/>
+      <c r="F22" s="370"/>
+      <c r="G22" s="373"/>
       <c r="H22" s="201" t="s">
         <v>358</v>
       </c>
@@ -10920,22 +10890,22 @@
         <v>3345</v>
       </c>
       <c r="Q22" s="364"/>
-      <c r="R22" s="394"/>
+      <c r="R22" s="390"/>
       <c r="S22" s="280"/>
       <c r="T22" s="280"/>
-      <c r="U22" s="394"/>
-      <c r="V22" s="396"/>
-      <c r="W22" s="415"/>
-      <c r="X22" s="400"/>
+      <c r="U22" s="390"/>
+      <c r="V22" s="392"/>
+      <c r="W22" s="411"/>
+      <c r="X22" s="396"/>
     </row>
     <row r="23" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="384"/>
-      <c r="B23" s="416"/>
-      <c r="C23" s="416"/>
-      <c r="D23" s="416"/>
-      <c r="E23" s="386"/>
-      <c r="F23" s="386"/>
-      <c r="G23" s="389"/>
+      <c r="A23" s="382"/>
+      <c r="B23" s="412"/>
+      <c r="C23" s="412"/>
+      <c r="D23" s="412"/>
+      <c r="E23" s="370"/>
+      <c r="F23" s="370"/>
+      <c r="G23" s="373"/>
       <c r="H23" s="201" t="s">
         <v>385</v>
       </c>
@@ -10963,32 +10933,32 @@
         <v>3348</v>
       </c>
       <c r="Q23" s="364"/>
-      <c r="R23" s="407" t="s">
+      <c r="R23" s="403" t="s">
         <v>396</v>
       </c>
-      <c r="S23" s="393"/>
-      <c r="T23" s="393"/>
-      <c r="U23" s="407" t="s">
+      <c r="S23" s="389"/>
+      <c r="T23" s="389"/>
+      <c r="U23" s="403" t="s">
         <v>460</v>
       </c>
-      <c r="V23" s="395" t="s">
+      <c r="V23" s="391" t="s">
         <v>387</v>
       </c>
-      <c r="W23" s="397" t="s">
+      <c r="W23" s="393" t="s">
         <v>463</v>
       </c>
-      <c r="X23" s="399">
+      <c r="X23" s="395">
         <v>43966</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="384"/>
-      <c r="B24" s="416"/>
-      <c r="C24" s="416"/>
-      <c r="D24" s="416"/>
-      <c r="E24" s="386"/>
-      <c r="F24" s="386"/>
-      <c r="G24" s="389"/>
+      <c r="A24" s="382"/>
+      <c r="B24" s="412"/>
+      <c r="C24" s="412"/>
+      <c r="D24" s="412"/>
+      <c r="E24" s="370"/>
+      <c r="F24" s="370"/>
+      <c r="G24" s="373"/>
       <c r="H24" s="182" t="s">
         <v>433</v>
       </c>
@@ -11016,23 +10986,23 @@
         <v>3349</v>
       </c>
       <c r="Q24" s="364"/>
-      <c r="R24" s="407"/>
-      <c r="S24" s="401"/>
-      <c r="T24" s="401"/>
-      <c r="U24" s="407"/>
-      <c r="V24" s="402"/>
-      <c r="W24" s="403"/>
-      <c r="X24" s="404"/>
+      <c r="R24" s="403"/>
+      <c r="S24" s="397"/>
+      <c r="T24" s="397"/>
+      <c r="U24" s="403"/>
+      <c r="V24" s="398"/>
+      <c r="W24" s="399"/>
+      <c r="X24" s="400"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="384"/>
-      <c r="B25" s="416"/>
-      <c r="C25" s="416"/>
-      <c r="D25" s="416"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="386"/>
-      <c r="G25" s="389"/>
-      <c r="H25" s="391" t="s">
+      <c r="A25" s="382"/>
+      <c r="B25" s="412"/>
+      <c r="C25" s="412"/>
+      <c r="D25" s="412"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="373"/>
+      <c r="H25" s="387" t="s">
         <v>434</v>
       </c>
       <c r="I25" s="202">
@@ -11059,23 +11029,23 @@
         <v>3350</v>
       </c>
       <c r="Q25" s="364"/>
-      <c r="R25" s="407"/>
-      <c r="S25" s="401"/>
-      <c r="T25" s="401"/>
-      <c r="U25" s="407"/>
-      <c r="V25" s="402"/>
-      <c r="W25" s="403"/>
-      <c r="X25" s="404"/>
+      <c r="R25" s="403"/>
+      <c r="S25" s="397"/>
+      <c r="T25" s="397"/>
+      <c r="U25" s="403"/>
+      <c r="V25" s="398"/>
+      <c r="W25" s="399"/>
+      <c r="X25" s="400"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="384"/>
-      <c r="B26" s="416"/>
-      <c r="C26" s="416"/>
-      <c r="D26" s="416"/>
-      <c r="E26" s="386"/>
-      <c r="F26" s="386"/>
-      <c r="G26" s="389"/>
-      <c r="H26" s="392"/>
+      <c r="A26" s="382"/>
+      <c r="B26" s="412"/>
+      <c r="C26" s="412"/>
+      <c r="D26" s="412"/>
+      <c r="E26" s="370"/>
+      <c r="F26" s="370"/>
+      <c r="G26" s="373"/>
+      <c r="H26" s="388"/>
       <c r="I26" s="202">
         <v>2</v>
       </c>
@@ -11100,22 +11070,22 @@
         <v>3351</v>
       </c>
       <c r="Q26" s="364"/>
-      <c r="R26" s="407"/>
-      <c r="S26" s="401"/>
-      <c r="T26" s="401"/>
-      <c r="U26" s="407"/>
-      <c r="V26" s="402"/>
-      <c r="W26" s="403"/>
-      <c r="X26" s="404"/>
+      <c r="R26" s="403"/>
+      <c r="S26" s="397"/>
+      <c r="T26" s="397"/>
+      <c r="U26" s="403"/>
+      <c r="V26" s="398"/>
+      <c r="W26" s="399"/>
+      <c r="X26" s="400"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="384"/>
-      <c r="B27" s="416"/>
-      <c r="C27" s="416"/>
-      <c r="D27" s="416"/>
-      <c r="E27" s="386"/>
-      <c r="F27" s="386"/>
-      <c r="G27" s="389"/>
+      <c r="A27" s="382"/>
+      <c r="B27" s="412"/>
+      <c r="C27" s="412"/>
+      <c r="D27" s="412"/>
+      <c r="E27" s="370"/>
+      <c r="F27" s="370"/>
+      <c r="G27" s="373"/>
       <c r="H27" s="201" t="s">
         <v>392</v>
       </c>
@@ -11143,22 +11113,22 @@
         <v>3352</v>
       </c>
       <c r="Q27" s="364"/>
-      <c r="R27" s="407"/>
-      <c r="S27" s="401"/>
-      <c r="T27" s="401"/>
-      <c r="U27" s="407"/>
-      <c r="V27" s="402"/>
-      <c r="W27" s="403"/>
-      <c r="X27" s="404"/>
+      <c r="R27" s="403"/>
+      <c r="S27" s="397"/>
+      <c r="T27" s="397"/>
+      <c r="U27" s="403"/>
+      <c r="V27" s="398"/>
+      <c r="W27" s="399"/>
+      <c r="X27" s="400"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="384"/>
-      <c r="B28" s="416"/>
-      <c r="C28" s="416"/>
-      <c r="D28" s="416"/>
-      <c r="E28" s="386"/>
-      <c r="F28" s="386"/>
-      <c r="G28" s="389"/>
+      <c r="A28" s="382"/>
+      <c r="B28" s="412"/>
+      <c r="C28" s="412"/>
+      <c r="D28" s="412"/>
+      <c r="E28" s="370"/>
+      <c r="F28" s="370"/>
+      <c r="G28" s="373"/>
       <c r="H28" s="221" t="s">
         <v>394</v>
       </c>
@@ -11186,22 +11156,22 @@
         <v>3353</v>
       </c>
       <c r="Q28" s="364"/>
-      <c r="R28" s="407"/>
-      <c r="S28" s="394"/>
-      <c r="T28" s="394"/>
-      <c r="U28" s="407"/>
-      <c r="V28" s="396"/>
-      <c r="W28" s="398"/>
-      <c r="X28" s="400"/>
+      <c r="R28" s="403"/>
+      <c r="S28" s="390"/>
+      <c r="T28" s="390"/>
+      <c r="U28" s="403"/>
+      <c r="V28" s="392"/>
+      <c r="W28" s="394"/>
+      <c r="X28" s="396"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="384"/>
-      <c r="B29" s="416"/>
-      <c r="C29" s="416"/>
-      <c r="D29" s="416"/>
-      <c r="E29" s="386"/>
-      <c r="F29" s="386"/>
-      <c r="G29" s="389"/>
+      <c r="A29" s="382"/>
+      <c r="B29" s="412"/>
+      <c r="C29" s="412"/>
+      <c r="D29" s="412"/>
+      <c r="E29" s="370"/>
+      <c r="F29" s="370"/>
+      <c r="G29" s="373"/>
       <c r="H29" s="221" t="s">
         <v>426</v>
       </c>
@@ -11229,32 +11199,32 @@
         <v>3358</v>
       </c>
       <c r="Q29" s="364"/>
-      <c r="R29" s="393" t="s">
+      <c r="R29" s="389" t="s">
         <v>419</v>
       </c>
       <c r="S29" s="278"/>
       <c r="T29" s="278"/>
-      <c r="U29" s="393" t="s">
+      <c r="U29" s="389" t="s">
         <v>416</v>
       </c>
-      <c r="V29" s="395" t="s">
+      <c r="V29" s="391" t="s">
         <v>417</v>
       </c>
-      <c r="W29" s="397" t="s">
+      <c r="W29" s="393" t="s">
         <v>418</v>
       </c>
-      <c r="X29" s="399">
+      <c r="X29" s="395">
         <v>43978</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="384"/>
-      <c r="B30" s="416"/>
-      <c r="C30" s="416"/>
-      <c r="D30" s="416"/>
-      <c r="E30" s="386"/>
-      <c r="F30" s="386"/>
-      <c r="G30" s="389"/>
+      <c r="A30" s="382"/>
+      <c r="B30" s="412"/>
+      <c r="C30" s="412"/>
+      <c r="D30" s="412"/>
+      <c r="E30" s="370"/>
+      <c r="F30" s="370"/>
+      <c r="G30" s="373"/>
       <c r="H30" s="221" t="s">
         <v>427</v>
       </c>
@@ -11282,22 +11252,22 @@
         <v>3359</v>
       </c>
       <c r="Q30" s="364"/>
-      <c r="R30" s="401"/>
+      <c r="R30" s="397"/>
       <c r="S30" s="279"/>
       <c r="T30" s="279"/>
-      <c r="U30" s="401"/>
-      <c r="V30" s="402"/>
-      <c r="W30" s="403"/>
-      <c r="X30" s="404"/>
+      <c r="U30" s="397"/>
+      <c r="V30" s="398"/>
+      <c r="W30" s="399"/>
+      <c r="X30" s="400"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="384"/>
-      <c r="B31" s="416"/>
-      <c r="C31" s="416"/>
-      <c r="D31" s="416"/>
-      <c r="E31" s="386"/>
-      <c r="F31" s="386"/>
-      <c r="G31" s="389"/>
+      <c r="A31" s="382"/>
+      <c r="B31" s="412"/>
+      <c r="C31" s="412"/>
+      <c r="D31" s="412"/>
+      <c r="E31" s="370"/>
+      <c r="F31" s="370"/>
+      <c r="G31" s="373"/>
       <c r="H31" s="221" t="s">
         <v>428</v>
       </c>
@@ -11325,22 +11295,22 @@
         <v>3360</v>
       </c>
       <c r="Q31" s="364"/>
-      <c r="R31" s="394"/>
+      <c r="R31" s="390"/>
       <c r="S31" s="280"/>
       <c r="T31" s="280"/>
-      <c r="U31" s="394"/>
-      <c r="V31" s="396"/>
-      <c r="W31" s="398"/>
-      <c r="X31" s="400"/>
+      <c r="U31" s="390"/>
+      <c r="V31" s="392"/>
+      <c r="W31" s="394"/>
+      <c r="X31" s="396"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="384"/>
-      <c r="B32" s="416"/>
-      <c r="C32" s="416"/>
-      <c r="D32" s="416"/>
-      <c r="E32" s="386"/>
-      <c r="F32" s="386"/>
-      <c r="G32" s="389"/>
+      <c r="A32" s="382"/>
+      <c r="B32" s="412"/>
+      <c r="C32" s="412"/>
+      <c r="D32" s="412"/>
+      <c r="E32" s="370"/>
+      <c r="F32" s="370"/>
+      <c r="G32" s="373"/>
       <c r="H32" s="226" t="s">
         <v>433</v>
       </c>
@@ -11368,32 +11338,32 @@
         <v>3364</v>
       </c>
       <c r="Q32" s="364"/>
-      <c r="R32" s="393" t="s">
+      <c r="R32" s="389" t="s">
         <v>436</v>
       </c>
       <c r="S32" s="278"/>
       <c r="T32" s="278"/>
-      <c r="U32" s="393" t="s">
+      <c r="U32" s="389" t="s">
         <v>437</v>
       </c>
-      <c r="V32" s="395" t="s">
+      <c r="V32" s="391" t="s">
         <v>438</v>
       </c>
-      <c r="W32" s="397" t="s">
+      <c r="W32" s="393" t="s">
         <v>439</v>
       </c>
-      <c r="X32" s="399">
+      <c r="X32" s="395">
         <v>43984</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="384"/>
-      <c r="B33" s="416"/>
-      <c r="C33" s="416"/>
-      <c r="D33" s="416"/>
-      <c r="E33" s="386"/>
-      <c r="F33" s="386"/>
-      <c r="G33" s="389"/>
+      <c r="A33" s="382"/>
+      <c r="B33" s="412"/>
+      <c r="C33" s="412"/>
+      <c r="D33" s="412"/>
+      <c r="E33" s="370"/>
+      <c r="F33" s="370"/>
+      <c r="G33" s="373"/>
       <c r="H33" s="226" t="s">
         <v>434</v>
       </c>
@@ -11421,22 +11391,22 @@
         <v>3365</v>
       </c>
       <c r="Q33" s="364"/>
-      <c r="R33" s="401"/>
+      <c r="R33" s="397"/>
       <c r="S33" s="279"/>
       <c r="T33" s="279"/>
-      <c r="U33" s="401"/>
-      <c r="V33" s="402"/>
-      <c r="W33" s="403"/>
-      <c r="X33" s="404"/>
+      <c r="U33" s="397"/>
+      <c r="V33" s="398"/>
+      <c r="W33" s="399"/>
+      <c r="X33" s="400"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="384"/>
-      <c r="B34" s="416"/>
-      <c r="C34" s="416"/>
-      <c r="D34" s="416"/>
-      <c r="E34" s="386"/>
-      <c r="F34" s="386"/>
-      <c r="G34" s="389"/>
+      <c r="A34" s="382"/>
+      <c r="B34" s="412"/>
+      <c r="C34" s="412"/>
+      <c r="D34" s="412"/>
+      <c r="E34" s="370"/>
+      <c r="F34" s="370"/>
+      <c r="G34" s="373"/>
       <c r="H34" s="226" t="s">
         <v>435</v>
       </c>
@@ -11464,22 +11434,22 @@
         <v>3366</v>
       </c>
       <c r="Q34" s="364"/>
-      <c r="R34" s="394"/>
+      <c r="R34" s="390"/>
       <c r="S34" s="280"/>
       <c r="T34" s="280"/>
-      <c r="U34" s="394"/>
-      <c r="V34" s="396"/>
-      <c r="W34" s="398"/>
-      <c r="X34" s="400"/>
+      <c r="U34" s="390"/>
+      <c r="V34" s="392"/>
+      <c r="W34" s="394"/>
+      <c r="X34" s="396"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="384"/>
-      <c r="B35" s="416"/>
-      <c r="C35" s="416"/>
-      <c r="D35" s="416"/>
-      <c r="E35" s="386"/>
-      <c r="F35" s="386"/>
-      <c r="G35" s="389"/>
+      <c r="A35" s="382"/>
+      <c r="B35" s="412"/>
+      <c r="C35" s="412"/>
+      <c r="D35" s="412"/>
+      <c r="E35" s="370"/>
+      <c r="F35" s="370"/>
+      <c r="G35" s="373"/>
       <c r="H35" s="241" t="s">
         <v>467</v>
       </c>
@@ -11507,18 +11477,18 @@
         <v>3370</v>
       </c>
       <c r="Q35" s="364"/>
-      <c r="R35" s="393" t="s">
+      <c r="R35" s="389" t="s">
         <v>459</v>
       </c>
       <c r="S35" s="278"/>
       <c r="T35" s="278"/>
-      <c r="U35" s="393" t="s">
+      <c r="U35" s="389" t="s">
         <v>461</v>
       </c>
-      <c r="V35" s="395" t="s">
+      <c r="V35" s="391" t="s">
         <v>462</v>
       </c>
-      <c r="W35" s="397" t="s">
+      <c r="W35" s="393" t="s">
         <v>464</v>
       </c>
       <c r="X35" s="243">
@@ -11526,13 +11496,13 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="384"/>
-      <c r="B36" s="416"/>
-      <c r="C36" s="416"/>
-      <c r="D36" s="416"/>
-      <c r="E36" s="386"/>
-      <c r="F36" s="386"/>
-      <c r="G36" s="389"/>
+      <c r="A36" s="382"/>
+      <c r="B36" s="412"/>
+      <c r="C36" s="412"/>
+      <c r="D36" s="412"/>
+      <c r="E36" s="370"/>
+      <c r="F36" s="370"/>
+      <c r="G36" s="373"/>
       <c r="H36" s="244" t="s">
         <v>468</v>
       </c>
@@ -11560,24 +11530,24 @@
         <v>3371</v>
       </c>
       <c r="Q36" s="364"/>
-      <c r="R36" s="401"/>
+      <c r="R36" s="397"/>
       <c r="S36" s="279"/>
       <c r="T36" s="279"/>
-      <c r="U36" s="401"/>
-      <c r="V36" s="402"/>
-      <c r="W36" s="403"/>
-      <c r="X36" s="399">
+      <c r="U36" s="397"/>
+      <c r="V36" s="398"/>
+      <c r="W36" s="399"/>
+      <c r="X36" s="395">
         <v>43990</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="384"/>
-      <c r="B37" s="416"/>
-      <c r="C37" s="416"/>
-      <c r="D37" s="416"/>
-      <c r="E37" s="386"/>
-      <c r="F37" s="386"/>
-      <c r="G37" s="389"/>
+      <c r="A37" s="382"/>
+      <c r="B37" s="412"/>
+      <c r="C37" s="412"/>
+      <c r="D37" s="412"/>
+      <c r="E37" s="370"/>
+      <c r="F37" s="370"/>
+      <c r="G37" s="373"/>
       <c r="H37" s="244" t="s">
         <v>469</v>
       </c>
@@ -11605,22 +11575,22 @@
         <v>3372</v>
       </c>
       <c r="Q37" s="364"/>
-      <c r="R37" s="401"/>
+      <c r="R37" s="397"/>
       <c r="S37" s="279"/>
       <c r="T37" s="279"/>
-      <c r="U37" s="401"/>
-      <c r="V37" s="402"/>
-      <c r="W37" s="403"/>
-      <c r="X37" s="404"/>
+      <c r="U37" s="397"/>
+      <c r="V37" s="398"/>
+      <c r="W37" s="399"/>
+      <c r="X37" s="400"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="384"/>
-      <c r="B38" s="416"/>
-      <c r="C38" s="416"/>
-      <c r="D38" s="416"/>
-      <c r="E38" s="386"/>
-      <c r="F38" s="386"/>
-      <c r="G38" s="389"/>
+      <c r="A38" s="382"/>
+      <c r="B38" s="412"/>
+      <c r="C38" s="412"/>
+      <c r="D38" s="412"/>
+      <c r="E38" s="370"/>
+      <c r="F38" s="370"/>
+      <c r="G38" s="373"/>
       <c r="H38" s="244" t="s">
         <v>470</v>
       </c>
@@ -11648,22 +11618,22 @@
         <v>3373</v>
       </c>
       <c r="Q38" s="364"/>
-      <c r="R38" s="394"/>
+      <c r="R38" s="390"/>
       <c r="S38" s="280"/>
       <c r="T38" s="280"/>
-      <c r="U38" s="394"/>
-      <c r="V38" s="396"/>
-      <c r="W38" s="398"/>
-      <c r="X38" s="400"/>
+      <c r="U38" s="390"/>
+      <c r="V38" s="392"/>
+      <c r="W38" s="394"/>
+      <c r="X38" s="396"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="384"/>
-      <c r="B39" s="416"/>
-      <c r="C39" s="416"/>
-      <c r="D39" s="416"/>
-      <c r="E39" s="386"/>
-      <c r="F39" s="386"/>
-      <c r="G39" s="389"/>
+      <c r="A39" s="382"/>
+      <c r="B39" s="412"/>
+      <c r="C39" s="412"/>
+      <c r="D39" s="412"/>
+      <c r="E39" s="370"/>
+      <c r="F39" s="370"/>
+      <c r="G39" s="373"/>
       <c r="H39" s="285" t="s">
         <v>544</v>
       </c>
@@ -11686,27 +11656,27 @@
       <c r="N39" s="285" t="s">
         <v>524</v>
       </c>
-      <c r="O39" s="390" t="s">
+      <c r="O39" s="386" t="s">
         <v>525</v>
       </c>
       <c r="P39" s="285">
         <v>3379</v>
       </c>
       <c r="Q39" s="364"/>
-      <c r="R39" s="393" t="s">
+      <c r="R39" s="389" t="s">
         <v>526</v>
       </c>
-      <c r="S39" s="393"/>
-      <c r="T39" s="393" t="s">
+      <c r="S39" s="389"/>
+      <c r="T39" s="389" t="s">
         <v>527</v>
       </c>
-      <c r="U39" s="393" t="s">
+      <c r="U39" s="389" t="s">
         <v>528</v>
       </c>
-      <c r="V39" s="395" t="s">
+      <c r="V39" s="391" t="s">
         <v>529</v>
       </c>
-      <c r="W39" s="397" t="s">
+      <c r="W39" s="393" t="s">
         <v>530</v>
       </c>
       <c r="X39" s="287">
@@ -11714,13 +11684,13 @@
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="384"/>
-      <c r="B40" s="416"/>
-      <c r="C40" s="416"/>
-      <c r="D40" s="416"/>
-      <c r="E40" s="386"/>
-      <c r="F40" s="386"/>
-      <c r="G40" s="389"/>
+      <c r="A40" s="382"/>
+      <c r="B40" s="412"/>
+      <c r="C40" s="412"/>
+      <c r="D40" s="412"/>
+      <c r="E40" s="370"/>
+      <c r="F40" s="370"/>
+      <c r="G40" s="373"/>
       <c r="H40" s="285" t="s">
         <v>542</v>
       </c>
@@ -11743,29 +11713,29 @@
       <c r="N40" s="285" t="s">
         <v>531</v>
       </c>
-      <c r="O40" s="391"/>
+      <c r="O40" s="387"/>
       <c r="P40" s="285">
         <v>3380</v>
       </c>
       <c r="Q40" s="364"/>
-      <c r="R40" s="401"/>
-      <c r="S40" s="401"/>
-      <c r="T40" s="401"/>
-      <c r="U40" s="401"/>
-      <c r="V40" s="402"/>
-      <c r="W40" s="403"/>
-      <c r="X40" s="399">
+      <c r="R40" s="397"/>
+      <c r="S40" s="397"/>
+      <c r="T40" s="397"/>
+      <c r="U40" s="397"/>
+      <c r="V40" s="398"/>
+      <c r="W40" s="399"/>
+      <c r="X40" s="395">
         <v>44010</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="384"/>
-      <c r="B41" s="416"/>
-      <c r="C41" s="416"/>
-      <c r="D41" s="416"/>
-      <c r="E41" s="386"/>
-      <c r="F41" s="386"/>
-      <c r="G41" s="389"/>
+      <c r="A41" s="382"/>
+      <c r="B41" s="412"/>
+      <c r="C41" s="412"/>
+      <c r="D41" s="412"/>
+      <c r="E41" s="370"/>
+      <c r="F41" s="370"/>
+      <c r="G41" s="373"/>
       <c r="H41" s="283" t="s">
         <v>543</v>
       </c>
@@ -11788,27 +11758,27 @@
       <c r="N41" s="283" t="s">
         <v>532</v>
       </c>
-      <c r="O41" s="391"/>
+      <c r="O41" s="387"/>
       <c r="P41" s="283">
         <v>3381</v>
       </c>
       <c r="Q41" s="364"/>
-      <c r="R41" s="394"/>
-      <c r="S41" s="394"/>
-      <c r="T41" s="394"/>
-      <c r="U41" s="394"/>
-      <c r="V41" s="396"/>
-      <c r="W41" s="398"/>
-      <c r="X41" s="400"/>
+      <c r="R41" s="390"/>
+      <c r="S41" s="390"/>
+      <c r="T41" s="390"/>
+      <c r="U41" s="390"/>
+      <c r="V41" s="392"/>
+      <c r="W41" s="394"/>
+      <c r="X41" s="396"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="384"/>
-      <c r="B42" s="416"/>
-      <c r="C42" s="416"/>
-      <c r="D42" s="416"/>
-      <c r="E42" s="386"/>
-      <c r="F42" s="386"/>
-      <c r="G42" s="389"/>
+      <c r="A42" s="382"/>
+      <c r="B42" s="412"/>
+      <c r="C42" s="412"/>
+      <c r="D42" s="412"/>
+      <c r="E42" s="370"/>
+      <c r="F42" s="370"/>
+      <c r="G42" s="373"/>
       <c r="H42" s="301" t="s">
         <v>567</v>
       </c>
@@ -11831,37 +11801,37 @@
       <c r="N42" s="301" t="s">
         <v>564</v>
       </c>
-      <c r="O42" s="391"/>
+      <c r="O42" s="387"/>
       <c r="P42" s="301">
         <v>3385</v>
       </c>
       <c r="Q42" s="364"/>
-      <c r="R42" s="393" t="s">
+      <c r="R42" s="389" t="s">
         <v>560</v>
       </c>
-      <c r="S42" s="393"/>
-      <c r="T42" s="393"/>
-      <c r="U42" s="393" t="s">
+      <c r="S42" s="389"/>
+      <c r="T42" s="389"/>
+      <c r="U42" s="389" t="s">
         <v>561</v>
       </c>
-      <c r="V42" s="395" t="s">
+      <c r="V42" s="391" t="s">
         <v>562</v>
       </c>
-      <c r="W42" s="397" t="s">
+      <c r="W42" s="393" t="s">
         <v>563</v>
       </c>
-      <c r="X42" s="399">
+      <c r="X42" s="395">
         <v>44048</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="384"/>
-      <c r="B43" s="416"/>
-      <c r="C43" s="416"/>
-      <c r="D43" s="416"/>
-      <c r="E43" s="386"/>
-      <c r="F43" s="386"/>
-      <c r="G43" s="389"/>
+      <c r="A43" s="382"/>
+      <c r="B43" s="412"/>
+      <c r="C43" s="412"/>
+      <c r="D43" s="412"/>
+      <c r="E43" s="370"/>
+      <c r="F43" s="370"/>
+      <c r="G43" s="373"/>
       <c r="H43" s="301" t="s">
         <v>568</v>
       </c>
@@ -11884,27 +11854,27 @@
       <c r="N43" s="301" t="s">
         <v>565</v>
       </c>
-      <c r="O43" s="391"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="301">
         <v>3386</v>
       </c>
       <c r="Q43" s="364"/>
-      <c r="R43" s="394"/>
-      <c r="S43" s="394"/>
-      <c r="T43" s="394"/>
-      <c r="U43" s="394"/>
-      <c r="V43" s="396"/>
-      <c r="W43" s="398"/>
-      <c r="X43" s="400"/>
+      <c r="R43" s="390"/>
+      <c r="S43" s="390"/>
+      <c r="T43" s="390"/>
+      <c r="U43" s="390"/>
+      <c r="V43" s="392"/>
+      <c r="W43" s="394"/>
+      <c r="X43" s="396"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="384"/>
-      <c r="B44" s="416"/>
-      <c r="C44" s="416"/>
-      <c r="D44" s="416"/>
-      <c r="E44" s="386"/>
-      <c r="F44" s="386"/>
-      <c r="G44" s="389"/>
+      <c r="A44" s="382"/>
+      <c r="B44" s="412"/>
+      <c r="C44" s="412"/>
+      <c r="D44" s="412"/>
+      <c r="E44" s="370"/>
+      <c r="F44" s="370"/>
+      <c r="G44" s="373"/>
       <c r="H44" s="314" t="s">
         <v>581</v>
       </c>
@@ -11927,41 +11897,41 @@
       <c r="N44" s="314" t="s">
         <v>583</v>
       </c>
-      <c r="O44" s="391"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="314">
         <v>3389</v>
       </c>
       <c r="Q44" s="364"/>
-      <c r="R44" s="393" t="s">
+      <c r="R44" s="389" t="s">
         <v>585</v>
       </c>
-      <c r="S44" s="393" t="s">
+      <c r="S44" s="389" t="s">
         <v>586</v>
       </c>
-      <c r="T44" s="393" t="s">
+      <c r="T44" s="389" t="s">
         <v>587</v>
       </c>
-      <c r="U44" s="393" t="s">
+      <c r="U44" s="389" t="s">
         <v>588</v>
       </c>
-      <c r="V44" s="395" t="s">
+      <c r="V44" s="391" t="s">
         <v>589</v>
       </c>
-      <c r="W44" s="397" t="s">
+      <c r="W44" s="393" t="s">
         <v>590</v>
       </c>
-      <c r="X44" s="399">
+      <c r="X44" s="395">
         <v>44053</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="384"/>
-      <c r="B45" s="416"/>
-      <c r="C45" s="416"/>
-      <c r="D45" s="416"/>
-      <c r="E45" s="386"/>
-      <c r="F45" s="386"/>
-      <c r="G45" s="389"/>
+      <c r="A45" s="382"/>
+      <c r="B45" s="412"/>
+      <c r="C45" s="412"/>
+      <c r="D45" s="412"/>
+      <c r="E45" s="370"/>
+      <c r="F45" s="370"/>
+      <c r="G45" s="373"/>
       <c r="H45" s="314" t="s">
         <v>582</v>
       </c>
@@ -11984,27 +11954,27 @@
       <c r="N45" s="314" t="s">
         <v>584</v>
       </c>
-      <c r="O45" s="391"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="314">
         <v>3390</v>
       </c>
       <c r="Q45" s="364"/>
-      <c r="R45" s="394"/>
-      <c r="S45" s="394"/>
-      <c r="T45" s="394"/>
-      <c r="U45" s="394"/>
-      <c r="V45" s="396"/>
-      <c r="W45" s="398"/>
-      <c r="X45" s="400"/>
+      <c r="R45" s="390"/>
+      <c r="S45" s="390"/>
+      <c r="T45" s="390"/>
+      <c r="U45" s="390"/>
+      <c r="V45" s="392"/>
+      <c r="W45" s="394"/>
+      <c r="X45" s="396"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="384"/>
-      <c r="B46" s="416"/>
-      <c r="C46" s="416"/>
-      <c r="D46" s="416"/>
-      <c r="E46" s="386"/>
-      <c r="F46" s="386"/>
-      <c r="G46" s="389"/>
+      <c r="A46" s="382"/>
+      <c r="B46" s="412"/>
+      <c r="C46" s="412"/>
+      <c r="D46" s="412"/>
+      <c r="E46" s="370"/>
+      <c r="F46" s="370"/>
+      <c r="G46" s="373"/>
       <c r="H46" s="336" t="s">
         <v>641</v>
       </c>
@@ -12027,41 +11997,41 @@
       <c r="N46" s="336" t="s">
         <v>643</v>
       </c>
-      <c r="O46" s="391"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="336">
         <v>3394</v>
       </c>
       <c r="Q46" s="364"/>
-      <c r="R46" s="393" t="s">
+      <c r="R46" s="389" t="s">
         <v>652</v>
       </c>
-      <c r="S46" s="393" t="s">
+      <c r="S46" s="389" t="s">
         <v>646</v>
       </c>
-      <c r="T46" s="393" t="s">
+      <c r="T46" s="389" t="s">
         <v>647</v>
       </c>
-      <c r="U46" s="393" t="s">
+      <c r="U46" s="389" t="s">
         <v>648</v>
       </c>
-      <c r="V46" s="395" t="s">
+      <c r="V46" s="391" t="s">
         <v>649</v>
       </c>
-      <c r="W46" s="397" t="s">
+      <c r="W46" s="393" t="s">
         <v>650</v>
       </c>
-      <c r="X46" s="399">
+      <c r="X46" s="395">
         <v>44068</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="384"/>
-      <c r="B47" s="416"/>
-      <c r="C47" s="416"/>
-      <c r="D47" s="416"/>
-      <c r="E47" s="386"/>
-      <c r="F47" s="386"/>
-      <c r="G47" s="389"/>
+      <c r="A47" s="382"/>
+      <c r="B47" s="412"/>
+      <c r="C47" s="412"/>
+      <c r="D47" s="412"/>
+      <c r="E47" s="370"/>
+      <c r="F47" s="370"/>
+      <c r="G47" s="373"/>
       <c r="H47" s="336" t="s">
         <v>642</v>
       </c>
@@ -12084,27 +12054,27 @@
       <c r="N47" s="336" t="s">
         <v>644</v>
       </c>
-      <c r="O47" s="392"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="336">
         <v>3395</v>
       </c>
       <c r="Q47" s="364"/>
-      <c r="R47" s="394"/>
-      <c r="S47" s="394"/>
-      <c r="T47" s="394"/>
-      <c r="U47" s="394"/>
-      <c r="V47" s="396"/>
-      <c r="W47" s="398"/>
-      <c r="X47" s="400"/>
+      <c r="R47" s="390"/>
+      <c r="S47" s="390"/>
+      <c r="T47" s="390"/>
+      <c r="U47" s="390"/>
+      <c r="V47" s="392"/>
+      <c r="W47" s="394"/>
+      <c r="X47" s="396"/>
     </row>
     <row r="48" spans="1:24" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="384"/>
-      <c r="B48" s="416"/>
-      <c r="C48" s="416"/>
-      <c r="D48" s="416"/>
-      <c r="E48" s="386"/>
-      <c r="F48" s="386"/>
-      <c r="G48" s="389"/>
+      <c r="A48" s="382"/>
+      <c r="B48" s="412"/>
+      <c r="C48" s="412"/>
+      <c r="D48" s="412"/>
+      <c r="E48" s="370"/>
+      <c r="F48" s="370"/>
+      <c r="G48" s="373"/>
       <c r="H48" s="358" t="s">
         <v>671</v>
       </c>
@@ -12151,13 +12121,13 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="384"/>
-      <c r="B49" s="416"/>
-      <c r="C49" s="416"/>
-      <c r="D49" s="416"/>
-      <c r="E49" s="386"/>
-      <c r="F49" s="386"/>
-      <c r="G49" s="389"/>
+      <c r="A49" s="382"/>
+      <c r="B49" s="412"/>
+      <c r="C49" s="412"/>
+      <c r="D49" s="412"/>
+      <c r="E49" s="370"/>
+      <c r="F49" s="370"/>
+      <c r="G49" s="373"/>
       <c r="H49" s="201"/>
       <c r="I49" s="202">
         <v>2</v>
@@ -12188,24 +12158,15 @@
       <c r="X49" s="220"/>
     </row>
     <row r="50" spans="1:30" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="384" t="s">
+      <c r="A50" s="382" t="s">
         <v>292</v>
       </c>
-      <c r="B50" s="416"/>
-      <c r="C50" s="416"/>
-      <c r="D50" s="416"/>
-      <c r="E50" s="386" t="str">
-        <f>TEXT(ROUND(SUM(I50:I94)/B3*100,4),"0.00")</f>
-        <v>160.71</v>
-      </c>
-      <c r="F50" s="386" t="str">
-        <f>TEXT(ROUND(SUM(J50:J94)/C3*100,4),"0.00")</f>
-        <v>54.08</v>
-      </c>
-      <c r="G50" s="389" t="str">
-        <f>TEXT(ROUND(SUM(M50:M94)/(D3*1024)*100,4),"0.00")</f>
-        <v>41.95</v>
-      </c>
+      <c r="B50" s="412"/>
+      <c r="C50" s="412"/>
+      <c r="D50" s="412"/>
+      <c r="E50" s="370"/>
+      <c r="F50" s="370"/>
+      <c r="G50" s="373"/>
       <c r="H50" s="211" t="s">
         <v>5</v>
       </c>
@@ -12264,13 +12225,13 @@
       <c r="AD50" s="183"/>
     </row>
     <row r="51" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="384"/>
-      <c r="B51" s="416"/>
-      <c r="C51" s="416"/>
-      <c r="D51" s="416"/>
-      <c r="E51" s="386"/>
-      <c r="F51" s="386"/>
-      <c r="G51" s="389"/>
+      <c r="A51" s="382"/>
+      <c r="B51" s="412"/>
+      <c r="C51" s="412"/>
+      <c r="D51" s="412"/>
+      <c r="E51" s="370"/>
+      <c r="F51" s="370"/>
+      <c r="G51" s="373"/>
       <c r="H51" s="210" t="s">
         <v>299</v>
       </c>
@@ -12301,20 +12262,20 @@
       <c r="R51" s="364" t="s">
         <v>301</v>
       </c>
-      <c r="S51" s="390"/>
-      <c r="T51" s="390" t="s">
+      <c r="S51" s="386"/>
+      <c r="T51" s="386" t="s">
         <v>628</v>
       </c>
-      <c r="U51" s="390" t="s">
+      <c r="U51" s="386" t="s">
         <v>625</v>
       </c>
-      <c r="V51" s="409" t="s">
+      <c r="V51" s="405" t="s">
         <v>626</v>
       </c>
-      <c r="W51" s="413" t="s">
+      <c r="W51" s="409" t="s">
         <v>627</v>
       </c>
-      <c r="X51" s="405">
+      <c r="X51" s="401">
         <v>43944</v>
       </c>
       <c r="Y51" s="183"/>
@@ -12325,13 +12286,13 @@
       <c r="AD51" s="183"/>
     </row>
     <row r="52" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="384"/>
-      <c r="B52" s="416"/>
-      <c r="C52" s="416"/>
-      <c r="D52" s="416"/>
-      <c r="E52" s="386"/>
-      <c r="F52" s="386"/>
-      <c r="G52" s="389"/>
+      <c r="A52" s="382"/>
+      <c r="B52" s="412"/>
+      <c r="C52" s="412"/>
+      <c r="D52" s="412"/>
+      <c r="E52" s="370"/>
+      <c r="F52" s="370"/>
+      <c r="G52" s="373"/>
       <c r="H52" s="210" t="s">
         <v>57</v>
       </c>
@@ -12360,12 +12321,12 @@
       </c>
       <c r="Q52" s="365"/>
       <c r="R52" s="364"/>
-      <c r="S52" s="392"/>
-      <c r="T52" s="392"/>
-      <c r="U52" s="392"/>
-      <c r="V52" s="410"/>
-      <c r="W52" s="412"/>
-      <c r="X52" s="405"/>
+      <c r="S52" s="388"/>
+      <c r="T52" s="388"/>
+      <c r="U52" s="388"/>
+      <c r="V52" s="406"/>
+      <c r="W52" s="408"/>
+      <c r="X52" s="401"/>
       <c r="Y52" s="183"/>
       <c r="Z52" s="183"/>
       <c r="AA52" s="183"/>
@@ -12374,13 +12335,13 @@
       <c r="AD52" s="183"/>
     </row>
     <row r="53" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="384"/>
-      <c r="B53" s="416"/>
-      <c r="C53" s="416"/>
-      <c r="D53" s="416"/>
-      <c r="E53" s="386"/>
-      <c r="F53" s="386"/>
-      <c r="G53" s="389"/>
+      <c r="A53" s="382"/>
+      <c r="B53" s="412"/>
+      <c r="C53" s="412"/>
+      <c r="D53" s="412"/>
+      <c r="E53" s="370"/>
+      <c r="F53" s="370"/>
+      <c r="G53" s="373"/>
       <c r="H53" s="210" t="s">
         <v>309</v>
       </c>
@@ -12427,13 +12388,13 @@
       <c r="AD53" s="183"/>
     </row>
     <row r="54" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="384"/>
-      <c r="B54" s="416"/>
-      <c r="C54" s="416"/>
-      <c r="D54" s="416"/>
-      <c r="E54" s="386"/>
-      <c r="F54" s="386"/>
-      <c r="G54" s="389"/>
+      <c r="A54" s="382"/>
+      <c r="B54" s="412"/>
+      <c r="C54" s="412"/>
+      <c r="D54" s="412"/>
+      <c r="E54" s="370"/>
+      <c r="F54" s="370"/>
+      <c r="G54" s="373"/>
       <c r="H54" s="210" t="s">
         <v>309</v>
       </c>
@@ -12480,13 +12441,13 @@
       <c r="AD54" s="183"/>
     </row>
     <row r="55" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="384"/>
-      <c r="B55" s="416"/>
-      <c r="C55" s="416"/>
-      <c r="D55" s="416"/>
-      <c r="E55" s="386"/>
-      <c r="F55" s="386"/>
-      <c r="G55" s="389"/>
+      <c r="A55" s="382"/>
+      <c r="B55" s="412"/>
+      <c r="C55" s="412"/>
+      <c r="D55" s="412"/>
+      <c r="E55" s="370"/>
+      <c r="F55" s="370"/>
+      <c r="G55" s="373"/>
       <c r="H55" s="210" t="s">
         <v>320</v>
       </c>
@@ -12521,10 +12482,10 @@
       </c>
       <c r="S55" s="282"/>
       <c r="T55" s="282"/>
-      <c r="U55" s="390"/>
-      <c r="V55" s="409"/>
-      <c r="W55" s="411"/>
-      <c r="X55" s="405">
+      <c r="U55" s="386"/>
+      <c r="V55" s="405"/>
+      <c r="W55" s="407"/>
+      <c r="X55" s="401">
         <v>43947</v>
       </c>
       <c r="Y55" s="183"/>
@@ -12535,13 +12496,13 @@
       <c r="AD55" s="183"/>
     </row>
     <row r="56" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="384"/>
-      <c r="B56" s="416"/>
-      <c r="C56" s="416"/>
-      <c r="D56" s="416"/>
-      <c r="E56" s="386"/>
-      <c r="F56" s="386"/>
-      <c r="G56" s="389"/>
+      <c r="A56" s="382"/>
+      <c r="B56" s="412"/>
+      <c r="C56" s="412"/>
+      <c r="D56" s="412"/>
+      <c r="E56" s="370"/>
+      <c r="F56" s="370"/>
+      <c r="G56" s="373"/>
       <c r="H56" s="210" t="s">
         <v>325</v>
       </c>
@@ -12574,10 +12535,10 @@
       <c r="R56" s="364"/>
       <c r="S56" s="281"/>
       <c r="T56" s="281"/>
-      <c r="U56" s="392"/>
-      <c r="V56" s="410"/>
-      <c r="W56" s="412"/>
-      <c r="X56" s="405"/>
+      <c r="U56" s="388"/>
+      <c r="V56" s="406"/>
+      <c r="W56" s="408"/>
+      <c r="X56" s="401"/>
       <c r="Y56" s="183"/>
       <c r="Z56" s="183"/>
       <c r="AA56" s="183"/>
@@ -12586,13 +12547,13 @@
       <c r="AD56" s="183"/>
     </row>
     <row r="57" spans="1:30" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="384"/>
-      <c r="B57" s="416"/>
-      <c r="C57" s="416"/>
-      <c r="D57" s="416"/>
-      <c r="E57" s="386"/>
-      <c r="F57" s="386"/>
-      <c r="G57" s="389"/>
+      <c r="A57" s="382"/>
+      <c r="B57" s="412"/>
+      <c r="C57" s="412"/>
+      <c r="D57" s="412"/>
+      <c r="E57" s="370"/>
+      <c r="F57" s="370"/>
+      <c r="G57" s="373"/>
       <c r="H57" s="364" t="s">
         <v>328</v>
       </c>
@@ -12620,21 +12581,21 @@
         <v>3331</v>
       </c>
       <c r="Q57" s="365"/>
-      <c r="R57" s="407" t="s">
+      <c r="R57" s="403" t="s">
         <v>327</v>
       </c>
-      <c r="S57" s="393"/>
-      <c r="T57" s="393"/>
-      <c r="U57" s="407" t="s">
+      <c r="S57" s="389"/>
+      <c r="T57" s="389"/>
+      <c r="U57" s="403" t="s">
         <v>381</v>
       </c>
-      <c r="V57" s="408" t="s">
+      <c r="V57" s="404" t="s">
         <v>382</v>
       </c>
       <c r="W57" s="365" t="s">
         <v>383</v>
       </c>
-      <c r="X57" s="405">
+      <c r="X57" s="401">
         <v>43948</v>
       </c>
       <c r="Y57" s="183"/>
@@ -12645,13 +12606,13 @@
       <c r="AD57" s="183"/>
     </row>
     <row r="58" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="384"/>
-      <c r="B58" s="416"/>
-      <c r="C58" s="416"/>
-      <c r="D58" s="416"/>
-      <c r="E58" s="386"/>
-      <c r="F58" s="386"/>
-      <c r="G58" s="389"/>
+      <c r="A58" s="382"/>
+      <c r="B58" s="412"/>
+      <c r="C58" s="412"/>
+      <c r="D58" s="412"/>
+      <c r="E58" s="370"/>
+      <c r="F58" s="370"/>
+      <c r="G58" s="373"/>
       <c r="H58" s="364"/>
       <c r="I58" s="211">
         <v>2</v>
@@ -12677,13 +12638,13 @@
         <v>3332</v>
       </c>
       <c r="Q58" s="365"/>
-      <c r="R58" s="407"/>
-      <c r="S58" s="401"/>
-      <c r="T58" s="401"/>
-      <c r="U58" s="407"/>
-      <c r="V58" s="408"/>
+      <c r="R58" s="403"/>
+      <c r="S58" s="397"/>
+      <c r="T58" s="397"/>
+      <c r="U58" s="403"/>
+      <c r="V58" s="404"/>
       <c r="W58" s="365"/>
-      <c r="X58" s="405"/>
+      <c r="X58" s="401"/>
       <c r="Y58" s="183"/>
       <c r="Z58" s="183"/>
       <c r="AA58" s="183"/>
@@ -12692,13 +12653,13 @@
       <c r="AD58" s="183"/>
     </row>
     <row r="59" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="384"/>
-      <c r="B59" s="416"/>
-      <c r="C59" s="416"/>
-      <c r="D59" s="416"/>
-      <c r="E59" s="386"/>
-      <c r="F59" s="386"/>
-      <c r="G59" s="389"/>
+      <c r="A59" s="382"/>
+      <c r="B59" s="412"/>
+      <c r="C59" s="412"/>
+      <c r="D59" s="412"/>
+      <c r="E59" s="370"/>
+      <c r="F59" s="370"/>
+      <c r="G59" s="373"/>
       <c r="H59" s="364"/>
       <c r="I59" s="211">
         <v>2</v>
@@ -12724,13 +12685,13 @@
         <v>3333</v>
       </c>
       <c r="Q59" s="365"/>
-      <c r="R59" s="407"/>
-      <c r="S59" s="401"/>
-      <c r="T59" s="401"/>
-      <c r="U59" s="407"/>
-      <c r="V59" s="408"/>
+      <c r="R59" s="403"/>
+      <c r="S59" s="397"/>
+      <c r="T59" s="397"/>
+      <c r="U59" s="403"/>
+      <c r="V59" s="404"/>
       <c r="W59" s="365"/>
-      <c r="X59" s="405"/>
+      <c r="X59" s="401"/>
       <c r="Y59" s="183"/>
       <c r="Z59" s="183"/>
       <c r="AA59" s="183"/>
@@ -12739,13 +12700,13 @@
       <c r="AD59" s="183"/>
     </row>
     <row r="60" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="384"/>
-      <c r="B60" s="416"/>
-      <c r="C60" s="416"/>
-      <c r="D60" s="416"/>
-      <c r="E60" s="386"/>
-      <c r="F60" s="386"/>
-      <c r="G60" s="389"/>
+      <c r="A60" s="382"/>
+      <c r="B60" s="412"/>
+      <c r="C60" s="412"/>
+      <c r="D60" s="412"/>
+      <c r="E60" s="370"/>
+      <c r="F60" s="370"/>
+      <c r="G60" s="373"/>
       <c r="H60" s="364"/>
       <c r="I60" s="211">
         <v>2</v>
@@ -12771,13 +12732,13 @@
         <v>3334</v>
       </c>
       <c r="Q60" s="365"/>
-      <c r="R60" s="407"/>
-      <c r="S60" s="401"/>
-      <c r="T60" s="401"/>
-      <c r="U60" s="407"/>
-      <c r="V60" s="408"/>
+      <c r="R60" s="403"/>
+      <c r="S60" s="397"/>
+      <c r="T60" s="397"/>
+      <c r="U60" s="403"/>
+      <c r="V60" s="404"/>
       <c r="W60" s="365"/>
-      <c r="X60" s="405"/>
+      <c r="X60" s="401"/>
       <c r="Y60" s="183"/>
       <c r="Z60" s="183"/>
       <c r="AA60" s="183"/>
@@ -12786,13 +12747,13 @@
       <c r="AD60" s="183"/>
     </row>
     <row r="61" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="384"/>
-      <c r="B61" s="416"/>
-      <c r="C61" s="416"/>
-      <c r="D61" s="416"/>
-      <c r="E61" s="386"/>
-      <c r="F61" s="386"/>
-      <c r="G61" s="389"/>
+      <c r="A61" s="382"/>
+      <c r="B61" s="412"/>
+      <c r="C61" s="412"/>
+      <c r="D61" s="412"/>
+      <c r="E61" s="370"/>
+      <c r="F61" s="370"/>
+      <c r="G61" s="373"/>
       <c r="H61" s="364"/>
       <c r="I61" s="211">
         <v>2</v>
@@ -12818,13 +12779,13 @@
         <v>3335</v>
       </c>
       <c r="Q61" s="365"/>
-      <c r="R61" s="407"/>
-      <c r="S61" s="401"/>
-      <c r="T61" s="401"/>
-      <c r="U61" s="407"/>
-      <c r="V61" s="408"/>
+      <c r="R61" s="403"/>
+      <c r="S61" s="397"/>
+      <c r="T61" s="397"/>
+      <c r="U61" s="403"/>
+      <c r="V61" s="404"/>
       <c r="W61" s="365"/>
-      <c r="X61" s="405"/>
+      <c r="X61" s="401"/>
       <c r="Y61" s="183"/>
       <c r="Z61" s="183"/>
       <c r="AA61" s="183"/>
@@ -12833,13 +12794,13 @@
       <c r="AD61" s="183"/>
     </row>
     <row r="62" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="384"/>
-      <c r="B62" s="416"/>
-      <c r="C62" s="416"/>
-      <c r="D62" s="416"/>
-      <c r="E62" s="386"/>
-      <c r="F62" s="386"/>
-      <c r="G62" s="389"/>
+      <c r="A62" s="382"/>
+      <c r="B62" s="412"/>
+      <c r="C62" s="412"/>
+      <c r="D62" s="412"/>
+      <c r="E62" s="370"/>
+      <c r="F62" s="370"/>
+      <c r="G62" s="373"/>
       <c r="H62" s="364"/>
       <c r="I62" s="211">
         <v>2</v>
@@ -12865,13 +12826,13 @@
         <v>3336</v>
       </c>
       <c r="Q62" s="365"/>
-      <c r="R62" s="407"/>
-      <c r="S62" s="401"/>
-      <c r="T62" s="401"/>
-      <c r="U62" s="407"/>
-      <c r="V62" s="408"/>
+      <c r="R62" s="403"/>
+      <c r="S62" s="397"/>
+      <c r="T62" s="397"/>
+      <c r="U62" s="403"/>
+      <c r="V62" s="404"/>
       <c r="W62" s="365"/>
-      <c r="X62" s="405"/>
+      <c r="X62" s="401"/>
       <c r="Y62" s="183"/>
       <c r="Z62" s="183"/>
       <c r="AA62" s="183"/>
@@ -12880,13 +12841,13 @@
       <c r="AD62" s="183"/>
     </row>
     <row r="63" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="384"/>
-      <c r="B63" s="416"/>
-      <c r="C63" s="416"/>
-      <c r="D63" s="416"/>
-      <c r="E63" s="386"/>
-      <c r="F63" s="386"/>
-      <c r="G63" s="389"/>
+      <c r="A63" s="382"/>
+      <c r="B63" s="412"/>
+      <c r="C63" s="412"/>
+      <c r="D63" s="412"/>
+      <c r="E63" s="370"/>
+      <c r="F63" s="370"/>
+      <c r="G63" s="373"/>
       <c r="H63" s="364"/>
       <c r="I63" s="211">
         <v>2</v>
@@ -12912,13 +12873,13 @@
         <v>3337</v>
       </c>
       <c r="Q63" s="365"/>
-      <c r="R63" s="407"/>
-      <c r="S63" s="401"/>
-      <c r="T63" s="401"/>
-      <c r="U63" s="407"/>
-      <c r="V63" s="408"/>
+      <c r="R63" s="403"/>
+      <c r="S63" s="397"/>
+      <c r="T63" s="397"/>
+      <c r="U63" s="403"/>
+      <c r="V63" s="404"/>
       <c r="W63" s="365"/>
-      <c r="X63" s="405"/>
+      <c r="X63" s="401"/>
       <c r="Y63" s="183"/>
       <c r="Z63" s="183"/>
       <c r="AA63" s="183"/>
@@ -12927,13 +12888,13 @@
       <c r="AD63" s="183"/>
     </row>
     <row r="64" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="384"/>
-      <c r="B64" s="416"/>
-      <c r="C64" s="416"/>
-      <c r="D64" s="416"/>
-      <c r="E64" s="386"/>
-      <c r="F64" s="386"/>
-      <c r="G64" s="389"/>
+      <c r="A64" s="382"/>
+      <c r="B64" s="412"/>
+      <c r="C64" s="412"/>
+      <c r="D64" s="412"/>
+      <c r="E64" s="370"/>
+      <c r="F64" s="370"/>
+      <c r="G64" s="373"/>
       <c r="H64" s="364"/>
       <c r="I64" s="211">
         <v>2</v>
@@ -12959,13 +12920,13 @@
         <v>3338</v>
       </c>
       <c r="Q64" s="365"/>
-      <c r="R64" s="407"/>
-      <c r="S64" s="401"/>
-      <c r="T64" s="401"/>
-      <c r="U64" s="407"/>
-      <c r="V64" s="408"/>
+      <c r="R64" s="403"/>
+      <c r="S64" s="397"/>
+      <c r="T64" s="397"/>
+      <c r="U64" s="403"/>
+      <c r="V64" s="404"/>
       <c r="W64" s="365"/>
-      <c r="X64" s="405"/>
+      <c r="X64" s="401"/>
       <c r="Y64" s="183"/>
       <c r="Z64" s="183"/>
       <c r="AA64" s="183"/>
@@ -12974,13 +12935,13 @@
       <c r="AD64" s="183"/>
     </row>
     <row r="65" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="384"/>
-      <c r="B65" s="416"/>
-      <c r="C65" s="416"/>
-      <c r="D65" s="416"/>
-      <c r="E65" s="386"/>
-      <c r="F65" s="386"/>
-      <c r="G65" s="389"/>
+      <c r="A65" s="382"/>
+      <c r="B65" s="412"/>
+      <c r="C65" s="412"/>
+      <c r="D65" s="412"/>
+      <c r="E65" s="370"/>
+      <c r="F65" s="370"/>
+      <c r="G65" s="373"/>
       <c r="H65" s="364"/>
       <c r="I65" s="211">
         <v>2</v>
@@ -13006,13 +12967,13 @@
         <v>3339</v>
       </c>
       <c r="Q65" s="365"/>
-      <c r="R65" s="407"/>
-      <c r="S65" s="401"/>
-      <c r="T65" s="401"/>
-      <c r="U65" s="407"/>
-      <c r="V65" s="408"/>
+      <c r="R65" s="403"/>
+      <c r="S65" s="397"/>
+      <c r="T65" s="397"/>
+      <c r="U65" s="403"/>
+      <c r="V65" s="404"/>
       <c r="W65" s="365"/>
-      <c r="X65" s="405"/>
+      <c r="X65" s="401"/>
       <c r="Y65" s="183"/>
       <c r="Z65" s="183"/>
       <c r="AA65" s="183"/>
@@ -13021,13 +12982,13 @@
       <c r="AD65" s="183"/>
     </row>
     <row r="66" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="384"/>
-      <c r="B66" s="416"/>
-      <c r="C66" s="416"/>
-      <c r="D66" s="416"/>
-      <c r="E66" s="386"/>
-      <c r="F66" s="386"/>
-      <c r="G66" s="389"/>
+      <c r="A66" s="382"/>
+      <c r="B66" s="412"/>
+      <c r="C66" s="412"/>
+      <c r="D66" s="412"/>
+      <c r="E66" s="370"/>
+      <c r="F66" s="370"/>
+      <c r="G66" s="373"/>
       <c r="H66" s="364"/>
       <c r="I66" s="211">
         <v>2</v>
@@ -13053,13 +13014,13 @@
         <v>3340</v>
       </c>
       <c r="Q66" s="365"/>
-      <c r="R66" s="407"/>
-      <c r="S66" s="394"/>
-      <c r="T66" s="394"/>
-      <c r="U66" s="407"/>
-      <c r="V66" s="408"/>
+      <c r="R66" s="403"/>
+      <c r="S66" s="390"/>
+      <c r="T66" s="390"/>
+      <c r="U66" s="403"/>
+      <c r="V66" s="404"/>
       <c r="W66" s="365"/>
-      <c r="X66" s="405"/>
+      <c r="X66" s="401"/>
       <c r="Y66" s="183"/>
       <c r="Z66" s="183"/>
       <c r="AA66" s="183"/>
@@ -13068,13 +13029,13 @@
       <c r="AD66" s="183"/>
     </row>
     <row r="67" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="384"/>
-      <c r="B67" s="416"/>
-      <c r="C67" s="416"/>
-      <c r="D67" s="416"/>
-      <c r="E67" s="386"/>
-      <c r="F67" s="386"/>
-      <c r="G67" s="389"/>
+      <c r="A67" s="382"/>
+      <c r="B67" s="412"/>
+      <c r="C67" s="412"/>
+      <c r="D67" s="412"/>
+      <c r="E67" s="370"/>
+      <c r="F67" s="370"/>
+      <c r="G67" s="373"/>
       <c r="H67" s="210" t="s">
         <v>356</v>
       </c>
@@ -13102,21 +13063,21 @@
         <v>3342</v>
       </c>
       <c r="Q67" s="365"/>
-      <c r="R67" s="407" t="s">
+      <c r="R67" s="403" t="s">
         <v>353</v>
       </c>
-      <c r="S67" s="393"/>
-      <c r="T67" s="393"/>
-      <c r="U67" s="407" t="s">
+      <c r="S67" s="389"/>
+      <c r="T67" s="389"/>
+      <c r="U67" s="403" t="s">
         <v>355</v>
       </c>
-      <c r="V67" s="408" t="s">
+      <c r="V67" s="404" t="s">
         <v>367</v>
       </c>
       <c r="W67" s="365" t="s">
         <v>379</v>
       </c>
-      <c r="X67" s="405">
+      <c r="X67" s="401">
         <v>43962</v>
       </c>
       <c r="Y67" s="183"/>
@@ -13127,13 +13088,13 @@
       <c r="AD67" s="183"/>
     </row>
     <row r="68" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="384"/>
-      <c r="B68" s="416"/>
-      <c r="C68" s="416"/>
-      <c r="D68" s="416"/>
-      <c r="E68" s="386"/>
-      <c r="F68" s="386"/>
-      <c r="G68" s="389"/>
+      <c r="A68" s="382"/>
+      <c r="B68" s="412"/>
+      <c r="C68" s="412"/>
+      <c r="D68" s="412"/>
+      <c r="E68" s="370"/>
+      <c r="F68" s="370"/>
+      <c r="G68" s="373"/>
       <c r="H68" s="210" t="s">
         <v>5</v>
       </c>
@@ -13161,13 +13122,13 @@
         <v>3343</v>
       </c>
       <c r="Q68" s="365"/>
-      <c r="R68" s="407"/>
-      <c r="S68" s="394"/>
-      <c r="T68" s="394"/>
-      <c r="U68" s="407"/>
-      <c r="V68" s="408"/>
+      <c r="R68" s="403"/>
+      <c r="S68" s="390"/>
+      <c r="T68" s="390"/>
+      <c r="U68" s="403"/>
+      <c r="V68" s="404"/>
       <c r="W68" s="365"/>
-      <c r="X68" s="405"/>
+      <c r="X68" s="401"/>
       <c r="Y68" s="183"/>
       <c r="Z68" s="183"/>
       <c r="AA68" s="183"/>
@@ -13176,13 +13137,13 @@
       <c r="AD68" s="183"/>
     </row>
     <row r="69" spans="1:30" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="384"/>
-      <c r="B69" s="416"/>
-      <c r="C69" s="416"/>
-      <c r="D69" s="416"/>
-      <c r="E69" s="386"/>
-      <c r="F69" s="386"/>
-      <c r="G69" s="389"/>
+      <c r="A69" s="382"/>
+      <c r="B69" s="412"/>
+      <c r="C69" s="412"/>
+      <c r="D69" s="412"/>
+      <c r="E69" s="370"/>
+      <c r="F69" s="370"/>
+      <c r="G69" s="373"/>
       <c r="H69" s="210" t="s">
         <v>371</v>
       </c>
@@ -13210,21 +13171,21 @@
         <v>3346</v>
       </c>
       <c r="Q69" s="365"/>
-      <c r="R69" s="407" t="s">
+      <c r="R69" s="403" t="s">
         <v>423</v>
       </c>
-      <c r="S69" s="393"/>
-      <c r="T69" s="393"/>
-      <c r="U69" s="407" t="s">
+      <c r="S69" s="389"/>
+      <c r="T69" s="389"/>
+      <c r="U69" s="403" t="s">
         <v>375</v>
       </c>
-      <c r="V69" s="408" t="s">
+      <c r="V69" s="404" t="s">
         <v>376</v>
       </c>
       <c r="W69" s="365" t="s">
         <v>377</v>
       </c>
-      <c r="X69" s="405">
+      <c r="X69" s="401">
         <v>43963</v>
       </c>
       <c r="Y69" s="183"/>
@@ -13235,13 +13196,13 @@
       <c r="AD69" s="183"/>
     </row>
     <row r="70" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="384"/>
-      <c r="B70" s="416"/>
-      <c r="C70" s="416"/>
-      <c r="D70" s="416"/>
-      <c r="E70" s="386"/>
-      <c r="F70" s="386"/>
-      <c r="G70" s="389"/>
+      <c r="A70" s="382"/>
+      <c r="B70" s="412"/>
+      <c r="C70" s="412"/>
+      <c r="D70" s="412"/>
+      <c r="E70" s="370"/>
+      <c r="F70" s="370"/>
+      <c r="G70" s="373"/>
       <c r="H70" s="210" t="s">
         <v>47</v>
       </c>
@@ -13269,13 +13230,13 @@
         <v>3347</v>
       </c>
       <c r="Q70" s="365"/>
-      <c r="R70" s="407"/>
-      <c r="S70" s="394"/>
-      <c r="T70" s="394"/>
-      <c r="U70" s="407"/>
-      <c r="V70" s="408"/>
+      <c r="R70" s="403"/>
+      <c r="S70" s="390"/>
+      <c r="T70" s="390"/>
+      <c r="U70" s="403"/>
+      <c r="V70" s="404"/>
       <c r="W70" s="365"/>
-      <c r="X70" s="405"/>
+      <c r="X70" s="401"/>
       <c r="Y70" s="183"/>
       <c r="Z70" s="183"/>
       <c r="AA70" s="183"/>
@@ -13284,13 +13245,13 @@
       <c r="AD70" s="183"/>
     </row>
     <row r="71" spans="1:30" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="384"/>
-      <c r="B71" s="416"/>
-      <c r="C71" s="416"/>
-      <c r="D71" s="416"/>
-      <c r="E71" s="386"/>
-      <c r="F71" s="386"/>
-      <c r="G71" s="389"/>
+      <c r="A71" s="382"/>
+      <c r="B71" s="412"/>
+      <c r="C71" s="412"/>
+      <c r="D71" s="412"/>
+      <c r="E71" s="370"/>
+      <c r="F71" s="370"/>
+      <c r="G71" s="373"/>
       <c r="H71" s="210" t="s">
         <v>397</v>
       </c>
@@ -13318,21 +13279,21 @@
         <v>3354</v>
       </c>
       <c r="Q71" s="365"/>
-      <c r="R71" s="407" t="s">
+      <c r="R71" s="403" t="s">
         <v>398</v>
       </c>
-      <c r="S71" s="393"/>
-      <c r="T71" s="393"/>
-      <c r="U71" s="407" t="s">
+      <c r="S71" s="389"/>
+      <c r="T71" s="389"/>
+      <c r="U71" s="403" t="s">
         <v>401</v>
       </c>
-      <c r="V71" s="408" t="s">
+      <c r="V71" s="404" t="s">
         <v>402</v>
       </c>
-      <c r="W71" s="406" t="s">
+      <c r="W71" s="402" t="s">
         <v>403</v>
       </c>
-      <c r="X71" s="405">
+      <c r="X71" s="401">
         <v>43966</v>
       </c>
       <c r="Y71" s="183"/>
@@ -13343,13 +13304,13 @@
       <c r="AD71" s="183"/>
     </row>
     <row r="72" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="384"/>
-      <c r="B72" s="416"/>
-      <c r="C72" s="416"/>
-      <c r="D72" s="416"/>
-      <c r="E72" s="386"/>
-      <c r="F72" s="386"/>
-      <c r="G72" s="389"/>
+      <c r="A72" s="382"/>
+      <c r="B72" s="412"/>
+      <c r="C72" s="412"/>
+      <c r="D72" s="412"/>
+      <c r="E72" s="370"/>
+      <c r="F72" s="370"/>
+      <c r="G72" s="373"/>
       <c r="H72" s="210" t="s">
         <v>97</v>
       </c>
@@ -13377,13 +13338,13 @@
         <v>3355</v>
       </c>
       <c r="Q72" s="365"/>
-      <c r="R72" s="407"/>
-      <c r="S72" s="394"/>
-      <c r="T72" s="394"/>
-      <c r="U72" s="407"/>
-      <c r="V72" s="408"/>
-      <c r="W72" s="406"/>
-      <c r="X72" s="405"/>
+      <c r="R72" s="403"/>
+      <c r="S72" s="390"/>
+      <c r="T72" s="390"/>
+      <c r="U72" s="403"/>
+      <c r="V72" s="404"/>
+      <c r="W72" s="402"/>
+      <c r="X72" s="401"/>
       <c r="Y72" s="183"/>
       <c r="Z72" s="183"/>
       <c r="AA72" s="183"/>
@@ -13392,13 +13353,13 @@
       <c r="AD72" s="183"/>
     </row>
     <row r="73" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="384"/>
-      <c r="B73" s="416"/>
-      <c r="C73" s="416"/>
-      <c r="D73" s="416"/>
-      <c r="E73" s="386"/>
-      <c r="F73" s="386"/>
-      <c r="G73" s="389"/>
+      <c r="A73" s="382"/>
+      <c r="B73" s="412"/>
+      <c r="C73" s="412"/>
+      <c r="D73" s="412"/>
+      <c r="E73" s="370"/>
+      <c r="F73" s="370"/>
+      <c r="G73" s="373"/>
       <c r="H73" s="210" t="s">
         <v>407</v>
       </c>
@@ -13426,21 +13387,21 @@
         <v>3356</v>
       </c>
       <c r="Q73" s="365"/>
-      <c r="R73" s="407" t="s">
+      <c r="R73" s="403" t="s">
         <v>408</v>
       </c>
-      <c r="S73" s="393"/>
-      <c r="T73" s="393"/>
-      <c r="U73" s="407" t="s">
+      <c r="S73" s="389"/>
+      <c r="T73" s="389"/>
+      <c r="U73" s="403" t="s">
         <v>409</v>
       </c>
-      <c r="V73" s="408" t="s">
+      <c r="V73" s="404" t="s">
         <v>410</v>
       </c>
-      <c r="W73" s="406" t="s">
+      <c r="W73" s="402" t="s">
         <v>411</v>
       </c>
-      <c r="X73" s="405">
+      <c r="X73" s="401">
         <v>43978</v>
       </c>
       <c r="Y73" s="183"/>
@@ -13451,13 +13412,13 @@
       <c r="AD73" s="183"/>
     </row>
     <row r="74" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="384"/>
-      <c r="B74" s="416"/>
-      <c r="C74" s="416"/>
-      <c r="D74" s="416"/>
-      <c r="E74" s="386"/>
-      <c r="F74" s="386"/>
-      <c r="G74" s="389"/>
+      <c r="A74" s="382"/>
+      <c r="B74" s="412"/>
+      <c r="C74" s="412"/>
+      <c r="D74" s="412"/>
+      <c r="E74" s="370"/>
+      <c r="F74" s="370"/>
+      <c r="G74" s="373"/>
       <c r="H74" s="210" t="s">
         <v>97</v>
       </c>
@@ -13485,13 +13446,13 @@
         <v>3357</v>
       </c>
       <c r="Q74" s="365"/>
-      <c r="R74" s="407"/>
-      <c r="S74" s="394"/>
-      <c r="T74" s="394"/>
-      <c r="U74" s="407"/>
-      <c r="V74" s="408"/>
-      <c r="W74" s="406"/>
-      <c r="X74" s="405"/>
+      <c r="R74" s="403"/>
+      <c r="S74" s="390"/>
+      <c r="T74" s="390"/>
+      <c r="U74" s="403"/>
+      <c r="V74" s="404"/>
+      <c r="W74" s="402"/>
+      <c r="X74" s="401"/>
       <c r="Y74" s="183"/>
       <c r="Z74" s="183"/>
       <c r="AA74" s="183"/>
@@ -13500,13 +13461,13 @@
       <c r="AD74" s="183"/>
     </row>
     <row r="75" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="384"/>
-      <c r="B75" s="416"/>
-      <c r="C75" s="416"/>
-      <c r="D75" s="416"/>
-      <c r="E75" s="386"/>
-      <c r="F75" s="386"/>
-      <c r="G75" s="389"/>
+      <c r="A75" s="382"/>
+      <c r="B75" s="412"/>
+      <c r="C75" s="412"/>
+      <c r="D75" s="412"/>
+      <c r="E75" s="370"/>
+      <c r="F75" s="370"/>
+      <c r="G75" s="373"/>
       <c r="H75" s="221" t="s">
         <v>426</v>
       </c>
@@ -13534,21 +13495,21 @@
         <v>3361</v>
       </c>
       <c r="Q75" s="365"/>
-      <c r="R75" s="393" t="s">
+      <c r="R75" s="389" t="s">
         <v>422</v>
       </c>
       <c r="S75" s="278"/>
       <c r="T75" s="278"/>
-      <c r="U75" s="393" t="s">
+      <c r="U75" s="389" t="s">
         <v>416</v>
       </c>
-      <c r="V75" s="395" t="s">
+      <c r="V75" s="391" t="s">
         <v>417</v>
       </c>
-      <c r="W75" s="397" t="s">
+      <c r="W75" s="393" t="s">
         <v>418</v>
       </c>
-      <c r="X75" s="399">
+      <c r="X75" s="395">
         <v>43978</v>
       </c>
       <c r="Y75" s="183"/>
@@ -13559,13 +13520,13 @@
       <c r="AD75" s="183"/>
     </row>
     <row r="76" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="384"/>
-      <c r="B76" s="416"/>
-      <c r="C76" s="416"/>
-      <c r="D76" s="416"/>
-      <c r="E76" s="386"/>
-      <c r="F76" s="386"/>
-      <c r="G76" s="389"/>
+      <c r="A76" s="382"/>
+      <c r="B76" s="412"/>
+      <c r="C76" s="412"/>
+      <c r="D76" s="412"/>
+      <c r="E76" s="370"/>
+      <c r="F76" s="370"/>
+      <c r="G76" s="373"/>
       <c r="H76" s="221" t="s">
         <v>427</v>
       </c>
@@ -13593,13 +13554,13 @@
         <v>3362</v>
       </c>
       <c r="Q76" s="365"/>
-      <c r="R76" s="401"/>
+      <c r="R76" s="397"/>
       <c r="S76" s="279"/>
       <c r="T76" s="279"/>
-      <c r="U76" s="401"/>
-      <c r="V76" s="402"/>
-      <c r="W76" s="403"/>
-      <c r="X76" s="404"/>
+      <c r="U76" s="397"/>
+      <c r="V76" s="398"/>
+      <c r="W76" s="399"/>
+      <c r="X76" s="400"/>
       <c r="Y76" s="183"/>
       <c r="Z76" s="183"/>
       <c r="AA76" s="183"/>
@@ -13608,13 +13569,13 @@
       <c r="AD76" s="183"/>
     </row>
     <row r="77" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="384"/>
-      <c r="B77" s="416"/>
-      <c r="C77" s="416"/>
-      <c r="D77" s="416"/>
-      <c r="E77" s="386"/>
-      <c r="F77" s="386"/>
-      <c r="G77" s="389"/>
+      <c r="A77" s="382"/>
+      <c r="B77" s="412"/>
+      <c r="C77" s="412"/>
+      <c r="D77" s="412"/>
+      <c r="E77" s="370"/>
+      <c r="F77" s="370"/>
+      <c r="G77" s="373"/>
       <c r="H77" s="221" t="s">
         <v>429</v>
       </c>
@@ -13642,13 +13603,13 @@
         <v>3363</v>
       </c>
       <c r="Q77" s="365"/>
-      <c r="R77" s="394"/>
+      <c r="R77" s="390"/>
       <c r="S77" s="280"/>
       <c r="T77" s="280"/>
-      <c r="U77" s="394"/>
-      <c r="V77" s="396"/>
-      <c r="W77" s="398"/>
-      <c r="X77" s="400"/>
+      <c r="U77" s="390"/>
+      <c r="V77" s="392"/>
+      <c r="W77" s="394"/>
+      <c r="X77" s="396"/>
       <c r="Y77" s="183"/>
       <c r="Z77" s="183"/>
       <c r="AA77" s="183"/>
@@ -13657,13 +13618,13 @@
       <c r="AD77" s="183"/>
     </row>
     <row r="78" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="384"/>
-      <c r="B78" s="416"/>
-      <c r="C78" s="416"/>
-      <c r="D78" s="416"/>
-      <c r="E78" s="386"/>
-      <c r="F78" s="386"/>
-      <c r="G78" s="389"/>
+      <c r="A78" s="382"/>
+      <c r="B78" s="412"/>
+      <c r="C78" s="412"/>
+      <c r="D78" s="412"/>
+      <c r="E78" s="370"/>
+      <c r="F78" s="370"/>
+      <c r="G78" s="373"/>
       <c r="H78" s="226" t="s">
         <v>433</v>
       </c>
@@ -13691,21 +13652,21 @@
         <v>3367</v>
       </c>
       <c r="Q78" s="365"/>
-      <c r="R78" s="393" t="s">
+      <c r="R78" s="389" t="s">
         <v>444</v>
       </c>
       <c r="S78" s="278"/>
       <c r="T78" s="278"/>
-      <c r="U78" s="393" t="s">
+      <c r="U78" s="389" t="s">
         <v>445</v>
       </c>
-      <c r="V78" s="395" t="s">
+      <c r="V78" s="391" t="s">
         <v>446</v>
       </c>
-      <c r="W78" s="397" t="s">
+      <c r="W78" s="393" t="s">
         <v>447</v>
       </c>
-      <c r="X78" s="399">
+      <c r="X78" s="395">
         <v>43984</v>
       </c>
       <c r="Y78" s="183"/>
@@ -13716,13 +13677,13 @@
       <c r="AD78" s="183"/>
     </row>
     <row r="79" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="384"/>
-      <c r="B79" s="416"/>
-      <c r="C79" s="416"/>
-      <c r="D79" s="416"/>
-      <c r="E79" s="386"/>
-      <c r="F79" s="386"/>
-      <c r="G79" s="389"/>
+      <c r="A79" s="382"/>
+      <c r="B79" s="412"/>
+      <c r="C79" s="412"/>
+      <c r="D79" s="412"/>
+      <c r="E79" s="370"/>
+      <c r="F79" s="370"/>
+      <c r="G79" s="373"/>
       <c r="H79" s="226" t="s">
         <v>434</v>
       </c>
@@ -13750,13 +13711,13 @@
         <v>3368</v>
       </c>
       <c r="Q79" s="365"/>
-      <c r="R79" s="401"/>
+      <c r="R79" s="397"/>
       <c r="S79" s="279"/>
       <c r="T79" s="279"/>
-      <c r="U79" s="401"/>
-      <c r="V79" s="402"/>
-      <c r="W79" s="403"/>
-      <c r="X79" s="404"/>
+      <c r="U79" s="397"/>
+      <c r="V79" s="398"/>
+      <c r="W79" s="399"/>
+      <c r="X79" s="400"/>
       <c r="Y79" s="183"/>
       <c r="Z79" s="183"/>
       <c r="AA79" s="183"/>
@@ -13765,13 +13726,13 @@
       <c r="AD79" s="183"/>
     </row>
     <row r="80" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="384"/>
-      <c r="B80" s="416"/>
-      <c r="C80" s="416"/>
-      <c r="D80" s="416"/>
-      <c r="E80" s="386"/>
-      <c r="F80" s="386"/>
-      <c r="G80" s="389"/>
+      <c r="A80" s="382"/>
+      <c r="B80" s="412"/>
+      <c r="C80" s="412"/>
+      <c r="D80" s="412"/>
+      <c r="E80" s="370"/>
+      <c r="F80" s="370"/>
+      <c r="G80" s="373"/>
       <c r="H80" s="226" t="s">
         <v>435</v>
       </c>
@@ -13799,13 +13760,13 @@
         <v>3369</v>
       </c>
       <c r="Q80" s="365"/>
-      <c r="R80" s="394"/>
+      <c r="R80" s="390"/>
       <c r="S80" s="280"/>
       <c r="T80" s="280"/>
-      <c r="U80" s="394"/>
-      <c r="V80" s="396"/>
-      <c r="W80" s="398"/>
-      <c r="X80" s="400"/>
+      <c r="U80" s="390"/>
+      <c r="V80" s="392"/>
+      <c r="W80" s="394"/>
+      <c r="X80" s="396"/>
       <c r="Y80" s="183"/>
       <c r="Z80" s="183"/>
       <c r="AA80" s="183"/>
@@ -13814,13 +13775,13 @@
       <c r="AD80" s="183"/>
     </row>
     <row r="81" spans="1:30" s="7" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="384"/>
-      <c r="B81" s="416"/>
-      <c r="C81" s="416"/>
-      <c r="D81" s="416"/>
-      <c r="E81" s="386"/>
-      <c r="F81" s="386"/>
-      <c r="G81" s="389"/>
+      <c r="A81" s="382"/>
+      <c r="B81" s="412"/>
+      <c r="C81" s="412"/>
+      <c r="D81" s="412"/>
+      <c r="E81" s="370"/>
+      <c r="F81" s="370"/>
+      <c r="G81" s="373"/>
       <c r="H81" s="246" t="s">
         <v>480</v>
       </c>
@@ -13848,21 +13809,21 @@
         <v>3374</v>
       </c>
       <c r="Q81" s="365"/>
-      <c r="R81" s="393" t="s">
+      <c r="R81" s="389" t="s">
         <v>606</v>
       </c>
       <c r="S81" s="278"/>
       <c r="T81" s="278"/>
-      <c r="U81" s="393" t="s">
+      <c r="U81" s="389" t="s">
         <v>474</v>
       </c>
-      <c r="V81" s="395" t="s">
+      <c r="V81" s="391" t="s">
         <v>476</v>
       </c>
-      <c r="W81" s="397" t="s">
+      <c r="W81" s="393" t="s">
         <v>477</v>
       </c>
-      <c r="X81" s="399">
+      <c r="X81" s="395">
         <v>43990</v>
       </c>
       <c r="Y81" s="183"/>
@@ -13873,13 +13834,13 @@
       <c r="AD81" s="183"/>
     </row>
     <row r="82" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="384"/>
-      <c r="B82" s="416"/>
-      <c r="C82" s="416"/>
-      <c r="D82" s="416"/>
-      <c r="E82" s="386"/>
-      <c r="F82" s="386"/>
-      <c r="G82" s="389"/>
+      <c r="A82" s="382"/>
+      <c r="B82" s="412"/>
+      <c r="C82" s="412"/>
+      <c r="D82" s="412"/>
+      <c r="E82" s="370"/>
+      <c r="F82" s="370"/>
+      <c r="G82" s="373"/>
       <c r="H82" s="246" t="s">
         <v>481</v>
       </c>
@@ -13907,13 +13868,13 @@
         <v>3375</v>
       </c>
       <c r="Q82" s="365"/>
-      <c r="R82" s="394"/>
+      <c r="R82" s="390"/>
       <c r="S82" s="280"/>
       <c r="T82" s="280"/>
-      <c r="U82" s="394"/>
-      <c r="V82" s="396"/>
-      <c r="W82" s="398"/>
-      <c r="X82" s="400"/>
+      <c r="U82" s="390"/>
+      <c r="V82" s="392"/>
+      <c r="W82" s="394"/>
+      <c r="X82" s="396"/>
       <c r="Y82" s="183"/>
       <c r="Z82" s="183"/>
       <c r="AA82" s="183"/>
@@ -13922,13 +13883,13 @@
       <c r="AD82" s="183"/>
     </row>
     <row r="83" spans="1:30" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="384"/>
-      <c r="B83" s="416"/>
-      <c r="C83" s="416"/>
-      <c r="D83" s="416"/>
-      <c r="E83" s="386"/>
-      <c r="F83" s="386"/>
-      <c r="G83" s="389"/>
+      <c r="A83" s="382"/>
+      <c r="B83" s="412"/>
+      <c r="C83" s="412"/>
+      <c r="D83" s="412"/>
+      <c r="E83" s="370"/>
+      <c r="F83" s="370"/>
+      <c r="G83" s="373"/>
       <c r="H83" s="251" t="s">
         <v>480</v>
       </c>
@@ -13985,13 +13946,13 @@
       <c r="AD83" s="183"/>
     </row>
     <row r="84" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="384"/>
-      <c r="B84" s="416"/>
-      <c r="C84" s="416"/>
-      <c r="D84" s="416"/>
-      <c r="E84" s="386"/>
-      <c r="F84" s="386"/>
-      <c r="G84" s="389"/>
+      <c r="A84" s="382"/>
+      <c r="B84" s="412"/>
+      <c r="C84" s="412"/>
+      <c r="D84" s="412"/>
+      <c r="E84" s="370"/>
+      <c r="F84" s="370"/>
+      <c r="G84" s="373"/>
       <c r="H84" s="264" t="s">
         <v>542</v>
       </c>
@@ -14021,25 +13982,25 @@
         <v>3377</v>
       </c>
       <c r="Q84" s="365"/>
-      <c r="R84" s="393" t="s">
+      <c r="R84" s="389" t="s">
         <v>605</v>
       </c>
-      <c r="S84" s="393" t="s">
+      <c r="S84" s="389" t="s">
         <v>519</v>
       </c>
-      <c r="T84" s="393" t="s">
+      <c r="T84" s="389" t="s">
         <v>518</v>
       </c>
-      <c r="U84" s="393" t="s">
+      <c r="U84" s="389" t="s">
         <v>493</v>
       </c>
-      <c r="V84" s="395" t="s">
+      <c r="V84" s="391" t="s">
         <v>494</v>
       </c>
-      <c r="W84" s="397" t="s">
+      <c r="W84" s="393" t="s">
         <v>495</v>
       </c>
-      <c r="X84" s="399">
+      <c r="X84" s="395">
         <v>43998</v>
       </c>
       <c r="Y84" s="183"/>
@@ -14050,13 +14011,13 @@
       <c r="AD84" s="183"/>
     </row>
     <row r="85" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="384"/>
-      <c r="B85" s="416"/>
-      <c r="C85" s="416"/>
-      <c r="D85" s="416"/>
-      <c r="E85" s="386"/>
-      <c r="F85" s="386"/>
-      <c r="G85" s="389"/>
+      <c r="A85" s="382"/>
+      <c r="B85" s="412"/>
+      <c r="C85" s="412"/>
+      <c r="D85" s="412"/>
+      <c r="E85" s="370"/>
+      <c r="F85" s="370"/>
+      <c r="G85" s="373"/>
       <c r="H85" s="264" t="s">
         <v>543</v>
       </c>
@@ -14086,13 +14047,13 @@
         <v>3378</v>
       </c>
       <c r="Q85" s="365"/>
-      <c r="R85" s="394"/>
-      <c r="S85" s="394"/>
-      <c r="T85" s="394"/>
-      <c r="U85" s="394"/>
-      <c r="V85" s="396"/>
-      <c r="W85" s="398"/>
-      <c r="X85" s="400"/>
+      <c r="R85" s="390"/>
+      <c r="S85" s="390"/>
+      <c r="T85" s="390"/>
+      <c r="U85" s="390"/>
+      <c r="V85" s="392"/>
+      <c r="W85" s="394"/>
+      <c r="X85" s="396"/>
       <c r="Y85" s="183"/>
       <c r="Z85" s="183"/>
       <c r="AA85" s="183"/>
@@ -14101,13 +14062,13 @@
       <c r="AD85" s="183"/>
     </row>
     <row r="86" spans="1:30" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="384"/>
-      <c r="B86" s="416"/>
-      <c r="C86" s="416"/>
-      <c r="D86" s="416"/>
-      <c r="E86" s="386"/>
-      <c r="F86" s="386"/>
-      <c r="G86" s="389"/>
+      <c r="A86" s="382"/>
+      <c r="B86" s="412"/>
+      <c r="C86" s="412"/>
+      <c r="D86" s="412"/>
+      <c r="E86" s="370"/>
+      <c r="F86" s="370"/>
+      <c r="G86" s="373"/>
       <c r="H86" s="288" t="s">
         <v>542</v>
       </c>
@@ -14164,13 +14125,13 @@
       <c r="AD86" s="183"/>
     </row>
     <row r="87" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="384"/>
-      <c r="B87" s="416"/>
-      <c r="C87" s="416"/>
-      <c r="D87" s="416"/>
-      <c r="E87" s="386"/>
-      <c r="F87" s="386"/>
-      <c r="G87" s="389"/>
+      <c r="A87" s="382"/>
+      <c r="B87" s="412"/>
+      <c r="C87" s="412"/>
+      <c r="D87" s="412"/>
+      <c r="E87" s="370"/>
+      <c r="F87" s="370"/>
+      <c r="G87" s="373"/>
       <c r="H87" s="294" t="s">
         <v>551</v>
       </c>
@@ -14200,25 +14161,25 @@
         <v>3383</v>
       </c>
       <c r="Q87" s="365"/>
-      <c r="R87" s="393" t="s">
+      <c r="R87" s="389" t="s">
         <v>604</v>
       </c>
-      <c r="S87" s="393" t="s">
+      <c r="S87" s="389" t="s">
         <v>548</v>
       </c>
-      <c r="T87" s="393" t="s">
+      <c r="T87" s="389" t="s">
         <v>549</v>
       </c>
-      <c r="U87" s="393" t="s">
+      <c r="U87" s="389" t="s">
         <v>556</v>
       </c>
-      <c r="V87" s="395" t="s">
+      <c r="V87" s="391" t="s">
         <v>557</v>
       </c>
-      <c r="W87" s="397" t="s">
+      <c r="W87" s="393" t="s">
         <v>558</v>
       </c>
-      <c r="X87" s="399">
+      <c r="X87" s="395">
         <v>44034</v>
       </c>
       <c r="Y87" s="183"/>
@@ -14229,13 +14190,13 @@
       <c r="AD87" s="183"/>
     </row>
     <row r="88" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="384"/>
-      <c r="B88" s="416"/>
-      <c r="C88" s="416"/>
-      <c r="D88" s="416"/>
-      <c r="E88" s="386"/>
-      <c r="F88" s="386"/>
-      <c r="G88" s="389"/>
+      <c r="A88" s="382"/>
+      <c r="B88" s="412"/>
+      <c r="C88" s="412"/>
+      <c r="D88" s="412"/>
+      <c r="E88" s="370"/>
+      <c r="F88" s="370"/>
+      <c r="G88" s="373"/>
       <c r="H88" s="294" t="s">
         <v>552</v>
       </c>
@@ -14265,13 +14226,13 @@
         <v>3384</v>
       </c>
       <c r="Q88" s="365"/>
-      <c r="R88" s="394"/>
-      <c r="S88" s="394"/>
-      <c r="T88" s="394"/>
-      <c r="U88" s="394"/>
-      <c r="V88" s="396"/>
-      <c r="W88" s="398"/>
-      <c r="X88" s="400"/>
+      <c r="R88" s="390"/>
+      <c r="S88" s="390"/>
+      <c r="T88" s="390"/>
+      <c r="U88" s="390"/>
+      <c r="V88" s="392"/>
+      <c r="W88" s="394"/>
+      <c r="X88" s="396"/>
       <c r="Y88" s="183"/>
       <c r="Z88" s="183"/>
       <c r="AA88" s="183"/>
@@ -14280,13 +14241,13 @@
       <c r="AD88" s="183"/>
     </row>
     <row r="89" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="384"/>
-      <c r="B89" s="416"/>
-      <c r="C89" s="416"/>
-      <c r="D89" s="416"/>
-      <c r="E89" s="386"/>
-      <c r="F89" s="386"/>
-      <c r="G89" s="389"/>
+      <c r="A89" s="382"/>
+      <c r="B89" s="412"/>
+      <c r="C89" s="412"/>
+      <c r="D89" s="412"/>
+      <c r="E89" s="370"/>
+      <c r="F89" s="370"/>
+      <c r="G89" s="373"/>
       <c r="H89" s="306" t="s">
         <v>573</v>
       </c>
@@ -14316,22 +14277,22 @@
         <v>3387</v>
       </c>
       <c r="Q89" s="365"/>
-      <c r="R89" s="393" t="s">
+      <c r="R89" s="389" t="s">
         <v>570</v>
       </c>
-      <c r="S89" s="393" t="s">
+      <c r="S89" s="389" t="s">
         <v>571</v>
       </c>
-      <c r="T89" s="393" t="s">
+      <c r="T89" s="389" t="s">
         <v>569</v>
       </c>
-      <c r="U89" s="393" t="s">
+      <c r="U89" s="389" t="s">
         <v>576</v>
       </c>
-      <c r="V89" s="395" t="s">
+      <c r="V89" s="391" t="s">
         <v>577</v>
       </c>
-      <c r="W89" s="397" t="s">
+      <c r="W89" s="393" t="s">
         <v>578</v>
       </c>
       <c r="X89" s="308">
@@ -14345,13 +14306,13 @@
       <c r="AD89" s="183"/>
     </row>
     <row r="90" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="384"/>
-      <c r="B90" s="416"/>
-      <c r="C90" s="416"/>
-      <c r="D90" s="416"/>
-      <c r="E90" s="386"/>
-      <c r="F90" s="386"/>
-      <c r="G90" s="389"/>
+      <c r="A90" s="382"/>
+      <c r="B90" s="412"/>
+      <c r="C90" s="412"/>
+      <c r="D90" s="412"/>
+      <c r="E90" s="370"/>
+      <c r="F90" s="370"/>
+      <c r="G90" s="373"/>
       <c r="H90" s="306" t="s">
         <v>574</v>
       </c>
@@ -14381,12 +14342,12 @@
         <v>3388</v>
       </c>
       <c r="Q90" s="365"/>
-      <c r="R90" s="394"/>
-      <c r="S90" s="394"/>
-      <c r="T90" s="394"/>
-      <c r="U90" s="394"/>
-      <c r="V90" s="396"/>
-      <c r="W90" s="398"/>
+      <c r="R90" s="390"/>
+      <c r="S90" s="390"/>
+      <c r="T90" s="390"/>
+      <c r="U90" s="390"/>
+      <c r="V90" s="392"/>
+      <c r="W90" s="394"/>
       <c r="X90" s="316">
         <v>44053</v>
       </c>
@@ -14398,13 +14359,13 @@
       <c r="AD90" s="183"/>
     </row>
     <row r="91" spans="1:30" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="384"/>
-      <c r="B91" s="416"/>
-      <c r="C91" s="416"/>
-      <c r="D91" s="416"/>
-      <c r="E91" s="386"/>
-      <c r="F91" s="386"/>
-      <c r="G91" s="389"/>
+      <c r="A91" s="382"/>
+      <c r="B91" s="412"/>
+      <c r="C91" s="412"/>
+      <c r="D91" s="412"/>
+      <c r="E91" s="370"/>
+      <c r="F91" s="370"/>
+      <c r="G91" s="373"/>
       <c r="H91" s="317" t="s">
         <v>593</v>
       </c>
@@ -14437,15 +14398,15 @@
       <c r="R91" s="332" t="s">
         <v>594</v>
       </c>
-      <c r="S91" s="393"/>
-      <c r="T91" s="393"/>
-      <c r="U91" s="393" t="s">
+      <c r="S91" s="389"/>
+      <c r="T91" s="389"/>
+      <c r="U91" s="389" t="s">
         <v>595</v>
       </c>
-      <c r="V91" s="395" t="s">
+      <c r="V91" s="391" t="s">
         <v>596</v>
       </c>
-      <c r="W91" s="397" t="s">
+      <c r="W91" s="393" t="s">
         <v>597</v>
       </c>
       <c r="X91" s="323">
@@ -14459,13 +14420,13 @@
       <c r="AD91" s="183"/>
     </row>
     <row r="92" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="384"/>
-      <c r="B92" s="416"/>
-      <c r="C92" s="416"/>
-      <c r="D92" s="416"/>
-      <c r="E92" s="386"/>
-      <c r="F92" s="386"/>
-      <c r="G92" s="389"/>
+      <c r="A92" s="382"/>
+      <c r="B92" s="412"/>
+      <c r="C92" s="412"/>
+      <c r="D92" s="412"/>
+      <c r="E92" s="370"/>
+      <c r="F92" s="370"/>
+      <c r="G92" s="373"/>
       <c r="H92" s="324" t="s">
         <v>601</v>
       </c>
@@ -14498,11 +14459,11 @@
       <c r="R92" s="332" t="s">
         <v>603</v>
       </c>
-      <c r="S92" s="394"/>
-      <c r="T92" s="394"/>
-      <c r="U92" s="394"/>
-      <c r="V92" s="396"/>
-      <c r="W92" s="398"/>
+      <c r="S92" s="390"/>
+      <c r="T92" s="390"/>
+      <c r="U92" s="390"/>
+      <c r="V92" s="392"/>
+      <c r="W92" s="394"/>
       <c r="X92" s="335">
         <v>44063</v>
       </c>
@@ -14514,13 +14475,13 @@
       <c r="AD92" s="183"/>
     </row>
     <row r="93" spans="1:30" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="384"/>
-      <c r="B93" s="416"/>
-      <c r="C93" s="416"/>
-      <c r="D93" s="416"/>
-      <c r="E93" s="386"/>
-      <c r="F93" s="386"/>
-      <c r="G93" s="389"/>
+      <c r="A93" s="382"/>
+      <c r="B93" s="412"/>
+      <c r="C93" s="412"/>
+      <c r="D93" s="412"/>
+      <c r="E93" s="370"/>
+      <c r="F93" s="370"/>
+      <c r="G93" s="373"/>
       <c r="H93" s="342" t="s">
         <v>45</v>
       </c>
@@ -14575,13 +14536,13 @@
       <c r="AD93" s="183"/>
     </row>
     <row r="94" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="384"/>
-      <c r="B94" s="416"/>
-      <c r="C94" s="416"/>
-      <c r="D94" s="416"/>
-      <c r="E94" s="386"/>
-      <c r="F94" s="386"/>
-      <c r="G94" s="389"/>
+      <c r="A94" s="382"/>
+      <c r="B94" s="412"/>
+      <c r="C94" s="412"/>
+      <c r="D94" s="412"/>
+      <c r="E94" s="371"/>
+      <c r="F94" s="371"/>
+      <c r="G94" s="374"/>
       <c r="H94" s="210"/>
       <c r="I94" s="211">
         <v>2</v>
@@ -14619,11 +14580,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:X94"/>
-  <mergeCells count="173">
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+  <mergeCells count="170">
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="T51:T52"/>
     <mergeCell ref="S51:S52"/>
@@ -14644,17 +14601,6 @@
     <mergeCell ref="S42:S43"/>
     <mergeCell ref="T42:T43"/>
     <mergeCell ref="S23:S28"/>
-    <mergeCell ref="X87:X88"/>
-    <mergeCell ref="R39:R41"/>
-    <mergeCell ref="T39:T41"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="V39:V41"/>
-    <mergeCell ref="W39:W41"/>
-    <mergeCell ref="S39:S41"/>
-    <mergeCell ref="X40:X41"/>
-    <mergeCell ref="R78:R80"/>
-    <mergeCell ref="U78:U80"/>
-    <mergeCell ref="V78:V80"/>
     <mergeCell ref="W78:W80"/>
     <mergeCell ref="X78:X80"/>
     <mergeCell ref="R75:R77"/>
@@ -14667,34 +14613,14 @@
     <mergeCell ref="V81:V82"/>
     <mergeCell ref="W81:W82"/>
     <mergeCell ref="X81:X82"/>
-    <mergeCell ref="V57:V66"/>
-    <mergeCell ref="W57:W66"/>
-    <mergeCell ref="S71:S72"/>
-    <mergeCell ref="T71:T72"/>
-    <mergeCell ref="S73:S74"/>
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="S67:S68"/>
-    <mergeCell ref="T67:T68"/>
-    <mergeCell ref="S57:S66"/>
-    <mergeCell ref="T57:T66"/>
-    <mergeCell ref="V71:V72"/>
-    <mergeCell ref="U69:U70"/>
-    <mergeCell ref="V69:V70"/>
-    <mergeCell ref="T69:T70"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:X1"/>
     <mergeCell ref="A3:A49"/>
-    <mergeCell ref="E3:E49"/>
-    <mergeCell ref="F3:F49"/>
-    <mergeCell ref="G3:G49"/>
     <mergeCell ref="B3:B94"/>
     <mergeCell ref="C3:C94"/>
     <mergeCell ref="D3:D94"/>
     <mergeCell ref="Q3:Q49"/>
     <mergeCell ref="A50:A94"/>
-    <mergeCell ref="E50:E94"/>
-    <mergeCell ref="F50:F94"/>
-    <mergeCell ref="G50:G94"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="R23:R28"/>
     <mergeCell ref="U23:U28"/>
@@ -14705,6 +14631,12 @@
     <mergeCell ref="R29:R31"/>
     <mergeCell ref="U29:U31"/>
     <mergeCell ref="V29:V31"/>
+    <mergeCell ref="W57:W66"/>
+    <mergeCell ref="S71:S72"/>
+    <mergeCell ref="T71:T72"/>
+    <mergeCell ref="S73:S74"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="S67:S68"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="H10:H19"/>
     <mergeCell ref="R10:R19"/>
@@ -14745,10 +14677,10 @@
     <mergeCell ref="X44:X45"/>
     <mergeCell ref="X23:X28"/>
     <mergeCell ref="X42:X43"/>
-    <mergeCell ref="T84:T85"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="V32:V34"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="V39:V41"/>
+    <mergeCell ref="W39:W41"/>
+    <mergeCell ref="X40:X41"/>
     <mergeCell ref="W32:W34"/>
     <mergeCell ref="X32:X34"/>
     <mergeCell ref="X69:X70"/>
@@ -14769,12 +14701,10 @@
     <mergeCell ref="U44:U45"/>
     <mergeCell ref="V44:V45"/>
     <mergeCell ref="W44:W45"/>
-    <mergeCell ref="O39:O47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="S46:S47"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="U46:U47"/>
-    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="T67:T68"/>
+    <mergeCell ref="S57:S66"/>
+    <mergeCell ref="T57:T66"/>
+    <mergeCell ref="V71:V72"/>
     <mergeCell ref="W46:W47"/>
     <mergeCell ref="X46:X47"/>
     <mergeCell ref="R89:R90"/>
@@ -14793,6 +14723,34 @@
     <mergeCell ref="U87:U88"/>
     <mergeCell ref="V87:V88"/>
     <mergeCell ref="W87:W88"/>
+    <mergeCell ref="T84:T85"/>
+    <mergeCell ref="U69:U70"/>
+    <mergeCell ref="V69:V70"/>
+    <mergeCell ref="T69:T70"/>
+    <mergeCell ref="X87:X88"/>
+    <mergeCell ref="R78:R80"/>
+    <mergeCell ref="F3:F94"/>
+    <mergeCell ref="E3:E94"/>
+    <mergeCell ref="G3:G94"/>
+    <mergeCell ref="O39:O47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="S46:S47"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="U46:U47"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="V32:V34"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="T39:T41"/>
+    <mergeCell ref="S39:S41"/>
+    <mergeCell ref="U78:U80"/>
+    <mergeCell ref="V78:V80"/>
+    <mergeCell ref="V57:V66"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -14830,10 +14788,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A70" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="W84" sqref="W84"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3:G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -14858,34 +14816,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="383" t="s">
+      <c r="A1" s="381" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
-      <c r="H1" s="427" t="str">
+      <c r="B1" s="381"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="381"/>
+      <c r="E1" s="381"/>
+      <c r="F1" s="381"/>
+      <c r="G1" s="381"/>
+      <c r="H1" s="423" t="str">
         <f>"MySQL(" &amp; MAX(O3:O948) &amp; ")"</f>
         <v>MySQL(3389)</v>
       </c>
-      <c r="I1" s="428"/>
-      <c r="J1" s="428"/>
-      <c r="K1" s="428"/>
-      <c r="L1" s="428"/>
-      <c r="M1" s="428"/>
-      <c r="N1" s="428"/>
-      <c r="O1" s="428"/>
-      <c r="P1" s="428"/>
-      <c r="Q1" s="428"/>
-      <c r="R1" s="428"/>
-      <c r="S1" s="428"/>
-      <c r="T1" s="428"/>
-      <c r="U1" s="428"/>
-      <c r="V1" s="428"/>
-      <c r="W1" s="428"/>
+      <c r="I1" s="424"/>
+      <c r="J1" s="424"/>
+      <c r="K1" s="424"/>
+      <c r="L1" s="424"/>
+      <c r="M1" s="424"/>
+      <c r="N1" s="424"/>
+      <c r="O1" s="424"/>
+      <c r="P1" s="424"/>
+      <c r="Q1" s="424"/>
+      <c r="R1" s="424"/>
+      <c r="S1" s="424"/>
+      <c r="T1" s="424"/>
+      <c r="U1" s="424"/>
+      <c r="V1" s="424"/>
+      <c r="W1" s="424"/>
     </row>
     <row r="2" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -14959,29 +14917,29 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="384" t="s">
+      <c r="A3" s="382" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="416">
+      <c r="B3" s="412">
         <v>56</v>
       </c>
-      <c r="C3" s="416">
+      <c r="C3" s="412">
         <v>512</v>
       </c>
-      <c r="D3" s="416">
+      <c r="D3" s="412">
         <v>50</v>
       </c>
-      <c r="E3" s="386" t="str">
-        <f>TEXT(ROUND(SUM(H3:H29)/B3*100,4),"0.00")</f>
-        <v>214.29</v>
-      </c>
-      <c r="F3" s="386" t="str">
-        <f>TEXT(ROUND(SUM(I3:I29)/C3*100,4),"0.00")</f>
-        <v>66.41</v>
-      </c>
-      <c r="G3" s="389" t="str">
-        <f>TEXT(ROUND(SUM(L3:L29)/(D3*1024)*100,4),"0.00")</f>
-        <v>32.34</v>
+      <c r="E3" s="369" t="str">
+        <f>TEXT(ROUND(SUM(H3:H81)/B3*100,4),"0.00")</f>
+        <v>617.86</v>
+      </c>
+      <c r="F3" s="369" t="str">
+        <f>TEXT(ROUND(SUM(I3:I81)/C3*100,4),"0.00")</f>
+        <v>229.88</v>
+      </c>
+      <c r="G3" s="372" t="str">
+        <f>TEXT(ROUND(SUM(L3:L81)/(D3*1024)*100,4),"0.00")</f>
+        <v>101.64</v>
       </c>
       <c r="H3" s="6">
         <v>4</v>
@@ -15006,31 +14964,31 @@
       <c r="O3" s="6">
         <v>3326</v>
       </c>
-      <c r="P3" s="390" t="s">
+      <c r="P3" s="386" t="s">
         <v>135</v>
       </c>
       <c r="Q3" s="365" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="414"/>
-      <c r="S3" s="414"/>
-      <c r="T3" s="390" t="s">
+      <c r="R3" s="410"/>
+      <c r="S3" s="410"/>
+      <c r="T3" s="386" t="s">
         <v>617</v>
       </c>
-      <c r="U3" s="411"/>
-      <c r="V3" s="411"/>
-      <c r="W3" s="405">
+      <c r="U3" s="407"/>
+      <c r="V3" s="407"/>
+      <c r="W3" s="401">
         <v>43612</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="384"/>
-      <c r="B4" s="416"/>
-      <c r="C4" s="416"/>
-      <c r="D4" s="416"/>
-      <c r="E4" s="386"/>
-      <c r="F4" s="386"/>
-      <c r="G4" s="389"/>
+      <c r="A4" s="382"/>
+      <c r="B4" s="412"/>
+      <c r="C4" s="412"/>
+      <c r="D4" s="412"/>
+      <c r="E4" s="370"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="373"/>
       <c r="H4" s="60">
         <v>4</v>
       </c>
@@ -15054,23 +15012,23 @@
       <c r="O4" s="60">
         <v>3306</v>
       </c>
-      <c r="P4" s="391"/>
+      <c r="P4" s="387"/>
       <c r="Q4" s="365"/>
-      <c r="R4" s="418"/>
-      <c r="S4" s="418"/>
-      <c r="T4" s="418"/>
-      <c r="U4" s="426"/>
-      <c r="V4" s="426"/>
-      <c r="W4" s="405"/>
+      <c r="R4" s="414"/>
+      <c r="S4" s="414"/>
+      <c r="T4" s="414"/>
+      <c r="U4" s="422"/>
+      <c r="V4" s="422"/>
+      <c r="W4" s="401"/>
     </row>
     <row r="5" spans="1:23" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="385"/>
-      <c r="B5" s="416"/>
-      <c r="C5" s="416"/>
-      <c r="D5" s="416"/>
-      <c r="E5" s="386"/>
-      <c r="F5" s="386"/>
-      <c r="G5" s="389"/>
+      <c r="A5" s="383"/>
+      <c r="B5" s="412"/>
+      <c r="C5" s="412"/>
+      <c r="D5" s="412"/>
+      <c r="E5" s="370"/>
+      <c r="F5" s="370"/>
+      <c r="G5" s="373"/>
       <c r="H5" s="6">
         <v>4</v>
       </c>
@@ -15094,23 +15052,23 @@
       <c r="O5" s="6">
         <v>3307</v>
       </c>
-      <c r="P5" s="418"/>
+      <c r="P5" s="414"/>
       <c r="Q5" s="365"/>
-      <c r="R5" s="418"/>
-      <c r="S5" s="418"/>
-      <c r="T5" s="418"/>
-      <c r="U5" s="426"/>
-      <c r="V5" s="426"/>
-      <c r="W5" s="405"/>
+      <c r="R5" s="414"/>
+      <c r="S5" s="414"/>
+      <c r="T5" s="414"/>
+      <c r="U5" s="422"/>
+      <c r="V5" s="422"/>
+      <c r="W5" s="401"/>
     </row>
     <row r="6" spans="1:23" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="385"/>
-      <c r="B6" s="416"/>
-      <c r="C6" s="416"/>
-      <c r="D6" s="416"/>
-      <c r="E6" s="386"/>
-      <c r="F6" s="386"/>
-      <c r="G6" s="389"/>
+      <c r="A6" s="383"/>
+      <c r="B6" s="412"/>
+      <c r="C6" s="412"/>
+      <c r="D6" s="412"/>
+      <c r="E6" s="370"/>
+      <c r="F6" s="370"/>
+      <c r="G6" s="373"/>
       <c r="H6" s="6">
         <v>4</v>
       </c>
@@ -15134,23 +15092,23 @@
       <c r="O6" s="6">
         <v>3308</v>
       </c>
-      <c r="P6" s="418"/>
+      <c r="P6" s="414"/>
       <c r="Q6" s="365"/>
-      <c r="R6" s="418"/>
-      <c r="S6" s="418"/>
-      <c r="T6" s="418"/>
-      <c r="U6" s="426"/>
-      <c r="V6" s="426"/>
-      <c r="W6" s="405"/>
+      <c r="R6" s="414"/>
+      <c r="S6" s="414"/>
+      <c r="T6" s="414"/>
+      <c r="U6" s="422"/>
+      <c r="V6" s="422"/>
+      <c r="W6" s="401"/>
     </row>
     <row r="7" spans="1:23" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="385"/>
-      <c r="B7" s="416"/>
-      <c r="C7" s="416"/>
-      <c r="D7" s="416"/>
-      <c r="E7" s="386"/>
-      <c r="F7" s="386"/>
-      <c r="G7" s="389"/>
+      <c r="A7" s="383"/>
+      <c r="B7" s="412"/>
+      <c r="C7" s="412"/>
+      <c r="D7" s="412"/>
+      <c r="E7" s="370"/>
+      <c r="F7" s="370"/>
+      <c r="G7" s="373"/>
       <c r="H7" s="6">
         <v>4</v>
       </c>
@@ -15174,23 +15132,23 @@
       <c r="O7" s="6">
         <v>3309</v>
       </c>
-      <c r="P7" s="418"/>
+      <c r="P7" s="414"/>
       <c r="Q7" s="365"/>
-      <c r="R7" s="418"/>
-      <c r="S7" s="418"/>
-      <c r="T7" s="418"/>
-      <c r="U7" s="426"/>
-      <c r="V7" s="426"/>
-      <c r="W7" s="405"/>
+      <c r="R7" s="414"/>
+      <c r="S7" s="414"/>
+      <c r="T7" s="414"/>
+      <c r="U7" s="422"/>
+      <c r="V7" s="422"/>
+      <c r="W7" s="401"/>
     </row>
     <row r="8" spans="1:23" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="385"/>
-      <c r="B8" s="416"/>
-      <c r="C8" s="416"/>
-      <c r="D8" s="416"/>
-      <c r="E8" s="386"/>
-      <c r="F8" s="386"/>
-      <c r="G8" s="389"/>
+      <c r="A8" s="383"/>
+      <c r="B8" s="412"/>
+      <c r="C8" s="412"/>
+      <c r="D8" s="412"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
+      <c r="G8" s="373"/>
       <c r="H8" s="6">
         <v>4</v>
       </c>
@@ -15214,23 +15172,23 @@
       <c r="O8" s="6">
         <v>3310</v>
       </c>
-      <c r="P8" s="418"/>
+      <c r="P8" s="414"/>
       <c r="Q8" s="365"/>
-      <c r="R8" s="415"/>
-      <c r="S8" s="415"/>
-      <c r="T8" s="415"/>
-      <c r="U8" s="412"/>
-      <c r="V8" s="412"/>
-      <c r="W8" s="405"/>
+      <c r="R8" s="411"/>
+      <c r="S8" s="411"/>
+      <c r="T8" s="411"/>
+      <c r="U8" s="408"/>
+      <c r="V8" s="408"/>
+      <c r="W8" s="401"/>
     </row>
     <row r="9" spans="1:23" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="385"/>
-      <c r="B9" s="416"/>
-      <c r="C9" s="416"/>
-      <c r="D9" s="416"/>
-      <c r="E9" s="386"/>
-      <c r="F9" s="386"/>
-      <c r="G9" s="389"/>
+      <c r="A9" s="383"/>
+      <c r="B9" s="412"/>
+      <c r="C9" s="412"/>
+      <c r="D9" s="412"/>
+      <c r="E9" s="370"/>
+      <c r="F9" s="370"/>
+      <c r="G9" s="373"/>
       <c r="H9" s="6">
         <v>4</v>
       </c>
@@ -15254,7 +15212,7 @@
       <c r="O9" s="6">
         <v>3323</v>
       </c>
-      <c r="P9" s="418"/>
+      <c r="P9" s="414"/>
       <c r="Q9" s="324" t="s">
         <v>637</v>
       </c>
@@ -15274,13 +15232,13 @@
       </c>
     </row>
     <row r="10" spans="1:23" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="385"/>
-      <c r="B10" s="416"/>
-      <c r="C10" s="416"/>
-      <c r="D10" s="416"/>
-      <c r="E10" s="386"/>
-      <c r="F10" s="386"/>
-      <c r="G10" s="389"/>
+      <c r="A10" s="383"/>
+      <c r="B10" s="412"/>
+      <c r="C10" s="412"/>
+      <c r="D10" s="412"/>
+      <c r="E10" s="370"/>
+      <c r="F10" s="370"/>
+      <c r="G10" s="373"/>
       <c r="H10" s="6">
         <v>8</v>
       </c>
@@ -15304,33 +15262,33 @@
       <c r="O10" s="6">
         <v>3338</v>
       </c>
-      <c r="P10" s="418"/>
-      <c r="Q10" s="414" t="s">
+      <c r="P10" s="414"/>
+      <c r="Q10" s="410" t="s">
         <v>73</v>
       </c>
-      <c r="R10" s="414"/>
-      <c r="S10" s="414"/>
-      <c r="T10" s="390" t="s">
+      <c r="R10" s="410"/>
+      <c r="S10" s="410"/>
+      <c r="T10" s="386" t="s">
         <v>630</v>
       </c>
-      <c r="U10" s="409" t="s">
+      <c r="U10" s="405" t="s">
         <v>631</v>
       </c>
-      <c r="V10" s="413" t="s">
+      <c r="V10" s="409" t="s">
         <v>632</v>
       </c>
-      <c r="W10" s="399">
+      <c r="W10" s="395">
         <v>43734</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="385"/>
-      <c r="B11" s="416"/>
-      <c r="C11" s="416"/>
-      <c r="D11" s="416"/>
-      <c r="E11" s="386"/>
-      <c r="F11" s="386"/>
-      <c r="G11" s="389"/>
+      <c r="A11" s="383"/>
+      <c r="B11" s="412"/>
+      <c r="C11" s="412"/>
+      <c r="D11" s="412"/>
+      <c r="E11" s="370"/>
+      <c r="F11" s="370"/>
+      <c r="G11" s="373"/>
       <c r="H11" s="6">
         <v>4</v>
       </c>
@@ -15354,23 +15312,23 @@
       <c r="O11" s="6">
         <v>3339</v>
       </c>
-      <c r="P11" s="418"/>
-      <c r="Q11" s="418"/>
-      <c r="R11" s="418"/>
-      <c r="S11" s="418"/>
-      <c r="T11" s="391"/>
-      <c r="U11" s="440"/>
-      <c r="V11" s="441"/>
-      <c r="W11" s="404"/>
+      <c r="P11" s="414"/>
+      <c r="Q11" s="414"/>
+      <c r="R11" s="414"/>
+      <c r="S11" s="414"/>
+      <c r="T11" s="387"/>
+      <c r="U11" s="436"/>
+      <c r="V11" s="437"/>
+      <c r="W11" s="400"/>
     </row>
     <row r="12" spans="1:23" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="385"/>
-      <c r="B12" s="416"/>
-      <c r="C12" s="416"/>
-      <c r="D12" s="416"/>
-      <c r="E12" s="386"/>
-      <c r="F12" s="386"/>
-      <c r="G12" s="389"/>
+      <c r="A12" s="383"/>
+      <c r="B12" s="412"/>
+      <c r="C12" s="412"/>
+      <c r="D12" s="412"/>
+      <c r="E12" s="370"/>
+      <c r="F12" s="370"/>
+      <c r="G12" s="373"/>
       <c r="H12" s="6">
         <v>8</v>
       </c>
@@ -15394,23 +15352,23 @@
       <c r="O12" s="6">
         <v>3340</v>
       </c>
-      <c r="P12" s="418"/>
-      <c r="Q12" s="418"/>
-      <c r="R12" s="418"/>
-      <c r="S12" s="418"/>
-      <c r="T12" s="391"/>
-      <c r="U12" s="440"/>
-      <c r="V12" s="441"/>
-      <c r="W12" s="404"/>
+      <c r="P12" s="414"/>
+      <c r="Q12" s="414"/>
+      <c r="R12" s="414"/>
+      <c r="S12" s="414"/>
+      <c r="T12" s="387"/>
+      <c r="U12" s="436"/>
+      <c r="V12" s="437"/>
+      <c r="W12" s="400"/>
     </row>
     <row r="13" spans="1:23" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="385"/>
-      <c r="B13" s="416"/>
-      <c r="C13" s="416"/>
-      <c r="D13" s="416"/>
-      <c r="E13" s="386"/>
-      <c r="F13" s="386"/>
-      <c r="G13" s="389"/>
+      <c r="A13" s="383"/>
+      <c r="B13" s="412"/>
+      <c r="C13" s="412"/>
+      <c r="D13" s="412"/>
+      <c r="E13" s="370"/>
+      <c r="F13" s="370"/>
+      <c r="G13" s="373"/>
       <c r="H13" s="6">
         <v>8</v>
       </c>
@@ -15434,23 +15392,23 @@
       <c r="O13" s="6">
         <v>3341</v>
       </c>
-      <c r="P13" s="418"/>
-      <c r="Q13" s="415"/>
-      <c r="R13" s="415"/>
-      <c r="S13" s="415"/>
-      <c r="T13" s="392"/>
-      <c r="U13" s="410"/>
-      <c r="V13" s="442"/>
-      <c r="W13" s="400"/>
+      <c r="P13" s="414"/>
+      <c r="Q13" s="411"/>
+      <c r="R13" s="411"/>
+      <c r="S13" s="411"/>
+      <c r="T13" s="388"/>
+      <c r="U13" s="406"/>
+      <c r="V13" s="438"/>
+      <c r="W13" s="396"/>
     </row>
     <row r="14" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="385"/>
-      <c r="B14" s="416"/>
-      <c r="C14" s="416"/>
-      <c r="D14" s="416"/>
-      <c r="E14" s="386"/>
-      <c r="F14" s="386"/>
-      <c r="G14" s="389"/>
+      <c r="A14" s="383"/>
+      <c r="B14" s="412"/>
+      <c r="C14" s="412"/>
+      <c r="D14" s="412"/>
+      <c r="E14" s="370"/>
+      <c r="F14" s="370"/>
+      <c r="G14" s="373"/>
       <c r="H14" s="17">
         <v>4</v>
       </c>
@@ -15474,7 +15432,7 @@
       <c r="O14" s="17">
         <v>3346</v>
       </c>
-      <c r="P14" s="418"/>
+      <c r="P14" s="414"/>
       <c r="Q14" s="329" t="s">
         <v>633</v>
       </c>
@@ -15494,13 +15452,13 @@
       </c>
     </row>
     <row r="15" spans="1:23" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="385"/>
-      <c r="B15" s="416"/>
-      <c r="C15" s="416"/>
-      <c r="D15" s="416"/>
-      <c r="E15" s="386"/>
-      <c r="F15" s="386"/>
-      <c r="G15" s="389"/>
+      <c r="A15" s="383"/>
+      <c r="B15" s="412"/>
+      <c r="C15" s="412"/>
+      <c r="D15" s="412"/>
+      <c r="E15" s="370"/>
+      <c r="F15" s="370"/>
+      <c r="G15" s="373"/>
       <c r="H15" s="51">
         <v>4</v>
       </c>
@@ -15524,7 +15482,7 @@
       <c r="O15" s="51">
         <v>3348</v>
       </c>
-      <c r="P15" s="418"/>
+      <c r="P15" s="414"/>
       <c r="Q15" s="12" t="s">
         <v>128</v>
       </c>
@@ -15538,13 +15496,13 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="385"/>
-      <c r="B16" s="416"/>
-      <c r="C16" s="416"/>
-      <c r="D16" s="416"/>
-      <c r="E16" s="386"/>
-      <c r="F16" s="386"/>
-      <c r="G16" s="389"/>
+      <c r="A16" s="383"/>
+      <c r="B16" s="412"/>
+      <c r="C16" s="412"/>
+      <c r="D16" s="412"/>
+      <c r="E16" s="370"/>
+      <c r="F16" s="370"/>
+      <c r="G16" s="373"/>
       <c r="H16" s="64">
         <v>4</v>
       </c>
@@ -15568,7 +15526,7 @@
       <c r="O16" s="64">
         <v>3352</v>
       </c>
-      <c r="P16" s="418"/>
+      <c r="P16" s="414"/>
       <c r="Q16" s="63" t="s">
         <v>193</v>
       </c>
@@ -15582,13 +15540,13 @@
       </c>
     </row>
     <row r="17" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="385"/>
-      <c r="B17" s="416"/>
-      <c r="C17" s="416"/>
-      <c r="D17" s="416"/>
-      <c r="E17" s="386"/>
-      <c r="F17" s="386"/>
-      <c r="G17" s="389"/>
+      <c r="A17" s="383"/>
+      <c r="B17" s="412"/>
+      <c r="C17" s="412"/>
+      <c r="D17" s="412"/>
+      <c r="E17" s="370"/>
+      <c r="F17" s="370"/>
+      <c r="G17" s="373"/>
       <c r="H17" s="98">
         <v>4</v>
       </c>
@@ -15612,7 +15570,7 @@
       <c r="O17" s="98">
         <v>3355</v>
       </c>
-      <c r="P17" s="418"/>
+      <c r="P17" s="414"/>
       <c r="Q17" s="40" t="s">
         <v>189</v>
       </c>
@@ -15626,13 +15584,13 @@
       </c>
     </row>
     <row r="18" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="385"/>
-      <c r="B18" s="416"/>
-      <c r="C18" s="416"/>
-      <c r="D18" s="416"/>
-      <c r="E18" s="386"/>
-      <c r="F18" s="386"/>
-      <c r="G18" s="389"/>
+      <c r="A18" s="383"/>
+      <c r="B18" s="412"/>
+      <c r="C18" s="412"/>
+      <c r="D18" s="412"/>
+      <c r="E18" s="370"/>
+      <c r="F18" s="370"/>
+      <c r="G18" s="373"/>
       <c r="H18" s="115">
         <v>4</v>
       </c>
@@ -15656,7 +15614,7 @@
       <c r="O18" s="115">
         <v>3358</v>
       </c>
-      <c r="P18" s="418"/>
+      <c r="P18" s="414"/>
       <c r="Q18" s="40" t="s">
         <v>207</v>
       </c>
@@ -15670,13 +15628,13 @@
       </c>
     </row>
     <row r="19" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="385"/>
-      <c r="B19" s="416"/>
-      <c r="C19" s="416"/>
-      <c r="D19" s="416"/>
-      <c r="E19" s="386"/>
-      <c r="F19" s="386"/>
-      <c r="G19" s="389"/>
+      <c r="A19" s="383"/>
+      <c r="B19" s="412"/>
+      <c r="C19" s="412"/>
+      <c r="D19" s="412"/>
+      <c r="E19" s="370"/>
+      <c r="F19" s="370"/>
+      <c r="G19" s="373"/>
       <c r="H19" s="139">
         <v>4</v>
       </c>
@@ -15700,7 +15658,7 @@
       <c r="O19" s="139">
         <v>3361</v>
       </c>
-      <c r="P19" s="418"/>
+      <c r="P19" s="414"/>
       <c r="Q19" s="40" t="s">
         <v>220</v>
       </c>
@@ -15714,13 +15672,13 @@
       </c>
     </row>
     <row r="20" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="385"/>
-      <c r="B20" s="416"/>
-      <c r="C20" s="416"/>
-      <c r="D20" s="416"/>
-      <c r="E20" s="386"/>
-      <c r="F20" s="386"/>
-      <c r="G20" s="389"/>
+      <c r="A20" s="383"/>
+      <c r="B20" s="412"/>
+      <c r="C20" s="412"/>
+      <c r="D20" s="412"/>
+      <c r="E20" s="370"/>
+      <c r="F20" s="370"/>
+      <c r="G20" s="373"/>
       <c r="H20" s="171">
         <v>4</v>
       </c>
@@ -15744,7 +15702,7 @@
       <c r="O20" s="171">
         <v>3364</v>
       </c>
-      <c r="P20" s="418"/>
+      <c r="P20" s="414"/>
       <c r="Q20" s="40" t="s">
         <v>269</v>
       </c>
@@ -15758,13 +15716,13 @@
       </c>
     </row>
     <row r="21" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="385"/>
-      <c r="B21" s="416"/>
-      <c r="C21" s="416"/>
-      <c r="D21" s="416"/>
-      <c r="E21" s="386"/>
-      <c r="F21" s="386"/>
-      <c r="G21" s="389"/>
+      <c r="A21" s="383"/>
+      <c r="B21" s="412"/>
+      <c r="C21" s="412"/>
+      <c r="D21" s="412"/>
+      <c r="E21" s="370"/>
+      <c r="F21" s="370"/>
+      <c r="G21" s="373"/>
       <c r="H21" s="178">
         <v>4</v>
       </c>
@@ -15788,7 +15746,7 @@
       <c r="O21" s="178">
         <v>3367</v>
       </c>
-      <c r="P21" s="418"/>
+      <c r="P21" s="414"/>
       <c r="Q21" s="179" t="s">
         <v>311</v>
       </c>
@@ -15802,13 +15760,13 @@
       </c>
     </row>
     <row r="22" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="385"/>
-      <c r="B22" s="416"/>
-      <c r="C22" s="416"/>
-      <c r="D22" s="416"/>
-      <c r="E22" s="386"/>
-      <c r="F22" s="386"/>
-      <c r="G22" s="389"/>
+      <c r="A22" s="383"/>
+      <c r="B22" s="412"/>
+      <c r="C22" s="412"/>
+      <c r="D22" s="412"/>
+      <c r="E22" s="370"/>
+      <c r="F22" s="370"/>
+      <c r="G22" s="373"/>
       <c r="H22" s="178">
         <v>4</v>
       </c>
@@ -15832,7 +15790,7 @@
       <c r="O22" s="178">
         <v>3370</v>
       </c>
-      <c r="P22" s="418"/>
+      <c r="P22" s="414"/>
       <c r="Q22" s="179" t="s">
         <v>353</v>
       </c>
@@ -15852,13 +15810,13 @@
       </c>
     </row>
     <row r="23" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="385"/>
-      <c r="B23" s="416"/>
-      <c r="C23" s="416"/>
-      <c r="D23" s="416"/>
-      <c r="E23" s="386"/>
-      <c r="F23" s="386"/>
-      <c r="G23" s="389"/>
+      <c r="A23" s="383"/>
+      <c r="B23" s="412"/>
+      <c r="C23" s="412"/>
+      <c r="D23" s="412"/>
+      <c r="E23" s="370"/>
+      <c r="F23" s="370"/>
+      <c r="G23" s="373"/>
       <c r="H23" s="211">
         <v>4</v>
       </c>
@@ -15882,7 +15840,7 @@
       <c r="O23" s="211">
         <v>3371</v>
       </c>
-      <c r="P23" s="418"/>
+      <c r="P23" s="414"/>
       <c r="Q23" s="216" t="s">
         <v>359</v>
       </c>
@@ -15902,13 +15860,13 @@
       </c>
     </row>
     <row r="24" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="385"/>
-      <c r="B24" s="416"/>
-      <c r="C24" s="416"/>
-      <c r="D24" s="416"/>
-      <c r="E24" s="386"/>
-      <c r="F24" s="386"/>
-      <c r="G24" s="389"/>
+      <c r="A24" s="383"/>
+      <c r="B24" s="412"/>
+      <c r="C24" s="412"/>
+      <c r="D24" s="412"/>
+      <c r="E24" s="370"/>
+      <c r="F24" s="370"/>
+      <c r="G24" s="373"/>
       <c r="H24" s="227">
         <v>4</v>
       </c>
@@ -15932,7 +15890,7 @@
       <c r="O24" s="227">
         <v>3374</v>
       </c>
-      <c r="P24" s="418"/>
+      <c r="P24" s="414"/>
       <c r="Q24" s="232" t="s">
         <v>408</v>
       </c>
@@ -15952,13 +15910,13 @@
       </c>
     </row>
     <row r="25" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="385"/>
-      <c r="B25" s="416"/>
-      <c r="C25" s="416"/>
-      <c r="D25" s="416"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="386"/>
-      <c r="G25" s="389"/>
+      <c r="A25" s="383"/>
+      <c r="B25" s="412"/>
+      <c r="C25" s="412"/>
+      <c r="D25" s="412"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="373"/>
       <c r="H25" s="252">
         <v>4</v>
       </c>
@@ -15984,7 +15942,7 @@
       <c r="O25" s="252">
         <v>3377</v>
       </c>
-      <c r="P25" s="418"/>
+      <c r="P25" s="414"/>
       <c r="Q25" s="256" t="s">
         <v>450</v>
       </c>
@@ -16004,13 +15962,13 @@
       </c>
     </row>
     <row r="26" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="385"/>
-      <c r="B26" s="416"/>
-      <c r="C26" s="416"/>
-      <c r="D26" s="416"/>
-      <c r="E26" s="386"/>
-      <c r="F26" s="386"/>
-      <c r="G26" s="389"/>
+      <c r="A26" s="383"/>
+      <c r="B26" s="412"/>
+      <c r="C26" s="412"/>
+      <c r="D26" s="412"/>
+      <c r="E26" s="370"/>
+      <c r="F26" s="370"/>
+      <c r="G26" s="373"/>
       <c r="H26" s="295">
         <v>4</v>
       </c>
@@ -16034,7 +15992,7 @@
       <c r="O26" s="295">
         <v>3380</v>
       </c>
-      <c r="P26" s="418"/>
+      <c r="P26" s="414"/>
       <c r="Q26" s="299" t="s">
         <v>510</v>
       </c>
@@ -16058,13 +16016,13 @@
       </c>
     </row>
     <row r="27" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="385"/>
-      <c r="B27" s="416"/>
-      <c r="C27" s="416"/>
-      <c r="D27" s="416"/>
-      <c r="E27" s="386"/>
-      <c r="F27" s="386"/>
-      <c r="G27" s="389"/>
+      <c r="A27" s="383"/>
+      <c r="B27" s="412"/>
+      <c r="C27" s="412"/>
+      <c r="D27" s="412"/>
+      <c r="E27" s="370"/>
+      <c r="F27" s="370"/>
+      <c r="G27" s="373"/>
       <c r="H27" s="318">
         <v>4</v>
       </c>
@@ -16090,7 +16048,7 @@
       <c r="O27" s="318">
         <v>3383</v>
       </c>
-      <c r="P27" s="418"/>
+      <c r="P27" s="414"/>
       <c r="Q27" s="322" t="s">
         <v>550</v>
       </c>
@@ -16114,13 +16072,13 @@
       </c>
     </row>
     <row r="28" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="385"/>
-      <c r="B28" s="416"/>
-      <c r="C28" s="416"/>
-      <c r="D28" s="416"/>
-      <c r="E28" s="386"/>
-      <c r="F28" s="386"/>
-      <c r="G28" s="389"/>
+      <c r="A28" s="383"/>
+      <c r="B28" s="412"/>
+      <c r="C28" s="412"/>
+      <c r="D28" s="412"/>
+      <c r="E28" s="370"/>
+      <c r="F28" s="370"/>
+      <c r="G28" s="373"/>
       <c r="H28" s="343">
         <v>4</v>
       </c>
@@ -16146,7 +16104,7 @@
       <c r="O28" s="343">
         <v>3386</v>
       </c>
-      <c r="P28" s="418"/>
+      <c r="P28" s="414"/>
       <c r="Q28" s="348" t="s">
         <v>594</v>
       </c>
@@ -16166,13 +16124,13 @@
       </c>
     </row>
     <row r="29" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="385"/>
-      <c r="B29" s="416"/>
-      <c r="C29" s="416"/>
-      <c r="D29" s="416"/>
-      <c r="E29" s="386"/>
-      <c r="F29" s="386"/>
-      <c r="G29" s="389"/>
+      <c r="A29" s="383"/>
+      <c r="B29" s="412"/>
+      <c r="C29" s="412"/>
+      <c r="D29" s="412"/>
+      <c r="E29" s="370"/>
+      <c r="F29" s="370"/>
+      <c r="G29" s="373"/>
       <c r="H29" s="11">
         <v>4</v>
       </c>
@@ -16198,7 +16156,7 @@
       <c r="O29" s="11">
         <v>3389</v>
       </c>
-      <c r="P29" s="415"/>
+      <c r="P29" s="411"/>
       <c r="Q29" s="40" t="s">
         <v>657</v>
       </c>
@@ -16218,24 +16176,15 @@
       </c>
     </row>
     <row r="30" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="380" t="s">
+      <c r="A30" s="378" t="s">
         <v>176</v>
       </c>
-      <c r="B30" s="416"/>
-      <c r="C30" s="416"/>
-      <c r="D30" s="416"/>
-      <c r="E30" s="375" t="str">
-        <f>TEXT(ROUND(SUM(H30:H55)/B3*100,4),"0.00")</f>
-        <v>196.43</v>
-      </c>
-      <c r="F30" s="375" t="str">
-        <f>TEXT(ROUND(SUM(I30:I55)/C3*100,4),"0.00")</f>
-        <v>83.01</v>
-      </c>
-      <c r="G30" s="376" t="str">
-        <f>TEXT(ROUND(SUM(L30:L55)/(D3*1024)*100,4),"0.00")</f>
-        <v>38.63</v>
-      </c>
+      <c r="B30" s="412"/>
+      <c r="C30" s="412"/>
+      <c r="D30" s="412"/>
+      <c r="E30" s="370"/>
+      <c r="F30" s="370"/>
+      <c r="G30" s="373"/>
       <c r="H30" s="8">
         <v>2</v>
       </c>
@@ -16259,31 +16208,31 @@
       <c r="O30" s="8">
         <v>3324</v>
       </c>
-      <c r="P30" s="422" t="s">
+      <c r="P30" s="418" t="s">
         <v>51</v>
       </c>
-      <c r="Q30" s="388" t="s">
+      <c r="Q30" s="385" t="s">
         <v>37</v>
       </c>
-      <c r="R30" s="419"/>
-      <c r="S30" s="419"/>
-      <c r="T30" s="422" t="s">
+      <c r="R30" s="415"/>
+      <c r="S30" s="415"/>
+      <c r="T30" s="418" t="s">
         <v>617</v>
       </c>
-      <c r="U30" s="423"/>
-      <c r="V30" s="423"/>
-      <c r="W30" s="429">
+      <c r="U30" s="419"/>
+      <c r="V30" s="419"/>
+      <c r="W30" s="425">
         <v>43612</v>
       </c>
     </row>
     <row r="31" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="380"/>
-      <c r="B31" s="416"/>
-      <c r="C31" s="416"/>
-      <c r="D31" s="416"/>
-      <c r="E31" s="375"/>
-      <c r="F31" s="375"/>
-      <c r="G31" s="376"/>
+      <c r="A31" s="378"/>
+      <c r="B31" s="412"/>
+      <c r="C31" s="412"/>
+      <c r="D31" s="412"/>
+      <c r="E31" s="370"/>
+      <c r="F31" s="370"/>
+      <c r="G31" s="373"/>
       <c r="H31" s="62">
         <v>4</v>
       </c>
@@ -16307,23 +16256,23 @@
       <c r="O31" s="62">
         <v>3311</v>
       </c>
-      <c r="P31" s="420"/>
-      <c r="Q31" s="388"/>
-      <c r="R31" s="420"/>
-      <c r="S31" s="420"/>
-      <c r="T31" s="420"/>
-      <c r="U31" s="424"/>
-      <c r="V31" s="424"/>
-      <c r="W31" s="429"/>
+      <c r="P31" s="416"/>
+      <c r="Q31" s="385"/>
+      <c r="R31" s="416"/>
+      <c r="S31" s="416"/>
+      <c r="T31" s="416"/>
+      <c r="U31" s="420"/>
+      <c r="V31" s="420"/>
+      <c r="W31" s="425"/>
     </row>
     <row r="32" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="381"/>
-      <c r="B32" s="416"/>
-      <c r="C32" s="416"/>
-      <c r="D32" s="416"/>
-      <c r="E32" s="375"/>
-      <c r="F32" s="375"/>
-      <c r="G32" s="376"/>
+      <c r="A32" s="379"/>
+      <c r="B32" s="412"/>
+      <c r="C32" s="412"/>
+      <c r="D32" s="412"/>
+      <c r="E32" s="370"/>
+      <c r="F32" s="370"/>
+      <c r="G32" s="373"/>
       <c r="H32" s="8">
         <v>4</v>
       </c>
@@ -16347,23 +16296,23 @@
       <c r="O32" s="8">
         <v>3312</v>
       </c>
-      <c r="P32" s="420"/>
-      <c r="Q32" s="388"/>
-      <c r="R32" s="420"/>
-      <c r="S32" s="420"/>
-      <c r="T32" s="420"/>
-      <c r="U32" s="424"/>
-      <c r="V32" s="424"/>
-      <c r="W32" s="429"/>
+      <c r="P32" s="416"/>
+      <c r="Q32" s="385"/>
+      <c r="R32" s="416"/>
+      <c r="S32" s="416"/>
+      <c r="T32" s="416"/>
+      <c r="U32" s="420"/>
+      <c r="V32" s="420"/>
+      <c r="W32" s="425"/>
     </row>
     <row r="33" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="381"/>
-      <c r="B33" s="416"/>
-      <c r="C33" s="416"/>
-      <c r="D33" s="416"/>
-      <c r="E33" s="375"/>
-      <c r="F33" s="375"/>
-      <c r="G33" s="376"/>
+      <c r="A33" s="379"/>
+      <c r="B33" s="412"/>
+      <c r="C33" s="412"/>
+      <c r="D33" s="412"/>
+      <c r="E33" s="370"/>
+      <c r="F33" s="370"/>
+      <c r="G33" s="373"/>
       <c r="H33" s="8">
         <v>4</v>
       </c>
@@ -16387,23 +16336,23 @@
       <c r="O33" s="8">
         <v>3313</v>
       </c>
-      <c r="P33" s="420"/>
-      <c r="Q33" s="388"/>
-      <c r="R33" s="420"/>
-      <c r="S33" s="420"/>
-      <c r="T33" s="420"/>
-      <c r="U33" s="424"/>
-      <c r="V33" s="424"/>
-      <c r="W33" s="429"/>
+      <c r="P33" s="416"/>
+      <c r="Q33" s="385"/>
+      <c r="R33" s="416"/>
+      <c r="S33" s="416"/>
+      <c r="T33" s="416"/>
+      <c r="U33" s="420"/>
+      <c r="V33" s="420"/>
+      <c r="W33" s="425"/>
     </row>
     <row r="34" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="381"/>
-      <c r="B34" s="416"/>
-      <c r="C34" s="416"/>
-      <c r="D34" s="416"/>
-      <c r="E34" s="375"/>
-      <c r="F34" s="375"/>
-      <c r="G34" s="376"/>
+      <c r="A34" s="379"/>
+      <c r="B34" s="412"/>
+      <c r="C34" s="412"/>
+      <c r="D34" s="412"/>
+      <c r="E34" s="370"/>
+      <c r="F34" s="370"/>
+      <c r="G34" s="373"/>
       <c r="H34" s="8">
         <v>4</v>
       </c>
@@ -16427,23 +16376,23 @@
       <c r="O34" s="8">
         <v>3314</v>
       </c>
-      <c r="P34" s="420"/>
-      <c r="Q34" s="388"/>
-      <c r="R34" s="420"/>
-      <c r="S34" s="420"/>
-      <c r="T34" s="420"/>
-      <c r="U34" s="424"/>
-      <c r="V34" s="424"/>
-      <c r="W34" s="429"/>
+      <c r="P34" s="416"/>
+      <c r="Q34" s="385"/>
+      <c r="R34" s="416"/>
+      <c r="S34" s="416"/>
+      <c r="T34" s="416"/>
+      <c r="U34" s="420"/>
+      <c r="V34" s="420"/>
+      <c r="W34" s="425"/>
     </row>
     <row r="35" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="381"/>
-      <c r="B35" s="416"/>
-      <c r="C35" s="416"/>
-      <c r="D35" s="416"/>
-      <c r="E35" s="375"/>
-      <c r="F35" s="375"/>
-      <c r="G35" s="376"/>
+      <c r="A35" s="379"/>
+      <c r="B35" s="412"/>
+      <c r="C35" s="412"/>
+      <c r="D35" s="412"/>
+      <c r="E35" s="370"/>
+      <c r="F35" s="370"/>
+      <c r="G35" s="373"/>
       <c r="H35" s="8">
         <v>4</v>
       </c>
@@ -16467,23 +16416,23 @@
       <c r="O35" s="8">
         <v>3315</v>
       </c>
-      <c r="P35" s="420"/>
-      <c r="Q35" s="388"/>
-      <c r="R35" s="420"/>
-      <c r="S35" s="420"/>
-      <c r="T35" s="420"/>
-      <c r="U35" s="424"/>
-      <c r="V35" s="424"/>
-      <c r="W35" s="429"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="385"/>
+      <c r="R35" s="416"/>
+      <c r="S35" s="416"/>
+      <c r="T35" s="416"/>
+      <c r="U35" s="420"/>
+      <c r="V35" s="420"/>
+      <c r="W35" s="425"/>
     </row>
     <row r="36" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="381"/>
-      <c r="B36" s="416"/>
-      <c r="C36" s="416"/>
-      <c r="D36" s="416"/>
-      <c r="E36" s="375"/>
-      <c r="F36" s="375"/>
-      <c r="G36" s="376"/>
+      <c r="A36" s="379"/>
+      <c r="B36" s="412"/>
+      <c r="C36" s="412"/>
+      <c r="D36" s="412"/>
+      <c r="E36" s="370"/>
+      <c r="F36" s="370"/>
+      <c r="G36" s="373"/>
       <c r="H36" s="8">
         <v>4</v>
       </c>
@@ -16507,23 +16456,23 @@
       <c r="O36" s="8">
         <v>3316</v>
       </c>
-      <c r="P36" s="420"/>
-      <c r="Q36" s="388"/>
-      <c r="R36" s="420"/>
-      <c r="S36" s="420"/>
-      <c r="T36" s="420"/>
-      <c r="U36" s="424"/>
-      <c r="V36" s="424"/>
-      <c r="W36" s="429"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="385"/>
+      <c r="R36" s="416"/>
+      <c r="S36" s="416"/>
+      <c r="T36" s="416"/>
+      <c r="U36" s="420"/>
+      <c r="V36" s="420"/>
+      <c r="W36" s="425"/>
     </row>
     <row r="37" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="381"/>
-      <c r="B37" s="416"/>
-      <c r="C37" s="416"/>
-      <c r="D37" s="416"/>
-      <c r="E37" s="375"/>
-      <c r="F37" s="375"/>
-      <c r="G37" s="376"/>
+      <c r="A37" s="379"/>
+      <c r="B37" s="412"/>
+      <c r="C37" s="412"/>
+      <c r="D37" s="412"/>
+      <c r="E37" s="370"/>
+      <c r="F37" s="370"/>
+      <c r="G37" s="373"/>
       <c r="H37" s="8">
         <v>4</v>
       </c>
@@ -16547,23 +16496,23 @@
       <c r="O37" s="8">
         <v>3317</v>
       </c>
-      <c r="P37" s="420"/>
-      <c r="Q37" s="388"/>
-      <c r="R37" s="420"/>
-      <c r="S37" s="420"/>
-      <c r="T37" s="420"/>
-      <c r="U37" s="424"/>
-      <c r="V37" s="424"/>
-      <c r="W37" s="429"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="385"/>
+      <c r="R37" s="416"/>
+      <c r="S37" s="416"/>
+      <c r="T37" s="416"/>
+      <c r="U37" s="420"/>
+      <c r="V37" s="420"/>
+      <c r="W37" s="425"/>
     </row>
     <row r="38" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="381"/>
-      <c r="B38" s="416"/>
-      <c r="C38" s="416"/>
-      <c r="D38" s="416"/>
-      <c r="E38" s="375"/>
-      <c r="F38" s="375"/>
-      <c r="G38" s="376"/>
+      <c r="A38" s="379"/>
+      <c r="B38" s="412"/>
+      <c r="C38" s="412"/>
+      <c r="D38" s="412"/>
+      <c r="E38" s="370"/>
+      <c r="F38" s="370"/>
+      <c r="G38" s="373"/>
       <c r="H38" s="8">
         <v>4</v>
       </c>
@@ -16587,23 +16536,23 @@
       <c r="O38" s="8">
         <v>3318</v>
       </c>
-      <c r="P38" s="420"/>
-      <c r="Q38" s="388"/>
-      <c r="R38" s="421"/>
-      <c r="S38" s="421"/>
-      <c r="T38" s="421"/>
-      <c r="U38" s="425"/>
-      <c r="V38" s="425"/>
-      <c r="W38" s="429"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="385"/>
+      <c r="R38" s="417"/>
+      <c r="S38" s="417"/>
+      <c r="T38" s="417"/>
+      <c r="U38" s="421"/>
+      <c r="V38" s="421"/>
+      <c r="W38" s="425"/>
     </row>
     <row r="39" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="381"/>
-      <c r="B39" s="416"/>
-      <c r="C39" s="416"/>
-      <c r="D39" s="416"/>
-      <c r="E39" s="375"/>
-      <c r="F39" s="375"/>
-      <c r="G39" s="376"/>
+      <c r="A39" s="379"/>
+      <c r="B39" s="412"/>
+      <c r="C39" s="412"/>
+      <c r="D39" s="412"/>
+      <c r="E39" s="370"/>
+      <c r="F39" s="370"/>
+      <c r="G39" s="373"/>
       <c r="H39" s="8">
         <v>4</v>
       </c>
@@ -16627,33 +16576,33 @@
       <c r="O39" s="8">
         <v>3342</v>
       </c>
-      <c r="P39" s="420"/>
-      <c r="Q39" s="419" t="s">
+      <c r="P39" s="416"/>
+      <c r="Q39" s="415" t="s">
         <v>73</v>
       </c>
-      <c r="R39" s="419"/>
-      <c r="S39" s="419"/>
-      <c r="T39" s="422" t="s">
+      <c r="R39" s="415"/>
+      <c r="S39" s="415"/>
+      <c r="T39" s="418" t="s">
         <v>630</v>
       </c>
-      <c r="U39" s="434" t="s">
+      <c r="U39" s="430" t="s">
         <v>631</v>
       </c>
-      <c r="V39" s="437" t="s">
+      <c r="V39" s="433" t="s">
         <v>632</v>
       </c>
-      <c r="W39" s="430">
+      <c r="W39" s="426">
         <v>43734</v>
       </c>
     </row>
     <row r="40" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="381"/>
-      <c r="B40" s="416"/>
-      <c r="C40" s="416"/>
-      <c r="D40" s="416"/>
-      <c r="E40" s="375"/>
-      <c r="F40" s="375"/>
-      <c r="G40" s="376"/>
+      <c r="A40" s="379"/>
+      <c r="B40" s="412"/>
+      <c r="C40" s="412"/>
+      <c r="D40" s="412"/>
+      <c r="E40" s="370"/>
+      <c r="F40" s="370"/>
+      <c r="G40" s="373"/>
       <c r="H40" s="8">
         <v>8</v>
       </c>
@@ -16677,23 +16626,23 @@
       <c r="O40" s="8">
         <v>3343</v>
       </c>
-      <c r="P40" s="420"/>
-      <c r="Q40" s="420"/>
-      <c r="R40" s="420"/>
-      <c r="S40" s="420"/>
-      <c r="T40" s="432"/>
-      <c r="U40" s="435"/>
-      <c r="V40" s="438"/>
-      <c r="W40" s="431"/>
+      <c r="P40" s="416"/>
+      <c r="Q40" s="416"/>
+      <c r="R40" s="416"/>
+      <c r="S40" s="416"/>
+      <c r="T40" s="428"/>
+      <c r="U40" s="431"/>
+      <c r="V40" s="434"/>
+      <c r="W40" s="427"/>
     </row>
     <row r="41" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="381"/>
-      <c r="B41" s="416"/>
-      <c r="C41" s="416"/>
-      <c r="D41" s="416"/>
-      <c r="E41" s="375"/>
-      <c r="F41" s="375"/>
-      <c r="G41" s="376"/>
+      <c r="A41" s="379"/>
+      <c r="B41" s="412"/>
+      <c r="C41" s="412"/>
+      <c r="D41" s="412"/>
+      <c r="E41" s="370"/>
+      <c r="F41" s="370"/>
+      <c r="G41" s="373"/>
       <c r="H41" s="8">
         <v>8</v>
       </c>
@@ -16717,23 +16666,23 @@
       <c r="O41" s="8">
         <v>3344</v>
       </c>
-      <c r="P41" s="420"/>
-      <c r="Q41" s="420"/>
-      <c r="R41" s="420"/>
-      <c r="S41" s="420"/>
-      <c r="T41" s="432"/>
-      <c r="U41" s="435"/>
-      <c r="V41" s="438"/>
-      <c r="W41" s="431"/>
+      <c r="P41" s="416"/>
+      <c r="Q41" s="416"/>
+      <c r="R41" s="416"/>
+      <c r="S41" s="416"/>
+      <c r="T41" s="428"/>
+      <c r="U41" s="431"/>
+      <c r="V41" s="434"/>
+      <c r="W41" s="427"/>
     </row>
     <row r="42" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="381"/>
-      <c r="B42" s="416"/>
-      <c r="C42" s="416"/>
-      <c r="D42" s="416"/>
-      <c r="E42" s="375"/>
-      <c r="F42" s="375"/>
-      <c r="G42" s="376"/>
+      <c r="A42" s="379"/>
+      <c r="B42" s="412"/>
+      <c r="C42" s="412"/>
+      <c r="D42" s="412"/>
+      <c r="E42" s="370"/>
+      <c r="F42" s="370"/>
+      <c r="G42" s="373"/>
       <c r="H42" s="25">
         <v>4</v>
       </c>
@@ -16757,23 +16706,23 @@
       <c r="O42" s="25">
         <v>3345</v>
       </c>
-      <c r="P42" s="420"/>
-      <c r="Q42" s="421"/>
-      <c r="R42" s="421"/>
-      <c r="S42" s="421"/>
-      <c r="T42" s="433"/>
-      <c r="U42" s="436"/>
-      <c r="V42" s="439"/>
-      <c r="W42" s="431"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="417"/>
+      <c r="R42" s="417"/>
+      <c r="S42" s="417"/>
+      <c r="T42" s="429"/>
+      <c r="U42" s="432"/>
+      <c r="V42" s="435"/>
+      <c r="W42" s="427"/>
     </row>
     <row r="43" spans="1:23" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="381"/>
-      <c r="B43" s="416"/>
-      <c r="C43" s="416"/>
-      <c r="D43" s="416"/>
-      <c r="E43" s="375"/>
-      <c r="F43" s="375"/>
-      <c r="G43" s="376"/>
+      <c r="A43" s="379"/>
+      <c r="B43" s="412"/>
+      <c r="C43" s="412"/>
+      <c r="D43" s="412"/>
+      <c r="E43" s="370"/>
+      <c r="F43" s="370"/>
+      <c r="G43" s="373"/>
       <c r="H43" s="54">
         <v>4</v>
       </c>
@@ -16797,7 +16746,7 @@
       <c r="O43" s="54">
         <v>3350</v>
       </c>
-      <c r="P43" s="420"/>
+      <c r="P43" s="416"/>
       <c r="Q43" s="41" t="s">
         <v>144</v>
       </c>
@@ -16811,13 +16760,13 @@
       </c>
     </row>
     <row r="44" spans="1:23" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="381"/>
-      <c r="B44" s="416"/>
-      <c r="C44" s="416"/>
-      <c r="D44" s="416"/>
-      <c r="E44" s="375"/>
-      <c r="F44" s="375"/>
-      <c r="G44" s="376"/>
+      <c r="A44" s="379"/>
+      <c r="B44" s="412"/>
+      <c r="C44" s="412"/>
+      <c r="D44" s="412"/>
+      <c r="E44" s="370"/>
+      <c r="F44" s="370"/>
+      <c r="G44" s="373"/>
       <c r="H44" s="71">
         <v>4</v>
       </c>
@@ -16841,7 +16790,7 @@
       <c r="O44" s="71">
         <v>3353</v>
       </c>
-      <c r="P44" s="420"/>
+      <c r="P44" s="416"/>
       <c r="Q44" s="41" t="s">
         <v>144</v>
       </c>
@@ -16855,13 +16804,13 @@
       </c>
     </row>
     <row r="45" spans="1:23" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="381"/>
-      <c r="B45" s="416"/>
-      <c r="C45" s="416"/>
-      <c r="D45" s="416"/>
-      <c r="E45" s="375"/>
-      <c r="F45" s="375"/>
-      <c r="G45" s="376"/>
+      <c r="A45" s="379"/>
+      <c r="B45" s="412"/>
+      <c r="C45" s="412"/>
+      <c r="D45" s="412"/>
+      <c r="E45" s="370"/>
+      <c r="F45" s="370"/>
+      <c r="G45" s="373"/>
       <c r="H45" s="104">
         <v>4</v>
       </c>
@@ -16885,7 +16834,7 @@
       <c r="O45" s="104">
         <v>3356</v>
       </c>
-      <c r="P45" s="420"/>
+      <c r="P45" s="416"/>
       <c r="Q45" s="41" t="s">
         <v>196</v>
       </c>
@@ -16899,13 +16848,13 @@
       </c>
     </row>
     <row r="46" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="381"/>
-      <c r="B46" s="416"/>
-      <c r="C46" s="416"/>
-      <c r="D46" s="416"/>
-      <c r="E46" s="375"/>
-      <c r="F46" s="375"/>
-      <c r="G46" s="376"/>
+      <c r="A46" s="379"/>
+      <c r="B46" s="412"/>
+      <c r="C46" s="412"/>
+      <c r="D46" s="412"/>
+      <c r="E46" s="370"/>
+      <c r="F46" s="370"/>
+      <c r="G46" s="373"/>
       <c r="H46" s="117">
         <v>4</v>
       </c>
@@ -16931,7 +16880,7 @@
       <c r="O46" s="117">
         <v>3359</v>
       </c>
-      <c r="P46" s="420"/>
+      <c r="P46" s="416"/>
       <c r="Q46" s="41" t="s">
         <v>228</v>
       </c>
@@ -16945,13 +16894,13 @@
       </c>
     </row>
     <row r="47" spans="1:23" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="381"/>
-      <c r="B47" s="416"/>
-      <c r="C47" s="416"/>
-      <c r="D47" s="416"/>
-      <c r="E47" s="375"/>
-      <c r="F47" s="375"/>
-      <c r="G47" s="376"/>
+      <c r="A47" s="379"/>
+      <c r="B47" s="412"/>
+      <c r="C47" s="412"/>
+      <c r="D47" s="412"/>
+      <c r="E47" s="370"/>
+      <c r="F47" s="370"/>
+      <c r="G47" s="373"/>
       <c r="H47" s="148">
         <v>4</v>
       </c>
@@ -16975,7 +16924,7 @@
       <c r="O47" s="148">
         <v>3362</v>
       </c>
-      <c r="P47" s="420"/>
+      <c r="P47" s="416"/>
       <c r="Q47" s="41" t="s">
         <v>613</v>
       </c>
@@ -16999,13 +16948,13 @@
       </c>
     </row>
     <row r="48" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="381"/>
-      <c r="B48" s="416"/>
-      <c r="C48" s="416"/>
-      <c r="D48" s="416"/>
-      <c r="E48" s="375"/>
-      <c r="F48" s="375"/>
-      <c r="G48" s="376"/>
+      <c r="A48" s="379"/>
+      <c r="B48" s="412"/>
+      <c r="C48" s="412"/>
+      <c r="D48" s="412"/>
+      <c r="E48" s="370"/>
+      <c r="F48" s="370"/>
+      <c r="G48" s="373"/>
       <c r="H48" s="173">
         <v>4</v>
       </c>
@@ -17029,7 +16978,7 @@
       <c r="O48" s="173">
         <v>3365</v>
       </c>
-      <c r="P48" s="420"/>
+      <c r="P48" s="416"/>
       <c r="Q48" s="41" t="s">
         <v>604</v>
       </c>
@@ -17053,13 +17002,13 @@
       </c>
     </row>
     <row r="49" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="381"/>
-      <c r="B49" s="416"/>
-      <c r="C49" s="416"/>
-      <c r="D49" s="416"/>
-      <c r="E49" s="375"/>
-      <c r="F49" s="375"/>
-      <c r="G49" s="376"/>
+      <c r="A49" s="379"/>
+      <c r="B49" s="412"/>
+      <c r="C49" s="412"/>
+      <c r="D49" s="412"/>
+      <c r="E49" s="370"/>
+      <c r="F49" s="370"/>
+      <c r="G49" s="373"/>
       <c r="H49" s="196">
         <v>4</v>
       </c>
@@ -17083,7 +17032,7 @@
       <c r="O49" s="196">
         <v>3368</v>
       </c>
-      <c r="P49" s="420"/>
+      <c r="P49" s="416"/>
       <c r="Q49" s="41" t="s">
         <v>316</v>
       </c>
@@ -17097,13 +17046,13 @@
       </c>
     </row>
     <row r="50" spans="1:23" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="381"/>
-      <c r="B50" s="416"/>
-      <c r="C50" s="416"/>
-      <c r="D50" s="416"/>
-      <c r="E50" s="375"/>
-      <c r="F50" s="375"/>
-      <c r="G50" s="376"/>
+      <c r="A50" s="379"/>
+      <c r="B50" s="412"/>
+      <c r="C50" s="412"/>
+      <c r="D50" s="412"/>
+      <c r="E50" s="370"/>
+      <c r="F50" s="370"/>
+      <c r="G50" s="373"/>
       <c r="H50" s="229">
         <v>4</v>
       </c>
@@ -17127,7 +17076,7 @@
       <c r="O50" s="229">
         <v>3372</v>
       </c>
-      <c r="P50" s="420"/>
+      <c r="P50" s="416"/>
       <c r="Q50" s="41" t="s">
         <v>521</v>
       </c>
@@ -17147,13 +17096,13 @@
       </c>
     </row>
     <row r="51" spans="1:23" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="381"/>
-      <c r="B51" s="416"/>
-      <c r="C51" s="416"/>
-      <c r="D51" s="416"/>
-      <c r="E51" s="375"/>
-      <c r="F51" s="375"/>
-      <c r="G51" s="376"/>
+      <c r="A51" s="379"/>
+      <c r="B51" s="412"/>
+      <c r="C51" s="412"/>
+      <c r="D51" s="412"/>
+      <c r="E51" s="370"/>
+      <c r="F51" s="370"/>
+      <c r="G51" s="373"/>
       <c r="H51" s="239">
         <v>4</v>
       </c>
@@ -17177,7 +17126,7 @@
       <c r="O51" s="239">
         <v>3375</v>
       </c>
-      <c r="P51" s="420"/>
+      <c r="P51" s="416"/>
       <c r="Q51" s="41" t="s">
         <v>520</v>
       </c>
@@ -17197,13 +17146,13 @@
       </c>
     </row>
     <row r="52" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="381"/>
-      <c r="B52" s="416"/>
-      <c r="C52" s="416"/>
-      <c r="D52" s="416"/>
-      <c r="E52" s="375"/>
-      <c r="F52" s="375"/>
-      <c r="G52" s="376"/>
+      <c r="A52" s="379"/>
+      <c r="B52" s="412"/>
+      <c r="C52" s="412"/>
+      <c r="D52" s="412"/>
+      <c r="E52" s="370"/>
+      <c r="F52" s="370"/>
+      <c r="G52" s="373"/>
       <c r="H52" s="267">
         <v>4</v>
       </c>
@@ -17229,7 +17178,7 @@
       <c r="O52" s="267">
         <v>3378</v>
       </c>
-      <c r="P52" s="420"/>
+      <c r="P52" s="416"/>
       <c r="Q52" s="41" t="s">
         <v>517</v>
       </c>
@@ -17253,13 +17202,13 @@
       </c>
     </row>
     <row r="53" spans="1:23" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="381"/>
-      <c r="B53" s="416"/>
-      <c r="C53" s="416"/>
-      <c r="D53" s="416"/>
-      <c r="E53" s="375"/>
-      <c r="F53" s="375"/>
-      <c r="G53" s="376"/>
+      <c r="A53" s="379"/>
+      <c r="B53" s="412"/>
+      <c r="C53" s="412"/>
+      <c r="D53" s="412"/>
+      <c r="E53" s="370"/>
+      <c r="F53" s="370"/>
+      <c r="G53" s="373"/>
       <c r="H53" s="304">
         <v>4</v>
       </c>
@@ -17285,7 +17234,7 @@
       <c r="O53" s="304">
         <v>3381</v>
       </c>
-      <c r="P53" s="420"/>
+      <c r="P53" s="416"/>
       <c r="Q53" s="41" t="s">
         <v>605</v>
       </c>
@@ -17309,13 +17258,13 @@
       </c>
     </row>
     <row r="54" spans="1:23" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="381"/>
-      <c r="B54" s="416"/>
-      <c r="C54" s="416"/>
-      <c r="D54" s="416"/>
-      <c r="E54" s="375"/>
-      <c r="F54" s="375"/>
-      <c r="G54" s="376"/>
+      <c r="A54" s="379"/>
+      <c r="B54" s="412"/>
+      <c r="C54" s="412"/>
+      <c r="D54" s="412"/>
+      <c r="E54" s="370"/>
+      <c r="F54" s="370"/>
+      <c r="G54" s="373"/>
       <c r="H54" s="327">
         <v>4</v>
       </c>
@@ -17341,7 +17290,7 @@
       <c r="O54" s="327">
         <v>3384</v>
       </c>
-      <c r="P54" s="420"/>
+      <c r="P54" s="416"/>
       <c r="Q54" s="41" t="s">
         <v>560</v>
       </c>
@@ -17361,13 +17310,13 @@
       </c>
     </row>
     <row r="55" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="381"/>
-      <c r="B55" s="416"/>
-      <c r="C55" s="416"/>
-      <c r="D55" s="416"/>
-      <c r="E55" s="375"/>
-      <c r="F55" s="375"/>
-      <c r="G55" s="376"/>
+      <c r="A55" s="379"/>
+      <c r="B55" s="412"/>
+      <c r="C55" s="412"/>
+      <c r="D55" s="412"/>
+      <c r="E55" s="370"/>
+      <c r="F55" s="370"/>
+      <c r="G55" s="373"/>
       <c r="H55" s="224">
         <v>4</v>
       </c>
@@ -17393,7 +17342,7 @@
       <c r="O55" s="224">
         <v>3387</v>
       </c>
-      <c r="P55" s="420"/>
+      <c r="P55" s="416"/>
       <c r="Q55" s="41" t="s">
         <v>607</v>
       </c>
@@ -17413,24 +17362,15 @@
       </c>
     </row>
     <row r="56" spans="1:23" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="384" t="s">
+      <c r="A56" s="382" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="416"/>
-      <c r="C56" s="416"/>
-      <c r="D56" s="416"/>
-      <c r="E56" s="386" t="str">
-        <f>TEXT(ROUND(SUM(H56:H81)/B3*100,4),"0.00")</f>
-        <v>207.14</v>
-      </c>
-      <c r="F56" s="386" t="str">
-        <f>TEXT(ROUND(SUM(I56:I81)/C3*100,4),"0.00")</f>
-        <v>80.47</v>
-      </c>
-      <c r="G56" s="389" t="str">
-        <f>TEXT(ROUND(SUM(L56:L81)/(D3*1024)*100,4),"0.00")</f>
-        <v>30.66</v>
-      </c>
+      <c r="B56" s="412"/>
+      <c r="C56" s="412"/>
+      <c r="D56" s="412"/>
+      <c r="E56" s="370"/>
+      <c r="F56" s="370"/>
+      <c r="G56" s="373"/>
       <c r="H56" s="6">
         <v>4</v>
       </c>
@@ -17454,31 +17394,31 @@
       <c r="O56" s="6">
         <v>3319</v>
       </c>
-      <c r="P56" s="390" t="s">
+      <c r="P56" s="386" t="s">
         <v>306</v>
       </c>
       <c r="Q56" s="365" t="s">
         <v>37</v>
       </c>
-      <c r="R56" s="414"/>
-      <c r="S56" s="414"/>
-      <c r="T56" s="390" t="s">
+      <c r="R56" s="410"/>
+      <c r="S56" s="410"/>
+      <c r="T56" s="386" t="s">
         <v>617</v>
       </c>
-      <c r="U56" s="411"/>
-      <c r="V56" s="411"/>
-      <c r="W56" s="405">
+      <c r="U56" s="407"/>
+      <c r="V56" s="407"/>
+      <c r="W56" s="401">
         <v>43612</v>
       </c>
     </row>
     <row r="57" spans="1:23" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="385"/>
-      <c r="B57" s="416"/>
-      <c r="C57" s="416"/>
-      <c r="D57" s="416"/>
-      <c r="E57" s="386"/>
-      <c r="F57" s="386"/>
-      <c r="G57" s="389"/>
+      <c r="A57" s="383"/>
+      <c r="B57" s="412"/>
+      <c r="C57" s="412"/>
+      <c r="D57" s="412"/>
+      <c r="E57" s="370"/>
+      <c r="F57" s="370"/>
+      <c r="G57" s="373"/>
       <c r="H57" s="6">
         <v>4</v>
       </c>
@@ -17502,23 +17442,23 @@
       <c r="O57" s="6">
         <v>3320</v>
       </c>
-      <c r="P57" s="418"/>
+      <c r="P57" s="414"/>
       <c r="Q57" s="365"/>
-      <c r="R57" s="418"/>
-      <c r="S57" s="418"/>
-      <c r="T57" s="418"/>
-      <c r="U57" s="426"/>
-      <c r="V57" s="426"/>
-      <c r="W57" s="405"/>
+      <c r="R57" s="414"/>
+      <c r="S57" s="414"/>
+      <c r="T57" s="414"/>
+      <c r="U57" s="422"/>
+      <c r="V57" s="422"/>
+      <c r="W57" s="401"/>
     </row>
     <row r="58" spans="1:23" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="385"/>
-      <c r="B58" s="416"/>
-      <c r="C58" s="416"/>
-      <c r="D58" s="416"/>
-      <c r="E58" s="386"/>
-      <c r="F58" s="386"/>
-      <c r="G58" s="389"/>
+      <c r="A58" s="383"/>
+      <c r="B58" s="412"/>
+      <c r="C58" s="412"/>
+      <c r="D58" s="412"/>
+      <c r="E58" s="370"/>
+      <c r="F58" s="370"/>
+      <c r="G58" s="373"/>
       <c r="H58" s="6">
         <v>4</v>
       </c>
@@ -17542,23 +17482,23 @@
       <c r="O58" s="6">
         <v>3321</v>
       </c>
-      <c r="P58" s="418"/>
+      <c r="P58" s="414"/>
       <c r="Q58" s="365"/>
-      <c r="R58" s="418"/>
-      <c r="S58" s="418"/>
-      <c r="T58" s="418"/>
-      <c r="U58" s="426"/>
-      <c r="V58" s="426"/>
-      <c r="W58" s="405"/>
+      <c r="R58" s="414"/>
+      <c r="S58" s="414"/>
+      <c r="T58" s="414"/>
+      <c r="U58" s="422"/>
+      <c r="V58" s="422"/>
+      <c r="W58" s="401"/>
     </row>
     <row r="59" spans="1:23" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="385"/>
-      <c r="B59" s="416"/>
-      <c r="C59" s="416"/>
-      <c r="D59" s="416"/>
-      <c r="E59" s="386"/>
-      <c r="F59" s="386"/>
-      <c r="G59" s="389"/>
+      <c r="A59" s="383"/>
+      <c r="B59" s="412"/>
+      <c r="C59" s="412"/>
+      <c r="D59" s="412"/>
+      <c r="E59" s="370"/>
+      <c r="F59" s="370"/>
+      <c r="G59" s="373"/>
       <c r="H59" s="6">
         <v>4</v>
       </c>
@@ -17582,23 +17522,23 @@
       <c r="O59" s="6">
         <v>3322</v>
       </c>
-      <c r="P59" s="418"/>
+      <c r="P59" s="414"/>
       <c r="Q59" s="365"/>
-      <c r="R59" s="415"/>
-      <c r="S59" s="415"/>
-      <c r="T59" s="415"/>
-      <c r="U59" s="412"/>
-      <c r="V59" s="412"/>
-      <c r="W59" s="405"/>
+      <c r="R59" s="411"/>
+      <c r="S59" s="411"/>
+      <c r="T59" s="411"/>
+      <c r="U59" s="408"/>
+      <c r="V59" s="408"/>
+      <c r="W59" s="401"/>
     </row>
     <row r="60" spans="1:23" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="385"/>
-      <c r="B60" s="416"/>
-      <c r="C60" s="416"/>
-      <c r="D60" s="416"/>
-      <c r="E60" s="386"/>
-      <c r="F60" s="386"/>
-      <c r="G60" s="389"/>
+      <c r="A60" s="383"/>
+      <c r="B60" s="412"/>
+      <c r="C60" s="412"/>
+      <c r="D60" s="412"/>
+      <c r="E60" s="370"/>
+      <c r="F60" s="370"/>
+      <c r="G60" s="373"/>
       <c r="H60" s="6">
         <v>4</v>
       </c>
@@ -17622,7 +17562,7 @@
       <c r="O60" s="6">
         <v>3325</v>
       </c>
-      <c r="P60" s="418"/>
+      <c r="P60" s="414"/>
       <c r="Q60" s="6" t="s">
         <v>60</v>
       </c>
@@ -17636,13 +17576,13 @@
       </c>
     </row>
     <row r="61" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="385"/>
-      <c r="B61" s="416"/>
-      <c r="C61" s="416"/>
-      <c r="D61" s="416"/>
-      <c r="E61" s="386"/>
-      <c r="F61" s="386"/>
-      <c r="G61" s="389"/>
+      <c r="A61" s="383"/>
+      <c r="B61" s="412"/>
+      <c r="C61" s="412"/>
+      <c r="D61" s="412"/>
+      <c r="E61" s="370"/>
+      <c r="F61" s="370"/>
+      <c r="G61" s="373"/>
       <c r="H61" s="6">
         <v>4</v>
       </c>
@@ -17666,7 +17606,7 @@
       <c r="O61" s="6">
         <v>3332</v>
       </c>
-      <c r="P61" s="418"/>
+      <c r="P61" s="414"/>
       <c r="Q61" s="6" t="s">
         <v>71</v>
       </c>
@@ -17680,13 +17620,13 @@
       </c>
     </row>
     <row r="62" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="385"/>
-      <c r="B62" s="416"/>
-      <c r="C62" s="416"/>
-      <c r="D62" s="416"/>
-      <c r="E62" s="386"/>
-      <c r="F62" s="386"/>
-      <c r="G62" s="389"/>
+      <c r="A62" s="383"/>
+      <c r="B62" s="412"/>
+      <c r="C62" s="412"/>
+      <c r="D62" s="412"/>
+      <c r="E62" s="370"/>
+      <c r="F62" s="370"/>
+      <c r="G62" s="373"/>
       <c r="H62" s="6">
         <v>4</v>
       </c>
@@ -17710,33 +17650,33 @@
       <c r="O62" s="6">
         <v>3333</v>
       </c>
-      <c r="P62" s="418"/>
-      <c r="Q62" s="393" t="s">
+      <c r="P62" s="414"/>
+      <c r="Q62" s="389" t="s">
         <v>183</v>
       </c>
-      <c r="R62" s="393"/>
-      <c r="S62" s="393"/>
-      <c r="T62" s="393" t="s">
+      <c r="R62" s="389"/>
+      <c r="S62" s="389"/>
+      <c r="T62" s="389" t="s">
         <v>630</v>
       </c>
-      <c r="U62" s="395" t="s">
+      <c r="U62" s="391" t="s">
         <v>631</v>
       </c>
-      <c r="V62" s="443" t="s">
+      <c r="V62" s="439" t="s">
         <v>632</v>
       </c>
-      <c r="W62" s="399">
+      <c r="W62" s="395">
         <v>43734</v>
       </c>
     </row>
     <row r="63" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="385"/>
-      <c r="B63" s="416"/>
-      <c r="C63" s="416"/>
-      <c r="D63" s="416"/>
-      <c r="E63" s="386"/>
-      <c r="F63" s="386"/>
-      <c r="G63" s="389"/>
+      <c r="A63" s="383"/>
+      <c r="B63" s="412"/>
+      <c r="C63" s="412"/>
+      <c r="D63" s="412"/>
+      <c r="E63" s="370"/>
+      <c r="F63" s="370"/>
+      <c r="G63" s="373"/>
       <c r="H63" s="6">
         <v>8</v>
       </c>
@@ -17760,23 +17700,23 @@
       <c r="O63" s="6">
         <v>3334</v>
       </c>
-      <c r="P63" s="418"/>
-      <c r="Q63" s="401"/>
-      <c r="R63" s="401"/>
-      <c r="S63" s="401"/>
-      <c r="T63" s="401"/>
-      <c r="U63" s="402"/>
-      <c r="V63" s="444"/>
-      <c r="W63" s="404"/>
+      <c r="P63" s="414"/>
+      <c r="Q63" s="397"/>
+      <c r="R63" s="397"/>
+      <c r="S63" s="397"/>
+      <c r="T63" s="397"/>
+      <c r="U63" s="398"/>
+      <c r="V63" s="440"/>
+      <c r="W63" s="400"/>
     </row>
     <row r="64" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="385"/>
-      <c r="B64" s="416"/>
-      <c r="C64" s="416"/>
-      <c r="D64" s="416"/>
-      <c r="E64" s="386"/>
-      <c r="F64" s="386"/>
-      <c r="G64" s="389"/>
+      <c r="A64" s="383"/>
+      <c r="B64" s="412"/>
+      <c r="C64" s="412"/>
+      <c r="D64" s="412"/>
+      <c r="E64" s="370"/>
+      <c r="F64" s="370"/>
+      <c r="G64" s="373"/>
       <c r="H64" s="6">
         <v>8</v>
       </c>
@@ -17800,23 +17740,23 @@
       <c r="O64" s="6">
         <v>3335</v>
       </c>
-      <c r="P64" s="418"/>
-      <c r="Q64" s="401"/>
-      <c r="R64" s="401"/>
-      <c r="S64" s="401"/>
-      <c r="T64" s="401"/>
-      <c r="U64" s="402"/>
-      <c r="V64" s="444"/>
-      <c r="W64" s="404"/>
+      <c r="P64" s="414"/>
+      <c r="Q64" s="397"/>
+      <c r="R64" s="397"/>
+      <c r="S64" s="397"/>
+      <c r="T64" s="397"/>
+      <c r="U64" s="398"/>
+      <c r="V64" s="440"/>
+      <c r="W64" s="400"/>
     </row>
     <row r="65" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="385"/>
-      <c r="B65" s="416"/>
-      <c r="C65" s="416"/>
-      <c r="D65" s="416"/>
-      <c r="E65" s="386"/>
-      <c r="F65" s="386"/>
-      <c r="G65" s="389"/>
+      <c r="A65" s="383"/>
+      <c r="B65" s="412"/>
+      <c r="C65" s="412"/>
+      <c r="D65" s="412"/>
+      <c r="E65" s="370"/>
+      <c r="F65" s="370"/>
+      <c r="G65" s="373"/>
       <c r="H65" s="6">
         <v>4</v>
       </c>
@@ -17840,23 +17780,23 @@
       <c r="O65" s="6">
         <v>3336</v>
       </c>
-      <c r="P65" s="418"/>
-      <c r="Q65" s="401"/>
-      <c r="R65" s="401"/>
-      <c r="S65" s="401"/>
-      <c r="T65" s="401"/>
-      <c r="U65" s="402"/>
-      <c r="V65" s="444"/>
-      <c r="W65" s="404"/>
+      <c r="P65" s="414"/>
+      <c r="Q65" s="397"/>
+      <c r="R65" s="397"/>
+      <c r="S65" s="397"/>
+      <c r="T65" s="397"/>
+      <c r="U65" s="398"/>
+      <c r="V65" s="440"/>
+      <c r="W65" s="400"/>
     </row>
     <row r="66" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="385"/>
-      <c r="B66" s="416"/>
-      <c r="C66" s="416"/>
-      <c r="D66" s="416"/>
-      <c r="E66" s="386"/>
-      <c r="F66" s="386"/>
-      <c r="G66" s="389"/>
+      <c r="A66" s="383"/>
+      <c r="B66" s="412"/>
+      <c r="C66" s="412"/>
+      <c r="D66" s="412"/>
+      <c r="E66" s="370"/>
+      <c r="F66" s="370"/>
+      <c r="G66" s="373"/>
       <c r="H66" s="14">
         <v>8</v>
       </c>
@@ -17880,23 +17820,23 @@
       <c r="O66" s="14">
         <v>3337</v>
       </c>
-      <c r="P66" s="418"/>
-      <c r="Q66" s="394"/>
-      <c r="R66" s="394"/>
-      <c r="S66" s="394"/>
-      <c r="T66" s="394"/>
-      <c r="U66" s="396"/>
-      <c r="V66" s="445"/>
-      <c r="W66" s="400"/>
+      <c r="P66" s="414"/>
+      <c r="Q66" s="390"/>
+      <c r="R66" s="390"/>
+      <c r="S66" s="390"/>
+      <c r="T66" s="390"/>
+      <c r="U66" s="392"/>
+      <c r="V66" s="441"/>
+      <c r="W66" s="396"/>
     </row>
     <row r="67" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="385"/>
-      <c r="B67" s="416"/>
-      <c r="C67" s="416"/>
-      <c r="D67" s="416"/>
-      <c r="E67" s="386"/>
-      <c r="F67" s="386"/>
-      <c r="G67" s="389"/>
+      <c r="A67" s="383"/>
+      <c r="B67" s="412"/>
+      <c r="C67" s="412"/>
+      <c r="D67" s="412"/>
+      <c r="E67" s="370"/>
+      <c r="F67" s="370"/>
+      <c r="G67" s="373"/>
       <c r="H67" s="19">
         <v>4</v>
       </c>
@@ -17920,7 +17860,7 @@
       <c r="O67" s="19">
         <v>3347</v>
       </c>
-      <c r="P67" s="418"/>
+      <c r="P67" s="414"/>
       <c r="Q67" s="329" t="s">
         <v>633</v>
       </c>
@@ -17940,13 +17880,13 @@
       </c>
     </row>
     <row r="68" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="385"/>
-      <c r="B68" s="416"/>
-      <c r="C68" s="416"/>
-      <c r="D68" s="416"/>
-      <c r="E68" s="386"/>
-      <c r="F68" s="386"/>
-      <c r="G68" s="389"/>
+      <c r="A68" s="383"/>
+      <c r="B68" s="412"/>
+      <c r="C68" s="412"/>
+      <c r="D68" s="412"/>
+      <c r="E68" s="370"/>
+      <c r="F68" s="370"/>
+      <c r="G68" s="373"/>
       <c r="H68" s="39">
         <v>4</v>
       </c>
@@ -17972,7 +17912,7 @@
       <c r="O68" s="39">
         <v>3349</v>
       </c>
-      <c r="P68" s="418"/>
+      <c r="P68" s="414"/>
       <c r="Q68" s="12" t="s">
         <v>138</v>
       </c>
@@ -17986,13 +17926,13 @@
       </c>
     </row>
     <row r="69" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A69" s="385"/>
-      <c r="B69" s="416"/>
-      <c r="C69" s="416"/>
-      <c r="D69" s="416"/>
-      <c r="E69" s="386"/>
-      <c r="F69" s="386"/>
-      <c r="G69" s="389"/>
+      <c r="A69" s="383"/>
+      <c r="B69" s="412"/>
+      <c r="C69" s="412"/>
+      <c r="D69" s="412"/>
+      <c r="E69" s="370"/>
+      <c r="F69" s="370"/>
+      <c r="G69" s="373"/>
       <c r="H69" s="64">
         <v>4</v>
       </c>
@@ -18016,7 +17956,7 @@
       <c r="O69" s="64">
         <v>3351</v>
       </c>
-      <c r="P69" s="418"/>
+      <c r="P69" s="414"/>
       <c r="Q69" s="68" t="s">
         <v>168</v>
       </c>
@@ -18030,13 +17970,13 @@
       </c>
     </row>
     <row r="70" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A70" s="385"/>
-      <c r="B70" s="416"/>
-      <c r="C70" s="416"/>
-      <c r="D70" s="416"/>
-      <c r="E70" s="386"/>
-      <c r="F70" s="386"/>
-      <c r="G70" s="389"/>
+      <c r="A70" s="383"/>
+      <c r="B70" s="412"/>
+      <c r="C70" s="412"/>
+      <c r="D70" s="412"/>
+      <c r="E70" s="370"/>
+      <c r="F70" s="370"/>
+      <c r="G70" s="373"/>
       <c r="H70" s="94">
         <v>4</v>
       </c>
@@ -18060,7 +18000,7 @@
       <c r="O70" s="94">
         <v>3354</v>
       </c>
-      <c r="P70" s="418"/>
+      <c r="P70" s="414"/>
       <c r="Q70" s="96" t="s">
         <v>189</v>
       </c>
@@ -18074,13 +18014,13 @@
       </c>
     </row>
     <row r="71" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="385"/>
-      <c r="B71" s="416"/>
-      <c r="C71" s="416"/>
-      <c r="D71" s="416"/>
-      <c r="E71" s="386"/>
-      <c r="F71" s="386"/>
-      <c r="G71" s="389"/>
+      <c r="A71" s="383"/>
+      <c r="B71" s="412"/>
+      <c r="C71" s="412"/>
+      <c r="D71" s="412"/>
+      <c r="E71" s="370"/>
+      <c r="F71" s="370"/>
+      <c r="G71" s="373"/>
       <c r="H71" s="107">
         <v>4</v>
       </c>
@@ -18104,7 +18044,7 @@
       <c r="O71" s="107">
         <v>3357</v>
       </c>
-      <c r="P71" s="418"/>
+      <c r="P71" s="414"/>
       <c r="Q71" s="111" t="s">
         <v>218</v>
       </c>
@@ -18118,13 +18058,13 @@
       </c>
     </row>
     <row r="72" spans="1:23" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="385"/>
-      <c r="B72" s="416"/>
-      <c r="C72" s="416"/>
-      <c r="D72" s="416"/>
-      <c r="E72" s="386"/>
-      <c r="F72" s="386"/>
-      <c r="G72" s="389"/>
+      <c r="A72" s="383"/>
+      <c r="B72" s="412"/>
+      <c r="C72" s="412"/>
+      <c r="D72" s="412"/>
+      <c r="E72" s="370"/>
+      <c r="F72" s="370"/>
+      <c r="G72" s="373"/>
       <c r="H72" s="128">
         <v>4</v>
       </c>
@@ -18148,7 +18088,7 @@
       <c r="O72" s="128">
         <v>3360</v>
       </c>
-      <c r="P72" s="418"/>
+      <c r="P72" s="414"/>
       <c r="Q72" s="130" t="s">
         <v>240</v>
       </c>
@@ -18162,13 +18102,13 @@
       </c>
     </row>
     <row r="73" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="385"/>
-      <c r="B73" s="416"/>
-      <c r="C73" s="416"/>
-      <c r="D73" s="416"/>
-      <c r="E73" s="386"/>
-      <c r="F73" s="386"/>
-      <c r="G73" s="389"/>
+      <c r="A73" s="383"/>
+      <c r="B73" s="412"/>
+      <c r="C73" s="412"/>
+      <c r="D73" s="412"/>
+      <c r="E73" s="370"/>
+      <c r="F73" s="370"/>
+      <c r="G73" s="373"/>
       <c r="H73" s="167">
         <v>4</v>
       </c>
@@ -18192,7 +18132,7 @@
       <c r="O73" s="167">
         <v>3363</v>
       </c>
-      <c r="P73" s="418"/>
+      <c r="P73" s="414"/>
       <c r="Q73" s="169" t="s">
         <v>258</v>
       </c>
@@ -18206,13 +18146,13 @@
       </c>
     </row>
     <row r="74" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="385"/>
-      <c r="B74" s="416"/>
-      <c r="C74" s="416"/>
-      <c r="D74" s="416"/>
-      <c r="E74" s="386"/>
-      <c r="F74" s="386"/>
-      <c r="G74" s="389"/>
+      <c r="A74" s="383"/>
+      <c r="B74" s="412"/>
+      <c r="C74" s="412"/>
+      <c r="D74" s="412"/>
+      <c r="E74" s="370"/>
+      <c r="F74" s="370"/>
+      <c r="G74" s="373"/>
       <c r="H74" s="171">
         <v>4</v>
       </c>
@@ -18236,7 +18176,7 @@
       <c r="O74" s="171">
         <v>3366</v>
       </c>
-      <c r="P74" s="418"/>
+      <c r="P74" s="414"/>
       <c r="Q74" s="324" t="s">
         <v>301</v>
       </c>
@@ -18258,13 +18198,13 @@
       </c>
     </row>
     <row r="75" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="385"/>
-      <c r="B75" s="416"/>
-      <c r="C75" s="416"/>
-      <c r="D75" s="416"/>
-      <c r="E75" s="386"/>
-      <c r="F75" s="386"/>
-      <c r="G75" s="389"/>
+      <c r="A75" s="383"/>
+      <c r="B75" s="412"/>
+      <c r="C75" s="412"/>
+      <c r="D75" s="412"/>
+      <c r="E75" s="370"/>
+      <c r="F75" s="370"/>
+      <c r="G75" s="373"/>
       <c r="H75" s="206">
         <v>4</v>
       </c>
@@ -18290,7 +18230,7 @@
       <c r="O75" s="206">
         <v>3369</v>
       </c>
-      <c r="P75" s="418"/>
+      <c r="P75" s="414"/>
       <c r="Q75" s="207" t="s">
         <v>228</v>
       </c>
@@ -18304,13 +18244,13 @@
       </c>
     </row>
     <row r="76" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A76" s="385"/>
-      <c r="B76" s="416"/>
-      <c r="C76" s="416"/>
-      <c r="D76" s="416"/>
-      <c r="E76" s="386"/>
-      <c r="F76" s="386"/>
-      <c r="G76" s="389"/>
+      <c r="A76" s="383"/>
+      <c r="B76" s="412"/>
+      <c r="C76" s="412"/>
+      <c r="D76" s="412"/>
+      <c r="E76" s="370"/>
+      <c r="F76" s="370"/>
+      <c r="G76" s="373"/>
       <c r="H76" s="227">
         <v>4</v>
       </c>
@@ -18334,7 +18274,7 @@
       <c r="O76" s="227">
         <v>3373</v>
       </c>
-      <c r="P76" s="418"/>
+      <c r="P76" s="414"/>
       <c r="Q76" s="230" t="s">
         <v>398</v>
       </c>
@@ -18354,13 +18294,13 @@
       </c>
     </row>
     <row r="77" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A77" s="385"/>
-      <c r="B77" s="416"/>
-      <c r="C77" s="416"/>
-      <c r="D77" s="416"/>
-      <c r="E77" s="386"/>
-      <c r="F77" s="386"/>
-      <c r="G77" s="389"/>
+      <c r="A77" s="383"/>
+      <c r="B77" s="412"/>
+      <c r="C77" s="412"/>
+      <c r="D77" s="412"/>
+      <c r="E77" s="370"/>
+      <c r="F77" s="370"/>
+      <c r="G77" s="373"/>
       <c r="H77" s="247">
         <v>4</v>
       </c>
@@ -18384,7 +18324,7 @@
       <c r="O77" s="247">
         <v>3376</v>
       </c>
-      <c r="P77" s="418"/>
+      <c r="P77" s="414"/>
       <c r="Q77" s="248" t="s">
         <v>479</v>
       </c>
@@ -18404,13 +18344,13 @@
       </c>
     </row>
     <row r="78" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A78" s="385"/>
-      <c r="B78" s="416"/>
-      <c r="C78" s="416"/>
-      <c r="D78" s="416"/>
-      <c r="E78" s="386"/>
-      <c r="F78" s="386"/>
-      <c r="G78" s="389"/>
+      <c r="A78" s="383"/>
+      <c r="B78" s="412"/>
+      <c r="C78" s="412"/>
+      <c r="D78" s="412"/>
+      <c r="E78" s="370"/>
+      <c r="F78" s="370"/>
+      <c r="G78" s="373"/>
       <c r="H78" s="270">
         <v>4</v>
       </c>
@@ -18434,7 +18374,7 @@
       <c r="O78" s="270">
         <v>3379</v>
       </c>
-      <c r="P78" s="418"/>
+      <c r="P78" s="414"/>
       <c r="Q78" s="271" t="s">
         <v>478</v>
       </c>
@@ -18454,13 +18394,13 @@
       </c>
     </row>
     <row r="79" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="385"/>
-      <c r="B79" s="416"/>
-      <c r="C79" s="416"/>
-      <c r="D79" s="416"/>
-      <c r="E79" s="386"/>
-      <c r="F79" s="386"/>
-      <c r="G79" s="389"/>
+      <c r="A79" s="383"/>
+      <c r="B79" s="412"/>
+      <c r="C79" s="412"/>
+      <c r="D79" s="412"/>
+      <c r="E79" s="370"/>
+      <c r="F79" s="370"/>
+      <c r="G79" s="373"/>
       <c r="H79" s="310">
         <v>4</v>
       </c>
@@ -18480,13 +18420,13 @@
       <c r="M79" s="309" t="s">
         <v>508</v>
       </c>
-      <c r="N79" s="390" t="s">
+      <c r="N79" s="386" t="s">
         <v>501</v>
       </c>
       <c r="O79" s="310">
         <v>3382</v>
       </c>
-      <c r="P79" s="418"/>
+      <c r="P79" s="414"/>
       <c r="Q79" s="311" t="s">
         <v>502</v>
       </c>
@@ -18510,13 +18450,13 @@
       </c>
     </row>
     <row r="80" spans="1:23" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="385"/>
-      <c r="B80" s="416"/>
-      <c r="C80" s="416"/>
-      <c r="D80" s="416"/>
-      <c r="E80" s="386"/>
-      <c r="F80" s="386"/>
-      <c r="G80" s="389"/>
+      <c r="A80" s="383"/>
+      <c r="B80" s="412"/>
+      <c r="C80" s="412"/>
+      <c r="D80" s="412"/>
+      <c r="E80" s="370"/>
+      <c r="F80" s="370"/>
+      <c r="G80" s="373"/>
       <c r="H80" s="337">
         <v>4</v>
       </c>
@@ -18536,11 +18476,11 @@
       <c r="M80" s="336" t="s">
         <v>580</v>
       </c>
-      <c r="N80" s="391"/>
+      <c r="N80" s="387"/>
       <c r="O80" s="337">
         <v>3385</v>
       </c>
-      <c r="P80" s="418"/>
+      <c r="P80" s="414"/>
       <c r="Q80" s="338" t="s">
         <v>570</v>
       </c>
@@ -18564,13 +18504,13 @@
       </c>
     </row>
     <row r="81" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="385"/>
-      <c r="B81" s="416"/>
-      <c r="C81" s="416"/>
-      <c r="D81" s="416"/>
-      <c r="E81" s="386"/>
-      <c r="F81" s="386"/>
-      <c r="G81" s="389"/>
+      <c r="A81" s="383"/>
+      <c r="B81" s="412"/>
+      <c r="C81" s="412"/>
+      <c r="D81" s="412"/>
+      <c r="E81" s="371"/>
+      <c r="F81" s="371"/>
+      <c r="G81" s="374"/>
       <c r="H81" s="161">
         <v>4</v>
       </c>
@@ -18590,11 +18530,11 @@
       <c r="M81" s="160" t="s">
         <v>651</v>
       </c>
-      <c r="N81" s="392"/>
+      <c r="N81" s="388"/>
       <c r="O81" s="161">
         <v>3388</v>
       </c>
-      <c r="P81" s="415"/>
+      <c r="P81" s="411"/>
       <c r="Q81" s="164" t="s">
         <v>645</v>
       </c>
@@ -18619,27 +18559,21 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:W81"/>
-  <mergeCells count="63">
+  <mergeCells count="57">
     <mergeCell ref="T62:T66"/>
     <mergeCell ref="U62:U66"/>
     <mergeCell ref="V62:V66"/>
     <mergeCell ref="S62:S66"/>
     <mergeCell ref="R62:R66"/>
+    <mergeCell ref="U39:U42"/>
+    <mergeCell ref="V39:V42"/>
+    <mergeCell ref="S39:S42"/>
+    <mergeCell ref="R39:R42"/>
     <mergeCell ref="T10:T13"/>
     <mergeCell ref="U10:U13"/>
     <mergeCell ref="V10:V13"/>
     <mergeCell ref="S10:S13"/>
     <mergeCell ref="R10:R13"/>
-    <mergeCell ref="T39:T42"/>
-    <mergeCell ref="U39:U42"/>
-    <mergeCell ref="V39:V42"/>
-    <mergeCell ref="S39:S42"/>
-    <mergeCell ref="R39:R42"/>
-    <mergeCell ref="R3:R8"/>
-    <mergeCell ref="S3:S8"/>
-    <mergeCell ref="T3:T8"/>
-    <mergeCell ref="U3:U8"/>
-    <mergeCell ref="V3:V8"/>
     <mergeCell ref="H1:W1"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="Q30:Q38"/>
@@ -18648,25 +18582,25 @@
     <mergeCell ref="W3:W8"/>
     <mergeCell ref="A30:A55"/>
     <mergeCell ref="W10:W13"/>
-    <mergeCell ref="E30:E55"/>
-    <mergeCell ref="F30:F55"/>
-    <mergeCell ref="G30:G55"/>
     <mergeCell ref="P3:P29"/>
-    <mergeCell ref="E3:E29"/>
     <mergeCell ref="W39:W42"/>
-    <mergeCell ref="F3:F29"/>
-    <mergeCell ref="G3:G29"/>
-    <mergeCell ref="F56:F81"/>
+    <mergeCell ref="R3:R8"/>
+    <mergeCell ref="S3:S8"/>
+    <mergeCell ref="T3:T8"/>
+    <mergeCell ref="U3:U8"/>
+    <mergeCell ref="V3:V8"/>
+    <mergeCell ref="T39:T42"/>
     <mergeCell ref="P30:P55"/>
-    <mergeCell ref="G56:G81"/>
     <mergeCell ref="P56:P81"/>
     <mergeCell ref="A56:A81"/>
     <mergeCell ref="B3:B81"/>
     <mergeCell ref="C3:C81"/>
     <mergeCell ref="D3:D81"/>
-    <mergeCell ref="E56:E81"/>
     <mergeCell ref="A3:A29"/>
     <mergeCell ref="N79:N81"/>
+    <mergeCell ref="E3:E81"/>
+    <mergeCell ref="F3:F81"/>
+    <mergeCell ref="G3:G81"/>
     <mergeCell ref="Q10:Q13"/>
     <mergeCell ref="W62:W66"/>
     <mergeCell ref="Q62:Q66"/>

--- a/MySQL测试环境资源池.xlsx
+++ b/MySQL测试环境资源池.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="8网段 (Non-pi)" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'8网段 (Non-pi)'!$A$2:$X$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'9网段 (Non-pi)'!$A$2:$X$94</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="743">
   <si>
     <t>环境</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3295,6 +3295,34 @@
   </si>
   <si>
     <t>mysql_ls_pi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql_sc_uat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7.29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java平台微服务升级及DevOps建设项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL审核管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADPM.SC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林屹东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.240.245.202</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -19609,7 +19637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="W9" sqref="W9"/>
     </sheetView>
@@ -19933,16 +19961,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="16.77734375" customWidth="1"/>
     <col min="10" max="11" width="16.77734375" hidden="1" customWidth="1"/>
-    <col min="12" max="23" width="16.77734375" customWidth="1"/>
+    <col min="12" max="16" width="16.77734375" customWidth="1"/>
+    <col min="17" max="17" width="38" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -20059,25 +20089,58 @@
       <c r="D3" s="460">
         <v>80</v>
       </c>
-      <c r="E3" s="376"/>
-      <c r="F3" s="376"/>
-      <c r="G3" s="376"/>
-      <c r="H3" s="376"/>
-      <c r="I3" s="376"/>
+      <c r="E3" s="409" t="str">
+        <f>TEXT(ROUND(SUM(H4:H83)/B3*100,4),"0.00")</f>
+        <v>22.22</v>
+      </c>
+      <c r="F3" s="409" t="str">
+        <f>TEXT(ROUND(SUM(I4:I83)/C3*100,4),"0.00")</f>
+        <v>7.62</v>
+      </c>
+      <c r="G3" s="409" t="str">
+        <f>TEXT(ROUND(SUM(L4:L83)/(D3*1024)*100,4),"0.00")</f>
+        <v>0.99</v>
+      </c>
+      <c r="H3" s="376">
+        <v>2</v>
+      </c>
+      <c r="I3" s="376">
+        <v>2</v>
+      </c>
       <c r="J3" s="376"/>
       <c r="K3" s="376"/>
-      <c r="L3" s="376"/>
-      <c r="M3" s="376"/>
-      <c r="N3" s="376"/>
-      <c r="O3" s="376"/>
-      <c r="P3" s="376"/>
-      <c r="Q3" s="376"/>
-      <c r="R3" s="376"/>
-      <c r="S3" s="376"/>
-      <c r="T3" s="376"/>
+      <c r="L3" s="376">
+        <v>300</v>
+      </c>
+      <c r="M3" s="376" t="s">
+        <v>736</v>
+      </c>
+      <c r="N3" s="376" t="s">
+        <v>737</v>
+      </c>
+      <c r="O3" s="376">
+        <v>3307</v>
+      </c>
+      <c r="P3" s="376" t="s">
+        <v>742</v>
+      </c>
+      <c r="Q3" s="376" t="s">
+        <v>738</v>
+      </c>
+      <c r="R3" s="376" t="s">
+        <v>739</v>
+      </c>
+      <c r="S3" s="376" t="s">
+        <v>740</v>
+      </c>
+      <c r="T3" s="376" t="s">
+        <v>741</v>
+      </c>
       <c r="U3" s="377"/>
       <c r="V3" s="377"/>
-      <c r="W3" s="378"/>
+      <c r="W3" s="378">
+        <v>44095</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="388" t="s">
@@ -20086,18 +20149,9 @@
       <c r="B4" s="460"/>
       <c r="C4" s="460"/>
       <c r="D4" s="460"/>
-      <c r="E4" s="367" t="str">
-        <f>TEXT(ROUND(SUM(H4:H83)/B3*100,4),"0.00")</f>
-        <v>22.22</v>
-      </c>
-      <c r="F4" s="367" t="str">
-        <f>TEXT(ROUND(SUM(I4:I83)/C3*100,4),"0.00")</f>
-        <v>7.62</v>
-      </c>
-      <c r="G4" s="367" t="str">
-        <f>TEXT(ROUND(SUM(L4:L83)/(D3*1024)*100,4),"0.00")</f>
-        <v>0.99</v>
-      </c>
+      <c r="E4" s="410"/>
+      <c r="F4" s="410"/>
+      <c r="G4" s="410"/>
       <c r="H4" s="367">
         <v>16</v>
       </c>
@@ -20147,9 +20201,9 @@
       <c r="B5" s="460"/>
       <c r="C5" s="460"/>
       <c r="D5" s="460"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
-      <c r="G5" s="367"/>
+      <c r="E5" s="411"/>
+      <c r="F5" s="411"/>
+      <c r="G5" s="411"/>
       <c r="H5" s="367"/>
       <c r="I5" s="367"/>
       <c r="J5" s="367"/>
@@ -20168,12 +20222,15 @@
       <c r="W5" s="375"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:W1"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
